--- a/data/FINAL_Partner Monthly Summary Report - MMM 2022.xlsx
+++ b/data/FINAL_Partner Monthly Summary Report - MMM 2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="509">
   <si>
     <t>Date</t>
   </si>
@@ -70,90 +70,240 @@
     <t>Community Council: Monthly Summary Report - April 2022</t>
   </si>
   <si>
+    <t>Pearls of Humanity Foundation - April Monthly Report</t>
+  </si>
+  <si>
     <t>Black Greek Letter Consortium/ National Pan-Hellenic Summary April 2022</t>
   </si>
   <si>
     <t>Black Greek Letter Consortium/ Summary April 2022</t>
   </si>
   <si>
-    <t>Pearls of Humanity Foundation - April Monthly Report</t>
+    <t>Greensboro AHEC / Monthly Summary Report 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/ Phi Beta Sigma Summary April 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Omega Psi Phi Summary April 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Zeta Phi Beta Summary April 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/ Kappa Alpha Psi Summary April 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Sigma Gamma Rho Summary April 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Alpha Phi Alpha Summary April 2022</t>
   </si>
   <si>
     <t>Black Greek Letter Consortium/  Alpha Kappa Alpha Summary April 2022</t>
   </si>
   <si>
-    <t>Black Greek Letter Consortium/  Sigma Gamma Rho Summary April 2022</t>
-  </si>
-  <si>
-    <t>Black Greek Letter Consortium/ Phi Beta Sigma Summary April 2022</t>
-  </si>
-  <si>
-    <t>Black Greek Letter Consortium/  Omega Psi Phi Summary April 2022</t>
-  </si>
-  <si>
-    <t>Black Greek Letter Consortium/  Zeta Phi Beta Summary April 2022</t>
-  </si>
-  <si>
-    <t>Black Greek Letter Consortium/  Alpha Phi Alpha Summary April 2022</t>
-  </si>
-  <si>
-    <t>Black Greek Letter Consortium/ Kappa Alpha Psi Summary April 2022</t>
-  </si>
-  <si>
     <t>Black Greek Letter Consortium/  Iota Phi Theta Summary April 2022</t>
   </si>
   <si>
     <t>Denver YMCA/ Monthly Summary Report April 2022</t>
   </si>
   <si>
+    <t>NHMA Monthly Summary April 2022</t>
+  </si>
+  <si>
+    <t>AAFP/April 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>CenterLink Cycle 3/April Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Dillard University Community Relations April 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>NRHA / Cycle 3 April 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Xavier University- April 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>Texas AHEC East - Waco Region / April 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Seven Star Academy, Inc</t>
+  </si>
+  <si>
+    <t>Report for April 2022</t>
+  </si>
+  <si>
+    <t>BWHI April 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Southern University at New Orleans/April 2022 Monthly Report</t>
+  </si>
+  <si>
     <t>ACCESS Monthly Summary Report (April 2022)</t>
   </si>
   <si>
-    <t>Texas AHEC East - Waco Region / April 2022 Monthly Summary Report</t>
-  </si>
-  <si>
-    <t>CenterLink Cycle 3/April Monthly Summary Report</t>
+    <t>MS State Extension - April Monthly Report 2022</t>
+  </si>
+  <si>
+    <t>JSMW Monthly Summary Report (April 2022)</t>
   </si>
   <si>
     <t>Southern University at Shreveport/April 2022 Monthly Report</t>
   </si>
   <si>
-    <t>NHMA Monthly Summary April 2022</t>
-  </si>
-  <si>
-    <t>Seven Star Academy, Inc</t>
-  </si>
-  <si>
     <t>ANAC/Monthly Summary Report</t>
   </si>
   <si>
+    <t>YMCA of the Capital Area Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Golden Change - April Monthly Report</t>
+  </si>
+  <si>
     <t>THEARI/April Admin Report</t>
   </si>
   <si>
-    <t>NRHA / Cycle 3 April 2022 Monthly Summary Report</t>
-  </si>
-  <si>
-    <t>Xavier University- April 2022 Monthly Report</t>
-  </si>
-  <si>
     <t>NHCOA Monthly Summary Report (April 2022)</t>
   </si>
   <si>
+    <t>Cobb Institute / Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>HACU Monthly Summary Report (April 2022)</t>
+  </si>
+  <si>
+    <t>April 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>LULAC Monthly Summary Report (April 2022)</t>
+  </si>
+  <si>
+    <t>NMQF/April Monthly Report</t>
+  </si>
+  <si>
+    <t>UnidosUS Monthly Summary Report (April 2022)</t>
+  </si>
+  <si>
+    <t>NBNA Monthly Report - April 2022</t>
+  </si>
+  <si>
+    <t>AACN Monthly Report April 2022</t>
+  </si>
+  <si>
     <t>AAPA / April 2022 Monthly Summary Report</t>
   </si>
   <si>
-    <t>Cobb Institute / Monthly Summary Report</t>
-  </si>
-  <si>
-    <t>UnidosUS Monthly Summary Report (April 2022)</t>
+    <t>Sci-Port Discovery Center - April Monthly Report</t>
+  </si>
+  <si>
+    <t>NORBCC - April 2022 monthly report</t>
+  </si>
+  <si>
+    <t>AHECWW at Whatcom/April 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>Community Council: Monthly Summary Report - May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  National Pan-Hellenic Council May Summary 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Phi Beta Sigma May Summary  2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Kappa Alpha Psi Summary May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Sigma Gamma Rho May Summary  2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/ Alpha Phi Alpha Summary May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  May Summary 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Iota Phi Theta Summary May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Alpha Kappa Alpha Summary May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Zeta Phi Beta May Summary 2022</t>
+  </si>
+  <si>
+    <t>Dillard University Community Relations - Monthly Report May 2022</t>
+  </si>
+  <si>
+    <t>Black Greek Letter Consortium/  Omega Psi Phi May Summary 2022</t>
+  </si>
+  <si>
+    <t>Greensboro AHEC / Monthly Summary Report May 2022</t>
+  </si>
+  <si>
+    <t>THEARI/May Admin Report</t>
+  </si>
+  <si>
+    <t>Denver YMCA/ Monthly Summary Report May 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	NAHN Monthly Report - May 2022</t>
+  </si>
+  <si>
+    <t>ANAC/Monthly Summary Report May 2022</t>
+  </si>
+  <si>
+    <t>NRHA / Cycle 3 May 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>Cobb/Monthly Summary Report (May 2022)</t>
+  </si>
+  <si>
+    <t>UnidosUS Monthly Summary Report (May 2022)</t>
+  </si>
+  <si>
+    <t>NHCOA Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>AAPA / May 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier University- May 2022 Monthly Report </t>
+  </si>
+  <si>
+    <t>AHECWW at Whatcom: May Monthly Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMCA of the Capital Area-May Monthly Summary </t>
+  </si>
+  <si>
+    <t>Southern University at Shreveport/May 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>LULAC Monthly Summary Report (May 2022)</t>
+  </si>
+  <si>
+    <t>Southern University Ag Center/ May 2022 Monthly Report</t>
+  </si>
+  <si>
+    <t>NHMA Monthly Summary May 2022</t>
+  </si>
+  <si>
+    <t>Texas AHEC East - Waco Region / May 2022 Monthly Summary Report</t>
+  </si>
+  <si>
+    <t>AACN Monthly Report May 2022</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
   <si>
     <t>Recapped</t>
   </si>
   <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>Monthly Summary Report</t>
   </si>
   <si>
@@ -163,46 +313,82 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Louisiana Regional Market - Shreveport</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Louisiana Regional Market - Shreveport</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
+    <t>Non-Digital, Non Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana </t>
+  </si>
+  <si>
+    <t>Louisiana Regional Market - New Orleans</t>
+  </si>
+  <si>
     <t>Dallas, TX / Target Market</t>
   </si>
   <si>
-    <t>Non-Digital, Non Event</t>
-  </si>
-  <si>
-    <t>Louisiana Regional Market - New Orleans</t>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
   </si>
   <si>
     <t>Washington D.C</t>
   </si>
   <si>
+    <t>Louisiana Regional Market - Baton Rouge</t>
+  </si>
+  <si>
     <t>Denver, CO / Target Market</t>
   </si>
   <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Atlanta, GA / Target Market</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
     <t>Dallas, TX</t>
   </si>
   <si>
+    <t>Shreveport, LA</t>
+  </si>
+  <si>
     <t>Not a target market</t>
   </si>
   <si>
-    <t>Shreveport, LA</t>
-  </si>
-  <si>
     <t>Denver, CO</t>
   </si>
   <si>
+    <t>New Orleans, LA</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
     <t>Detroit, MI</t>
   </si>
   <si>
-    <t>New Orleans, LA</t>
+    <t>DC/MD/VA</t>
+  </si>
+  <si>
+    <t>Baton Rouge, LA</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
   </si>
   <si>
     <t>For this month of March, outreach efforts for the All of Us Research Program continues. We hosted several virtual, drive-thru, and some in-person events with all of our partners across Dallas and Houston Texas and Louisiana with virtual events extending into many other States as well. 
@@ -211,6 +397,9 @@
 In New Orleans, the New Orleans Council on Aging continues to provide information regarding All of Us to Senior Centers as they continue to re-open and increase their population. They will also be collaborating with additional partners next month, such as Dillard University and LSU, in order to advance education of the All of Us Research Program.
 In Shreveport, the Caddo Council on Aging held some drive-thru wellness events. Participants were able to receive information about resources and services offered in Caddo Parish. Individuals were also be able to receive COVID vaccines and information about the All of Us Research Program.
 In Baton Rouge, the Capital Area Agency on Aging hosted some outreach events, as well as continue posting "All of Us" blog posts on their home page. They were also able to deliver some All of Us material to seniors in East Feliciana Parish. They also are continuing to plan an event with Pennington and the YMCA for May (Date subject to change)</t>
+  </si>
+  <si>
+    <t>This month the Pearls of Humanity Foundation completed the current strategy and upcoming engagement strategy document needed for the next funding cycle.  We also participated in the DNA day twitter feed with other partners.  As a team, we have met to begin discussions about upcoming cycle and potential programs.</t>
   </si>
   <si>
     <t>This month we focused on next steps for good ways to close out Phase VII and prospects. We have decided to keep our current format of the table talk series, with one change. We will be focused on health outcomes, as such we plan to include a doctor, researcher, and patient. We are shoring up partnerships with HPOs with the goal of having one partner for each event. Our plan includes keeping the events virtual except for one live event, should we be able to do an in-person event. We have had preliminary conversations with speakers for each event, with a confirmation for the first event. We continue to support the events hosted by BGLC organization as well as the Rooted in Resilience event hosted in Atlanta via Facebook live.</t>
@@ -248,59 +437,54 @@
 - Provided information to the program concerning participating in the virtual face to face panel</t>
   </si>
   <si>
-    <t>This month the Pearls of Humanity Foundation completed the current strategy and upcoming engagement strategy document needed for the next funding cycle.  We also participated in the DNA day twitter feed with other partners.  As a team, we have met to begin discussions about upcoming cycle and potential programs.</t>
-  </si>
-  <si>
-    <t>•	Met 3/29 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program 
-•	Met 3/30 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 4/5 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 4/6 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Reviewed email distributed by BGLC on 3/23
-•	Reviewed email distributed by BGLC on 3/21
-•	Met 3/25 to discuss AKA Strategy form completion 
-•	Reviewed the Program's 5-year goals document
-•	Shared RIR Atlanta flyers
-•	Reviewed Asset Portal E-Newsletter- 3/29
-•	Reviewed Community Engagement Digest 3/30
-Assistant Project Coordinator
-•	Participated in the BGLC 3/17 meeting
-•	Met 3/29 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program 
-•	Met 3/30 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 4/5 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 4/6 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
-•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Reviewed email distributed by BGLC on 3/23
-•	Reviewed email distributed by Jennifer Jones (AKA Pop Up Health Event Flyer Approval) 4/13
-•	Reviewed All of Us Researcher Workbench Social Media Toolkit
-•	Shared RIR Atlanta flyers
-•	Met 3/25 to discuss AKA Strategy form completion 
-•	Reviewed the Program's 5-year goals document
-•	Submitted the AKA Strategy Form on 3/28
-•	Reviewed Asset Portal E-Newsletter- 3/29
-•	Reviewed Community Engagement Digest 3/30
-•	Met with RIR Atlanta Planning Team
-•	Set Up RIR Atlanta Volunteer List in Sign-Up Genius
-•	Volunteered as a tech chat host for the RIR Atlanta Symposium from 12:30 pm – end of program
-•	Volunteered at RIR Atlanta Community Day Event from 11:00 pm – 2:00 pm
-•	Watched Black Girl Magic Table Talk Series 3/29
+    <t>4/4/22 - CPGI Check-in monthly meeting for Scope of Work Review &amp; Planning w/JD/SH (1.0 hr) 
+4/11/22- AHEC Collaborative CPGI monthly mtg/SH (1.0 hr)
+  4/19/22 – AHEC Collaborative NAO Webinar Practice Session w/ DRC &amp; Panel (1.0 hr)
+  4/20/22 – Live webinar for AHEC Grantees with NAO (1.0 hr)
+  4/27/22- CPGI Check-in monthly meeting for Scope of Work Review &amp; Planning w/JD/SH (0.5 hr) 
+National AHEC webinar with AHEC grantee partners was a success on 4/20/22 with more than a half dozen presenters and inclusive panel discussion from each group and DRC representation/updates with strong NAO membership and partner turnout of #26 states represented. GAHEC led this initiative for the program group. The 2nd Annual Precision Health Institute was a full day conference of multidiscipline across all of NC with physicians, pharmacists, genetic counselors, nurses, and many other healthcare providers. Leading edge genomics and genetics practice advancements were presented by 15 speaker faculty offered for free through the GAHEC grant.</t>
+  </si>
+  <si>
+    <t>Phi Beta Sigma Fraternity maintained both telecommunications and virtual meeting contact with the BGLC leadership team and the BGLC peer group throughout the thirty-day period of March 26, 2022 – April 25, 2022 by participating in weekly team calls and the bi-monthly social media All of Us team calls. 
+On Friday April 8, 2022 the BGLC All of Us Research Consortium was at the Phi Beta Sigma Fraternity Inc Gulf Coast Regional Conference providing information about the All of Us Research Program. From the conference registrants of 300, approximately 75 members approached the AOU table and shared their commitment to participate in the program’s effort to combat health disparities through medical research. Pyxis resources, including the chip clips, pens, note pads, and tote bags, were used to establish opportunities for conversational engagement.</t>
+  </si>
+  <si>
+    <t>Coordinator
+● Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
+● Received and reviewed e-mail regarding CPGI Engagement Strategies
+● Received and reviewed e-mails regarding April team calls
+● Received and reviewed e-mails regarding notes from April team calls
+● Attended weekly BGLC team calls
+● Received and reviewed emails regarding Rooted in Resilience ATL event
+● Began researching event topics for May mental health awareness month
+● Reviewed grand conclave meeting calendar for availability of in person event/session
+during international meeting
+● Ongoing communication with coordinator assistant regarding next steps and planning
+as we move into the next phase
+Coordinator Assistant
+● Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
+● Received and reviewed e-mail regarding CPGI Engagement Strategies
+● Received and reviewed e-mails regarding team call
+● Received and reviewed e-mails regarding notes from team calls
+● Received and reviewed email regarding fro next phase BGLC engagement strategy
+● Attended weekly BGLC team calls
+● Ongoing communication with coordinator regarding next steps and planning as we
+move into the next phase
 Social Media Lead
-•	Reviewed the Program's 5-year goals document
-•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
-•	Reviewed email distributed by BGLC 3/23
-•	Met 3/25 to discuss AKA Strategy form completion 
-•	Reviewed the Program 5-year goals document
-•	Shared RIR Atlanta flyers
-•	All of Us Post on AKA social media: 4/24, 4/18, 4/11, 4/4, 3/29, 3/21</t>
+● Received and reviewed e-mails regarding team call
+● Received and reviewed e-mails regarding notes from team calls
+● Composed, drafted and posted on Omega Psi Phi Fraternity, Inc. social media channels
+● Reviewed social media metrics and performance across social media channels
+● Planned and developed future posts and engagement across social media channels</t>
+  </si>
+  <si>
+    <t>•	Coordinators reviewed CPGI's new cycle planning packet for the 22-23 cycle
+•	Coordinators met to complete engagement strategy documents with a focus on expanding target market reach, collaborations (other organizations/HPO, etc.), engagement, and retention.
+•	Coordinators met with BGLC Team Lead to review engagement strategy documents
+•	Coordinators began 2022-2023 cycle event planning</t>
+  </si>
+  <si>
+    <t>For the period between the end of March 2022 and the Month of April 2022 we attended and participated in all BGLC calls and AOU monthly calls along with planning calls for Rooted in Resilience. We also held several calls preparing for our May 18th event titled “Avoid Suffering in Silence” which focused on mental health in the miliary.  We participated in the discussions around Rooted in Research as well as solicited potential sponsors for the program stops. We attended the Market Calls and gave input on different discussions being held. We worked with the core team on ordering needed items for the Atlanta stop as well as met with the local operations team to do a walkthrough of the venue selected for the Atlanta location event. Met with our team to discuss the 5-year plan along with giving input as to what our team would like to see. Held internal meetings with our leadership to discuss event ideas as we prepare for a mental health discussion with our Military and Veterans Commission. Held meetings with partner organizations to create a potential outreach program for the upcoming Summer Months. Also made several social media post in partnership with the other orgs on different posting strategies. Also presented information at the Southeastern Province Council and the other 11 Provinces as well. The presentations were mostly in person except for 2 that were virtual. Worked the events in Atlanta for Rooted in Resilience at Clark Atlanta University on April 22nd and the Community engagement event on April 23rd in East Point Commons. Aided in set up and break down along with soliciting vendors and artists for the overall event. Also assisted with the logistics of all events that were associated with the weekend and tour overall.</t>
   </si>
   <si>
     <t>1.	In regard to this project, please list any accomplishments experienced by your organization this month.
@@ -348,45 +532,6 @@
 ●	Klear Report Data collection		4/26/2022
 ●	RIR Atlanta Coordinator Meeting- debrief	4/26/2022
 ●	Multiple SGRho Team chats – email or text as needed throughout the month	3/28/22 thru 4/25/22</t>
-  </si>
-  <si>
-    <t>Phi Beta Sigma Fraternity maintained both telecommunications and virtual meeting contact with the BGLC leadership team and the BGLC peer group throughout the thirty-day period of March 26, 2022 – April 25, 2022 by participating in weekly team calls and the bi-monthly social media All of Us team calls. 
-On Friday April 8, 2022 the BGLC All of Us Research Consortium was at the Phi Beta Sigma Fraternity Inc Gulf Coast Regional Conference providing information about the All of Us Research Program. From the conference registrants of 300, approximately 75 members approached the AOU table and shared their commitment to participate in the program’s effort to combat health disparities through medical research. Pyxis resources, including the chip clips, pens, note pads, and tote bags, were used to establish opportunities for conversational engagement.</t>
-  </si>
-  <si>
-    <t>Coordinator
-● Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
-● Received and reviewed e-mail regarding CPGI Engagement Strategies
-● Received and reviewed e-mails regarding April team calls
-● Received and reviewed e-mails regarding notes from April team calls
-● Attended weekly BGLC team calls
-● Received and reviewed emails regarding Rooted in Resilience ATL event
-● Began researching event topics for May mental health awareness month
-● Reviewed grand conclave meeting calendar for availability of in person event/session
-during international meeting
-● Ongoing communication with coordinator assistant regarding next steps and planning
-as we move into the next phase
-Coordinator Assistant
-● Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
-● Received and reviewed e-mail regarding CPGI Engagement Strategies
-● Received and reviewed e-mails regarding team call
-● Received and reviewed e-mails regarding notes from team calls
-● Received and reviewed email regarding fro next phase BGLC engagement strategy
-● Attended weekly BGLC team calls
-● Ongoing communication with coordinator regarding next steps and planning as we
-move into the next phase
-Social Media Lead
-● Received and reviewed e-mails regarding team call
-● Received and reviewed e-mails regarding notes from team calls
-● Composed, drafted and posted on Omega Psi Phi Fraternity, Inc. social media channels
-● Reviewed social media metrics and performance across social media channels
-● Planned and developed future posts and engagement across social media channels</t>
-  </si>
-  <si>
-    <t>•	Coordinators reviewed CPGI's new cycle planning packet for the 22-23 cycle
-•	Coordinators met to complete engagement strategy documents with a focus on expanding target market reach, collaborations (other organizations/HPO, etc.), engagement, and retention.
-•	Coordinators met with BGLC Team Lead to review engagement strategy documents
-•	Coordinators began 2022-2023 cycle event planning</t>
   </si>
   <si>
     <t>Coordinator 
@@ -474,28 +619,62 @@
 •	Composed, drafted, and posted on Alpha Phi Alpha Fraternity, Inc. social media platform.</t>
   </si>
   <si>
-    <t>For the period between the end of March 2022 and the Month of April 2022 we attended and participated in all BGLC calls and AOU monthly calls along with planning calls for Rooted in Resilience. We also held several calls preparing for our May 18th event titled “Avoid Suffering in Silence” which focused on mental health in the miliary.  We participated in the discussions around Rooted in Research as well as solicited potential sponsors for the program stops. We attended the Market Calls and gave input on different discussions being held. We worked with the core team on ordering needed items for the Atlanta stop as well as met with the local operations team to do a walkthrough of the venue selected for the Atlanta location event. Met with our team to discuss the 5-year plan along with giving input as to what our team would like to see. Held internal meetings with our leadership to discuss event ideas as we prepare for a mental health discussion with our Military and Veterans Commission. Held meetings with partner organizations to create a potential outreach program for the upcoming Summer Months. Also made several social media post in partnership with the other orgs on different posting strategies. Also presented information at the Southeastern Province Council and the other 11 Provinces as well. The presentations were mostly in person except for 2 that were virtual. Worked the events in Atlanta for Rooted in Resilience at Clark Atlanta University on April 22nd and the Community engagement event on April 23rd in East Point Commons. Aided in set up and break down along with soliciting vendors and artists for the overall event. Also assisted with the logistics of all events that were associated with the weekend and tour overall.</t>
+    <t>•	Met 3/29 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program 
+•	Met 3/30 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 4/5 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 4/6 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC on 3/23
+•	Reviewed email distributed by BGLC on 3/21
+•	Met 3/25 to discuss AKA Strategy form completion 
+•	Reviewed the Program's 5-year goals document
+•	Shared RIR Atlanta flyers
+•	Reviewed Asset Portal E-Newsletter- 3/29
+•	Reviewed Community Engagement Digest 3/30
+Assistant Project Coordinator
+•	Participated in the BGLC 3/17 meeting
+•	Met 3/29 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program 
+•	Met 3/30 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 4/5 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 4/6 with the AKA Regional Conference planning team to discuss upcoming AKA Regional Conferences and how to incorporate All of Us into the program
+•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC on 3/23
+•	Reviewed email distributed by Jennifer Jones (AKA Pop Up Health Event Flyer Approval) 4/13
+•	Reviewed All of Us Researcher Workbench Social Media Toolkit
+•	Shared RIR Atlanta flyers
+•	Met 3/25 to discuss AKA Strategy form completion 
+•	Reviewed the Program's 5-year goals document
+•	Submitted the AKA Strategy Form on 3/28
+•	Reviewed Asset Portal E-Newsletter- 3/29
+•	Reviewed Community Engagement Digest 3/30
+•	Met with RIR Atlanta Planning Team
+•	Set Up RIR Atlanta Volunteer List in Sign-Up Genius
+•	Volunteered as a tech chat host for the RIR Atlanta Symposium from 12:30 pm – end of program
+•	Volunteered at RIR Atlanta Community Day Event from 11:00 pm – 2:00 pm
+•	Watched Black Girl Magic Table Talk Series 3/29
+Social Media Lead
+•	Reviewed the Program's 5-year goals document
+•	Met 3/16 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/23 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 3/30 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 4/19 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC 3/23
+•	Met 3/25 to discuss AKA Strategy form completion 
+•	Reviewed the Program 5-year goals document
+•	Shared RIR Atlanta flyers
+•	All of Us Post on AKA social media: 4/24, 4/18, 4/11, 4/4, 3/29, 3/21</t>
   </si>
   <si>
     <t>For the month of April, Iota Phi Theta Fraternity, Inc. completed our entitled “Precision Medicine Takes Center Stage” which was performed on Wednesday, March 27th, 2022.  The spoken word pieces from Ms. Ciara Edwards (love of Black Men) and Mr. Arris Cohen (Veggie Gangstas, a tribute to healthy eating) were very well received. The painting created by Mr. Searius Addishin was presented as a gift to BGLC Coordinator Ms. Jennifer Jones as a tribute for all of the hard work she has put in over the years.  In addition to the artists, the conversation with former International Grand Polaris Robert M. Clark Jr. and his wife Felita Clark hit home as they talked about the areas of stress, relationships, and even the Grammys.  Members of Iota also participated on all weekly BGLC calls as well as began to plan for the next phase of activations as discussed on our weekly calls.  We also distributed the information from the upcoming Rooted in Research Program in Atlanta, GA to that Region and he’s gotten the word out to the local chapters there.  Finally, we met with BGLC to go over the next potential phase of programming which will focus on Gerontology and the Senior population</t>
   </si>
   <si>
     <t>We submitted our engagement strategy workplan and received positive feedback from the EC team, we are continuing to plan and prepare for our last two activities this cycle (cooking class in June, dissemination opportunities for our cookbook and installation of the Kiosk in the Arvada YMCA lobby). We met with THEARI to discuss potential collaborations with their student ambassador program.</t>
-  </si>
-  <si>
-    <t>ACCESS was able to draft an op-ed this month that highlighted the value of biodiverse data. With growing advances in Public Health Data Science, the All of Us Program enters at a time where health information is accelerating at a rapid rate. Big data, computing systems, and predictive analytics all utilize current health information and available profiles. Through the All of Us Program, the researcher consortium cultivates healthcare analytics that is heterogenous and reflective of our communities. We hope to develop this op-ed and remark on our impact on healthcare solutions to come. 
-In addition to the op-ed, the students within the Public Health Society will be submitting an abstract. This abstract recaps their work in relation to the All of Us Program and the initiatives they have led on campus. We are proud of their work and we hope that this submission is recognized. We have also successfully met with new leadership and begun the transition process as the current student leaders are graduating. We hope to further connect with them via an upcoming picnic!
- We are also developing our scope of work for the upcoming months. We are currently strategizing new opportunities to re-engage the community around us and initiate recruitment efforts with the help of  Henry Ford Health.</t>
-  </si>
-  <si>
-    <t>An accomplishment that we had this month was training our final student ambassador for this cycle that will be working with the program this summer.</t>
-  </si>
-  <si>
-    <t>PRIDEnet will connect with Sacrament LGBT Community Center for a Juneteenth event in Sacramento
-PRIDEnet will be making Ask the Researcher series of videos</t>
-  </si>
-  <si>
-    <t>We have more attendees scan the QR code to access the Join All of Us Research website.</t>
   </si>
   <si>
     <t>In regards to this project, NHMA completed and submitted the engagement strategy for the new cycle on the designated due date to our EC. NHMA also began to plan the Cinco de Mayo office housewarming event where we plan to distribute All of Us materials that we had in surplus from the NHMA Annual Conference. Registration and promotion has already begun.
@@ -505,20 +684,23 @@
 In preparation for the new cycle, NHMA also reached out to chapter leaders in target markets to gauge interest in the program and participating in events for the new cycle. NHMA received interest from 3 chapters in Texas, Arizona, and California,  and received interest from 3 physician researchers to be potential spokespersons. NHMA also established a connection with Mary's Center in DC for potential collaboration opportunities for the new cycle.</t>
   </si>
   <si>
-    <t>1. HBCU Climate Change Conference tabling event held April 13-16, 2022
-2.  HBCU Climate Change Gust Panelist 
-3.  Interviewed with HBCU Stem out of D,C, television show
-4. Weekly Social media posting on Twitter, Facebook, Instagram, Linked-in, YouTube, and the Seven Star Academy website as well as the website of some our partners
-5.  Weekly Seven Star Planning Meetings
-6. Attended Louisiana Engagement Network Meeting
-7.  Attended bi-weekly check-ins with Pyxis
-8.  Planning with Delgado, Dillard, Southern University in New Orleans, Southern University AG, New Orleans Council on Aging, LACHON, MCI, Our Community Health Care and DePaul Community Health  Center</t>
-  </si>
-  <si>
-    <t>Successful webinar about research hub</t>
-  </si>
-  <si>
-    <t>Accomplishments experienced by our organization this month include two successful student ambassador activities, one was a presentation hosted by Ciauna at RVU for the Colorado Council of Medical Librarians on April 8th, and the other was hosted by Miryam, Mikaela, and Deandra and was a collaboration tabling activity at the North Colorado Medical Center (Banner Health Greeley location). We hosted an Enrollment Information Session for our student ambassadors and THEARI All of Us staff on April 19th with Banner Health. This session better informed us as to how formal enrollment works at an HPO. THEARI was also a part of the NAO Student Panel on April 20th in which Ciauna represented THEARI and shared with over 50 attendees her experience as a student ambassador. We featured all five of our student ambassadors in the April newsletter. We submitted a successful Engagement Strategy as well.</t>
+    <t>1- Hosted All of Us Informational webinar on 4/12/22 with 123 registrants. Eighty-one people attended the webinar.
+2- Fully executed DURA on 4/8/22
+3 - AAFP staff members began Registering for Researcher accounts
+4- Promotions tactics deployed this month included:
+a. AAFP news story published on 4/5/22
+b. Paid social media promotion through 4/11/22
+c. Follow-up email to all registrants with instructions to register for a Researcher Account on 4/22/22
+d. advertisement in a Family Practice Management Journal eNews email deployed on 3/30/22
+5- Submitted initial plans for funding for 22-23 year program activities
+6- Secured a date for the Deep Dive Discussion and working with Jakara to create agenda for event.</t>
+  </si>
+  <si>
+    <t>PRIDEnet will connect with Sacrament LGBT Community Center for a Juneteenth event in Sacramento
+PRIDEnet will be making Ask the Researcher series of videos</t>
+  </si>
+  <si>
+    <t>Attendees were introduced to the All of Us Research Program and expressed an interest in joining.</t>
   </si>
   <si>
     <t>April of Cycle 3 has been a busy month for NRHA as we finalized our Cycle 4 Strategy document while also finalizing the remaining Cycle 3 activities. In regard to information disseminations and CPGI governance activities, NRHA staff member Lea Mann has been able to represent NRHA at the target market meetings, webinars, and sub-awardee meetings. NRHA promoted the All of Us DNA Day and World Health Day social media toolkits through our platforms. NRHA also discussed a potential paid co-branded Facebook opportunity with our engagement counselor, , communications counselor, and internal NRHA staff. Further, NRHA was able to share with its sub-awardees a social media analytics tracking form that is enhancing NRHA’s social media reporting in Network Ninja.  
@@ -536,7 +718,125 @@
 Dr. Lemieux &amp; Nicole met with the Center for Minority Health &amp; Health Disparitie's Community Advisor Board LA-SEAL to introduce the All of Us Research Program and to put out "feelers" to see if they would be interested in a collaboration to promote community engagement and enrollment. This initial meeting was promising and we are looking forward to developing an organic relationship with the CAB. We also meet with faculty across multiple disciplines to discuss board curriculum integration and researcher tooling in regards to the AoURP and Workbench/Data Browser. The response was overwhelming positive and faculty are working with their respective departments to secure approval to participate.</t>
   </si>
   <si>
+    <t>An accomplishment that we had this month was training our final student ambassador for this cycle that will be working with the program this summer.</t>
+  </si>
+  <si>
+    <t>1. HBCU Climate Change Conference tabling event held April 13-16, 2022
+2.  HBCU Climate Change Gust Panelist 
+3.  Interviewed with HBCU Stem out of D,C, television show
+4. Weekly Social media posting on Twitter, Facebook, Instagram, Linked-in, YouTube, and the Seven Star Academy website as well as the website of some our partners
+5.  Weekly Seven Star Planning Meetings
+6. Attended Louisiana Engagement Network Meeting
+7.  Attended bi-weekly check-ins with Pyxis
+8.  Planning with Delgado, Dillard, Southern University in New Orleans, Southern University AG, New Orleans Council on Aging, LACHON, MCI, Our Community Health Care and DePaul Community Health  Center</t>
+  </si>
+  <si>
+    <t>The in-person event continue to go well and people are interested.  We have been well-received.
+Had 800 attend the campus Crawfest Event, engaged with 100 people who came to our table to learn more.</t>
+  </si>
+  <si>
+    <t>We continued to participate in market meetings and collaborative planning with BGLC and AAPA. In addition, we continued planning for our June Chef event, garnered placement for our perspective on the critical importance of Maternal Health and Awareness in The Atlanta Voice, and began planning in support of BWHI's next funding cycle proposal.</t>
+  </si>
+  <si>
+    <t>SUNO Team:
+- Received training.
+- Interact/interface with community partners.
+- Interact/engage with community stakeholders.</t>
+  </si>
+  <si>
+    <t>ACCESS was able to draft an op-ed this month that highlighted the value of biodiverse data. With growing advances in Public Health Data Science, the All of Us Program enters at a time where health information is accelerating at a rapid rate. Big data, computing systems, and predictive analytics all utilize current health information and available profiles. Through the All of Us Program, the researcher consortium cultivates healthcare analytics that is heterogenous and reflective of our communities. We hope to develop this op-ed and remark on our impact on healthcare solutions to come. 
+In addition to the op-ed, the students within the Public Health Society will be submitting an abstract. This abstract recaps their work in relation to the All of Us Program and the initiatives they have led on campus. We are proud of their work and we hope that this submission is recognized. We have also successfully met with new leadership and begun the transition process as the current student leaders are graduating. We hope to further connect with them via an upcoming picnic!
+ We are also developing our scope of work for the upcoming months. We are currently strategizing new opportunities to re-engage the community around us and initiate recruitment efforts with the help of  Henry Ford Health.</t>
+  </si>
+  <si>
+    <t>The All of Us portion will be two specific parts. A booth, and a 5 minute presentation as part of the main program.
+This month the time was allocated to planning and working through logistics and details for this event. The finalized plan will be a manned booth, to tell the crowd about the All of Us program, and to encourage sign ups. The booth will have promotional give-aways, and 3 different flyers so attendees can also find out more information later. There will be two NIH personnel on hand to help explain the program.
+The 5-minute program will feature 2 1-minute duration videos, and two of the society members (Raju Shah and Rahul Jain) discussing the program, the society's involvement, and encouraging members to learn more and to sign up. The program will feature members from the All Of Us. A backdrop in the form a PPT Slide was designed, with a QR Code for the audience to find out more details, by going to the Join Us page for All of Us.</t>
+  </si>
+  <si>
+    <t>We have more attendees scan the QR code to access the Join All of Us Research website.</t>
+  </si>
+  <si>
+    <t>Successful webinar about research hub.  We also had a planning meeting with the DRC for part 2 of the webinar series.  Our email marketing was also successful as we promoted this webinar to our members, ANAC allies, AAHIVM members, ANAC research committee and other researchers.  In addition, we were able to grow our relationship with the DRC and have them answer our questions about the Research hub so that we can properly help our members interested in this.</t>
+  </si>
+  <si>
+    <t>Reached 200+ community members at the food share event on April 11th. Shared AoU content in branches where we have not yet promoted AoU.</t>
+  </si>
+  <si>
+    <t>April 7  Dillard Univ. Roundtable discussion COVID-19, NIH and All of Us Research  Prog.
+April 12 consultants from the Brown University Master of Public Affairs (MPA) program
+ April 14  meeting Ms. Beltran (LSU/AOU) program coordinator
+ April 22  Encuentro y Conversacion program/ Jambalaya Radio/Guest Jose Irula con el tema "Tomando accion para proteger a nuestra familia"
+April 27 Job Fair planning meeting
+April 27 Louisiana Engagement Ecosystem Meeting
+April 30 Job Fair at Hispanic Apostolate</t>
+  </si>
+  <si>
+    <t>Accomplishments experienced by our organization this month include two successful student ambassador activities, one was a presentation hosted by Ciauna at RVU for the Colorado Council of Medical Librarians on April 8th, and the other was hosted by Miryam, Mikaela, and Deandra and was a collaboration tabling activity at the North Colorado Medical Center (Banner Health Greeley location). We hosted an Enrollment Information Session for our student ambassadors and THEARI All of Us staff on April 19th with Banner Health. This session better informed us as to how formal enrollment works at an HPO. THEARI was also a part of the NAO Student Panel on April 20th in which Ciauna represented THEARI and shared with over 50 attendees her experience as a student ambassador. We featured all five of our student ambassadors in the April newsletter. We submitted a successful Engagement Strategy as well.</t>
+  </si>
+  <si>
     <t>During this month, we engaged in weekly meetings with our engagement counselor, Rima Matsumoto, to ensure partnerships and activities are aligned with program goals. We had a meeting with our engagement counselor to start with our strategic planning for the next funding cycle. As part of our in-person activities, on April 21, we did a bingo game with a focus on research, including the All of Us Research program, and nutrition at Casa Iris Housing Facility. We had over 20 participants who engaged in an interactive and educative session where they had the opportunity to learn about different health topics, tips to achieving good nutrition and physical health, and a recap in health research terminology and the importance of Hispanic/Latinos participating in health research and the All of Us Research program. Also, we are still finalizing logistics for the upcoming two webinars we are co-hosting with the DEC regarding perspectives from health researchers in advancing health equity in diverse communities scheduled for May 26 and June 23. We continue to be active on our social media platforms to educate and create awareness about the program and the importance of Hispanic/Latinos participating in health research.</t>
+  </si>
+  <si>
+    <t>Completion of AOU Engagement Strategy &amp; Strategy Revision
+Preparation of Virtual Booth materials for the Exhibit Hall, Spring Engagement Meeting (May 4-5)
+Meeting with University of Virginia to discuss research collaboration and support of Cobb Scholars Program (April 29)
+Participation by Dr. Randall Morgan at the NERBNA Conference (April 22)
+Presentation and sponsorship of NMA Region V Meeting (April 22-24)
+W. Montague Cobb/NMA Health Institute and LSU Health - Health Disparities Symposium. (April 8-9)
+Howard Research Day presentation ( April 20)</t>
+  </si>
+  <si>
+    <t>On April 4th and 5th, HACU hosted the 37th Annual National Capitol Forum, virtually. The All of Us program was featured in the presentation of the Opening Plenary of the event and also included an All of Us ad in the conference program and promotions. Over 260 representatives from across the United States attended the Capitol Forum.  HACU also signed an addendum with Pyxis for an additional activity for this cycle to convene HSI community colleges in June for an informative session in collaboration with the Pyxis team. This month, we met with Kim Cantor to discuss the activity and began brainstorming, planning and coordinating the convening of HSI Community Colleges that will serve as a virtual roundtable discussion to education higher education institutions about the All of Us program and how to obtain DURA's with the program. HACU is currently gathering a list of institutions and will begin reaching out to campuses in May for the convening to occur in June. In the month of April, HACU also met with our engagement counselor for our biweekly check-in calls. We also connected with our communications counselor at one of the biweekly meetings to discuss communication needs, updates and progress.</t>
+  </si>
+  <si>
+    <t>During the month of April, LULAC participated in weekly check-in calls with our new engagement counselor Rima Matsumoto as Liz Hurtado was transitioning out. During this month LULAC was planning for the upcoming in-person cafecito in May for Mental Health Awareness Month. LULAC began looking for potential venues and partner organizations in the DMV area. LULAC is just awaiting confirmation on the location from our potential co-host in order to confirm the date in June. Additionally, we have developed a final list of potential speakers that we are also reaching out to for the invitation to join our panels and began discussing with Samantha Santoro, our communications counselor our needs for promotional materials.  During the DMV market call on April 19, 2022 LULAC shared information regarding the in-person cafecito and opportunities for collaboration. Additionally, during this month LULAC worked on the CPGI Strategy Plan to submit by the April 8, 2022 deadline. With Rima’s guidance, we were able to align LULAC’s strategies with the All of Us Research program’s 5 year goals to continue our collaborations and set the vision for future work plans.  
+As the 2022 LULAC National Convention logistics are underway, we have had initial conversations of the execution to the event.  This includes potential areas of collaboration, outreach, and addressing attendees by All of Us representatives to create multiple touch points for the program. 
+The LULAC team received an opportunity to table at the University of Texas at El Paso during a student conference on April 7-8 and was able to distribute general information regarding the program to student participants and answer questions regarding LULAC and the All of Us Health Research Program.</t>
+  </si>
+  <si>
+    <t>April 2022 was spent planning for the May 10 webinar, Creating New Knowledge Through the All of Us Researcher Workbench to Redress Health Disparities and Inequities. This month we secured speakers, drafted and share the invitation, and began sketching out the run of the webinar.</t>
+  </si>
+  <si>
+    <t>UnidosUS and its subgrantees continued to share information about the All of Us Research Program on social media with one paid post by UnidosUS on Facebook and Instagram reaching more than 63,000 through April 24th. Reach of this post is expected to increase as it is continuing to run through April 30th.
+LAMDA assisted with registering 35 individuals by hosting an event in collaboration with two HPOs—Northwestern University (NU) and University of Chicago Illinois (UCI). NU registered 12 individuals and UCI registered 23 individuals. While there was a logistical challenge that required participants to enter the LAMDA office to receive educational materials versus them being provided at the All of Us van brought by UCI, this was still a successful event.
+One success story in particular included two Latina/x women (ages 52 and 64) that registered for the event then received follow up from NU and UCI for enrollment at the event. They reported to LAMDA their excitement to join the All of Us Research Program. Both women provided blood samples and are interested in learning more about their DNA. They completed consent forms to receive follow up by the HPOs.</t>
+  </si>
+  <si>
+    <t>- Seamless transition of leadership roles
+- Introduction of new target market sub awardee, the Black Nurses Association of Greater Houston Area
+- Sub-awardee scope of work submissions submitted for new sub awardee
+- All of Us Research Flyer in the announcements page each Friday
+- Three successful sub awardee events resulting in completion of obligation for several of the sub awardees
+- NBNA Atlanta chapter All of Us Research Webpage Segment (atlantablacknurses.com)
+- NBNA Greater New York City chapter All of Us Research Webpage (gnycbna.org/all-of-us-research)
+- Communication with engagement counselor and chapters</t>
+  </si>
+  <si>
+    <t>In April 2022, we…
+4/1: Ran the booth at the Midwest Nursing Research Society conference all day
+4/1: Presented “Creating Precision Medicine with the NIH All of Us Research Program” at MNRS
+4/2: Ran the booth at the Midwest Nursing Research Society conference all day
+4/3: Ran the booth at the Midwest Nursing Research Society conference all day
+4/4: Met with staff to discuss next cycle aims
+4/5: Recorded All of Us Provider Conversation
+4/5: Worked on the SOW for the next cycle
+4/6-4/10: Ran Booth at NSNA
+4/7: Connect with Claire on the Chicago Provider RT Discussion
+4/9: Presented at “Mindfulness Teachers in Action: Increasing Public Participation in Research”
+4/12: Connect with MSU about their upcoming event
+4/13: All of Us Denver Community Partner Meeting
+4/14: New England/Boston Partner Zoom
+4/14: Present at Pace University
+4/19: AoU DMV Market Call
+4/21: All of Us Mini-Grant Monthly Meeting (internal meeting with our sub awardees + Claire)
+4/21: Presentation at Morgan State University
+4/22: Attended Event -- Cooking w/Paul Ritter Event (Community Council)
+4/22: Shreveport All of Us Twitter Chat Touch Base
+4/25: All of Us Twitter Chat
+4/27: Louisiana Engagement Network Meeting
+4/27 &amp; 4/28: Azusa Pacific Live Presentations &amp; Booth
+4/30: NCCU Health Fair</t>
   </si>
   <si>
     <t>The following activities are currently underway or in preparation stages:
@@ -550,39 +850,364 @@
 - Other activities (outside SOW): Identified PA to participate in healthcare provider module filming (4/5). Promotion of collaborative webinar with National Alliance for Hispanic Health, scheduled for May 5 - placement in MedWatch newsletter (4/18); PA-Central Student newsletter (4/19).</t>
   </si>
   <si>
-    <t>Completion of AOU Engagement Strategy &amp; Strategy Revision
-Preparation of Virtual Booth materials for the Exhibit Hall, Spring Engagement Meeting (May 4-5)
-Meeting with University of Virginia to discuss research collaboration and support of Cobb Scholars Program (April 29)
-Participation by Dr. Randall Morgan at the NERBNA Conference (April 22)
-Presentation and sponsorship of NMA Region V Meeting (April 22-24)
-W. Montague Cobb/NMA Health Institute and LSU Health - Health Disparities Symposium. (April 8-9)
-Howard Research Day presentation ( April 20)</t>
-  </si>
-  <si>
-    <t>UnidosUS and its subgrantees continued to share information about the All of Us Research Program on social media with one paid post by UnidosUS on Facebook and Instagram reaching more than 63,000 through April 24th. Reach of this post is expected to increase as it is continuing to run through April 30th.
-LAMDA assisted with registering 35 individuals by hosting an event in collaboration with two HPOs—Northwestern University (NU) and University of Chicago Illinois (UCI). NU registered 12 individuals and UCI registered 23 individuals. While there was a logistical challenge that required participants to enter the LAMDA office to receive educational materials versus them being provided at the All of Us van brought by UCI, this was still a successful event.
-One success story in particular included two Latina/x women (ages 52 and 64) that registered for the event then received follow up from NU and UCI for enrollment at the event. They reported to LAMDA their excitement to join the All of Us Research Program. Both women provided blood samples and are interested in learning more about their DNA. They completed consent forms to receive follow up by the HPOs.</t>
+    <t>Wrote up Engagement Strategy. Worked with Pyxis Partners back and forth via e-mail for revisions as we prepare for the Scope of Work for the next cycle.
+Made a connection with Dorothy Harper (VA) to collaborate on an event together for Veteran's Day 2022.
+Chris - ordered swag and a panel to show for an upcoming event.
+All of Us segment in the Sci-Port newsletter (please find attached metrics).
+The All of Us kiosk is continuing to received attention at Sci-Port Discovery Center as evidenced by the interesting Post-It notes that visitors leave behind explaining why they think the program is important.  Photos are included herewith.</t>
+  </si>
+  <si>
+    <t>NORBCC hosted our 2nd Annual Women Doing Business Conference  that featured an interactive All of Us station. Staff were able to engage with over 200 attendees for and introduce a new network to All of Us and share some of the advantages and opportunties within the program.</t>
+  </si>
+  <si>
+    <t>The AHEC has delivered 3 out of 4 large conference and exhibition events.  The center continues to develop a better understanding of how AHECs can support the All of Us program through our experience and the opportunities provided by Pyxis to collaborate with AHEC/THEARI and the WA Ecosystem.</t>
+  </si>
+  <si>
+    <t>For this month of April, outreach efforts for the All of Us Research Program continues. We hosted several virtual, drive-thru, and some in-person events with all of our partners across Dallas and Houston Texas and Louisiana with virtual events extending into many other States as well. 
+In Dallas, Community Council hosted a series of events, we held the last segment of our "Healthy Cooking" virtual show, as well as two in-person events “Family Fit Fest” and “Cinco de Mayo Celebration” focused on educating and empowering communities to achieve better health and wellness by introducing them to the All of Us Research Program and other resources. 
+In Houston, the Harris County Area Agency on Aging and Care Connection Aging and Disability Resource Center, collaborated with St. Matthews Church. “Coffee and Croissants”, ADRC discussed how the Area Agency on Aging and Care Connection utilizes All of Us Research Project to connect with the community.  We discussed the vulnerable population, and chronic disease. We also discussed All of Us and how to join the research project. We encouraged each participant to tell their doctors about All of Us as well as handed out masks.  
+In New Orleans, the New Orleans Council on Aging continues to provide information regarding All of Us to Senior Centers as they continue to re-open and increase their population. They will also be collaborating with additional partners next month, such as Xavier University and LSU, in order to advance education of the All of Us Research Program.
+In Shreveport, the Caddo Council on Aging held some drive-thru wellness events. Participants were able to receive information about resources and services offered in Caddo Parish. Individuals were also be able to receive COVID vaccines and information about the All of Us Research Program.
+In Baton Rouge, the Capital Area Agency on Aging hosted some outreach events, as well as continue posting "All of Us" blog posts on their home page. They were also able to deliver some All of Us material to seniors in East Feliciana Parish.</t>
+  </si>
+  <si>
+    <t>Not that we have been confirmed for Phase VIII, we have been working on fining and tuning our plans for the scope of work. As previously discussed, we know that the focus is on research and retention. As such our idea to keep our table talk format will allow us some flexibility in engaging researchers and physicians that work with HPOs. We found that our format has been very successful as a virtual event, however, we are planning one hybrid event. The event will be broadcast live on Facebook and YouTube. We have identified several speakers for the upcoming events; we have had preliminary discussions with a large NPHC Council that is located in one of the market cities. We assisted with and/or participated in Sigma Gamma Rho's recent event.</t>
+  </si>
+  <si>
+    <t>Phi Beta Sigma Fraternity maintained both telecommunications and virtual meeting contact with the BGLC leadership team and the BGLC peer group throughout the thirty-day period of April 26, 2022 – May 25, 2022, by participating in weekly team calls and the bi-monthly social media All of Us team calls. 
+During the month of April 2022, Phi Beta Sigma Fraternity coordinators continued to prepare for activities in the cities designated for the phase of the All of Us research project.  Phi Beta Sigma Fraternity will be scheduling activities in Itta Bena MS on the campus of Mississippi Valley State University and Austin TX on the campus of Huston-Tillotson University.  Both venues provide an opportunity for the BGLC partners to work on young students in predominantly Black communities.  
+Phi Beta Sigma Fraternity coordinators are also working to provide community outreach and retention services for the Milwaukee WI area.  That activity will be a collaboration with a recognized HPO.  Pyxis resources, including chip clips, pens, note pads, and tote bags, will be used to establish opportunities for conversational engagement.</t>
+  </si>
+  <si>
+    <t>For the period between the end of April 2022 and the Month of May 2022 we attended and participated in all BGLC calls and AOU monthly calls along with planning events and calls for our different health-related events with our partners. We held team calls and calls with our various health committees for a Mental Health awareness event called “Avoid Suffering in Silence” which was centered around suicide prevention and PTSD. This was a collaborative event with our Health and Wellness and Military Veteran Affairs Commission along with the United States Veteran Affairs. This was streamed via Facebook, Twitter, and Youtube. We also worked on run-throughs along with assisting with creating the run of the show and engaging the partners with questions prior to the event. Assisted with the various tasks associated with the completion of our Rooted in Resilience Tour with the items left from the event along with coordinated pickup and drop off. Held recap discussion with the team on the event to discuss best practices and ways to improve for the future. Explored an opportunity to partner with an HPO in Minneapolis for a Heart Health event we had, which wasn’t successful, but will explore for future opportunities. Brainstormed with the internal team to consider future event ideas along with making sure we will have a presence at our Future Regional Conferences and Leadership events.</t>
+  </si>
+  <si>
+    <t>Gwendolyn Goins
+●	SGRho team meeting	5/1/2022
+●	All of Us weekly meeting	5/5/2022
+●	Saying yes to Selfcare webinar taping	5/4/2022
+●	Saying yes to Selfcare webinar	5/12/2022
+●	SGRho team meeting	5/15/2022
+●	Market City Call	5/17/2022
+●	All of Us weekly meeting	5/19/2022
+●	All of Us weekly meeting	5/26/2022
+●	Multiple SGRho Team chats – email or text as needed throughout the month	4/26/2022-5/26/2022
+Sharlandria Shaw
+●	SGRho team meeting	5/1/2022
+●	All of Us weekly meeting	5/5/2022
+●	Saying yes to Selfcare webinar taping	5/4/2022
+●	Saying yes to Selfcare webinar	5/12/2022
+●	SGRho team meeting	5/15/2022
+●	Market City Call	5/11/2022
+●	All of Us weekly meeting	5/19/2022
+●	All of Us weekly meeting	5/26/2022
+●	SGRHO Summary prep	5/23/2022
+●	SGRHO Summary prep	5/24/2022
+●	Submitted SGRHO Report	5/26/2022
+●	Multiple SGRho Team chats – email or text as needed throughout the month	4/26/2022-5/26/2022
+Charna Wilson
+●	All of Us Weekly meeting	4/28/2022
+●	Prepared/Sent May SM Post to team	4/29/2022
+●	Sent May SM Graphics/Post to SGRho for posting	4/29/2022
+●	Created Streamyard backgrounds and intro graphics for Say Yes	5/1/2022
+●	Meeting with SGRho Tech for Mental Health event	5/2/2022
+●	Created Mental Health SM campaign graphics	5/2/2022
+●	Sent Mental Health graphics for approval	5/3/2022
+●	Corresponded w/ Self Care Event panelists (email)	5/3/2022
+●	All of Us Spring Engagement meeting	5/4/2022
+●	Prepared for Self Care Event taping	5/5/2022
+●	Saying Yes to Self-Care taping	5/5/2022
+●	Mental Health SM campaign graphic edits	5/10/2022
+●	Prepared for SM meeting/sent agenda	5/10/2022
+●	SM meeting/prepared minutes	5/11/2022
+●	Saying Yes to Self-Care event	5/12/2022
+●	Correspondence w/ SGRho for Mental Health event post-needs (email)	5/12/2022
+●	Saying Yes to Self-Care event data collection and analysis	5/18/2022
+●	Saying Yes to Self-Care data submitted	5/18/2022
+●	All of Us Atlanta Monthly Meeting	5/18/2022
+●	All of Us Weekly meeting	5/19/2022
+●	Created June Graphics	5/22/2022
+●	Sent June Graphics to the team for review	on 5/22/2022
+●	Sent June Graphics up for approval	5/23/2022
+●	Emailed SM team updates and reminders	on 5/25/2022
+●	Multiple SGRho Team chats – email or text as needed throughout the month	4/28/22 thru 5/25/22</t>
+  </si>
+  <si>
+    <t>Coordinator 
+•	 Attended the BGLC Team Weekly call 
+•	Received and Reviewed e-mail from Coordinator Assistant and Social Media Lead  
+•	Received and Reviewed follow up e-mail from the Louisiana Team  
+•	Received and Reviewed e-mail about the 2022 Spring Engagement Meeting  
+•	Received and Reviewed an e-mail from Yuri about registering for the Spring Engagement meeting  
+•	Managed the StreamYard comments and question section for the Atlanta Rooted in Resilience Program 
+•	Attended and participated in the Atlanta RIR Church service program
+•	Attended the Louisiana Engagement Team meeting 
+•	Received and Reviewed e-mails from the Louisiana Team on various programs  
+•	Received and Reviewed e-mail from BGLC Program Lead 
+•	Received and Reviewed e-mail from the Alpha Social Media Lead  
+•	Sent an email to Brother Eric Webb at the Alpha National HQ about AOU Training for the Alpha Board of Directors  
+•	Received and Reviewed e-mail confirming my registration for the AOU Face to Face Spring meeting  
+•	Attended the BGLC Weekly Team meeting on  
+•	Received and Reviewed e-mail from BGLC Program Lead about upcoming partnership opportunities  
+•	Received and Reviewed e-mail from BGLC Program Lead  
+•	Received and Reviewed e-mail from BGLC Program Lead  
+•	Received and Reviewed e-mail on how to prepare for the 2022 Spring Engagement meeting  
+•	Attended the 2022 Spring Engagement meeting  
+•	Received and Reviewed e-mail from BGLC Program Lead about the information on AOU  
+•	Received and Reviewed follow up emails from the Louisiana Engagement Team  
+•	Received and Reviewed e-mail from the Dallas Engagement Team about our next meeting 
+•	Attended the Dallas Engagement Team meeting  
+•	Received and Reviewed e-mail from the SEM Team  
+•	Received and Reviewed e-mail from BGLC Program Lead to cancel the weekly meeting  
+•	Received and Reviewed e-mail from Louisiana Engagement Team 
+•	Received and Reviewed e-mail from Coordinator Assistant and Social Media Lead  
+•	Received and Reviewed e-mail from BGLC Program Lead with information on the BGLC Weekly meeting  
+•	Attended the BGLC Weekly Team meeting  
+•	Attended the CPGI Annual Networking meeting  
+Coordinator Assistant
+•	Reviewed Agenda for upcoming BGLC Team Meeting  
+•	Hosted the RIR Atlanta Chatroom
+•	Attended BGLC Team Meeting
+•	Discussed with Kappa Alpha Psi Coordinator concerning producing their 5/18 event
+•	Attended the annual All of Us meeting
+•	Created social media for annual All of US meeting 
+•	Communicated with BGLC lead about the upcoming meeting via text
+•	Corresponded via email with Kappa Alpha Psi Coordinator regarding an updated run of show for the event on 5/18
+•	Sent out information regarding the BGLC meeting via email
+•	Met with Alpha lead regarding the update about the 2023 partnership with the local HPO for separate activations
+•	Corresponded via text message with Kappa Alpha Psi Coordinator regarding an updated run of show for the event on 5/18
+•	Filled out Activity Report
+•	Communicated with BGLC lead via email concerning the production for the Kappa Alpha Psi event
+•	Attended BGLC Team Meeting
+•	Sent Activity Report to Team Lead
+•	Attended the annual CPGI meeting
+Social Media Lead 
+•	Received and reviewed email regarding no BGLC Phase VI meeting and to register for CPGI meeting.
+•	Composed, drafted, and posted on Alpha Phi Alpha Fraternity, Inc. social media platform. 
+•	Participated in BGLC Social Media Team Lead Meeting.
+•	Received and reviewed email about the cancellation of the BGLC Phase VI meeting.
+•	Received and reviewed email requesting submission of social media coordinator activity report.
+•	Composed, drafted, and posted on Alpha Phi Alpha Fraternity, Inc. social media platform. 
+•	Received and reviewed email with agenda for All of Us BGLC Phase VI Meeting.
+•	Participated in BGLC Phase VI Meeting.
+•	Registered for and participated in the annual CPGI annual meeting.
+•	Compiled and submitted social media coordinator activity report.
+•	Composed, drafted, and posted on Alpha Phi Alpha Fraternity, Inc. social media platform. 
+•	Composed and submitted All of Us Social Media analytics report. 
+•	Participated in BGLC Social Media Team Lead Meeting.
+•	Composed, drafted, and posted on Alpha Phi Alpha Fraternity, Inc. social media platform.</t>
+  </si>
+  <si>
+    <t>-Processed all reports into Network Nija
+ - Planned agenda for weekly meetings - 
+Met with the accountant to verify all invoices -
+Met weekly with BGLC Team
+ - Provided any updates to the team throughout the month
+- Participated in AoU Virtual face to face live vendor booth May 4th
+- Met with Larissa May 4
+-Participated in a Live vendor booth on May 5th 
+Participated in a panel discussion during AoU virtual face to face May 5th
+-Met with Cheryl Thomas from DREF May 10th
+-Met with Johni and Larissa on May 11th
+-Participated on Dallas Market call May 12th
+-Participated in an MSRS history call on May 19
+- Participated on CPGI partner meeting May 20th 
+-Provided an update to COP during their monthly call May 23rd
+- Participated on LA market call, May 25th 
+-Met with Johni and Larissa on May 25th
+-Met with IRT about HBCUs, May 26th 
+-Met with MSRS folks on Friday May 27
+-Met with SGRho's coordinator
+-Participated in Iota's webinar
+Participated in Kappa's webinar</t>
+  </si>
+  <si>
+    <t>•	Participated in weekly team calls
+•	Coordinator participated in Houston Market calls
+•	Begin to plan SOW for the next phase
+•	Some of the team participated in the Virtual face to face meeting
+•	Some of the team participated in the CPGI meeting
+•	Responded to any emails from the Program Lead
+•	Social Media Lead participated in bi-weekly calls</t>
+  </si>
+  <si>
+    <t>•	Participated in the BGLC 5/19 meeting
+•	Met 4/26 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+Assistant Project Coordinator
+•	Participated in the BGLC 4/26 meeting
+•	Participated in the BGLC 5/19 meeting
+•	Attended the Atlanta Market Meeting on 5/18
+•	Attended the AoU Spring Engagement Meeting 5/4-5
+•	Attended the CPGI meeting on 5/20
+•	Met 4/26 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/3 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/10 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/17 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/24 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC 5/19
+•	Reviewed email distributed by BGLC 5/13
+•	Reviewed email distributed by BGLC 5/5
+•	Reviewed email distributed by BGLC 4/29
+•	Reviewed email distributed by BGLC 4/28
+•	Reviewed email distributed by BGLC 4/16
+•	Reviewed email and shared flyers distributed by Jennifer on behalf of RTI International on 4/30
+•	Reviewed Monthly Video Spotlight (Mental Health: “Monique’s Story”)
+•	Reviewed Community Engagement Digest 4/27
+•	Watched Kappa Alpha Psi Fraternity, Inc Mental Health Webinar 5/18
+Social Media Lead
+•	Participated in the BGLC 4/26 meeting
+•	Met 4/26 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/3 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/10 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/17 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/24 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC 5/19
+•	Reviewed email distributed by BGLC 5/13
+•	Reviewed email distributed by BGLC 5/5
+•	Reviewed email distributed by BGLC 4/29
+•	Reviewed email distributed by BGLC 4/28
+•	Reviewed email distributed by BGLC 4/16
+•	Reviewed email distributed by Jennifer on behalf of RTI International on 4/30
+•	All of Us Post on AKA social media: 5/25, 5/24, 5/17, 5/12, 5/10, 4/25
+•	Met 5/3 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/10 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/17 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Met 5/24 with the AKA Boule planning team to discuss the upcoming AKA Boule and how to incorporate All of Us into the program
+•	Reviewed email distributed by BGLC 5/19
+•	Reviewed email distributed by BGLC 5/13
+•	Reviewed email distributed by BGLC 5/5
+•	Reviewed email distributed by Jennifer on behalf of RTI International on 4/30
+•	Reviewed email distributed by BGLC 4/29
+•	Reviewed email distributed by BGLC 4/28
+•	Reviewed email distributed by BGLC 4/16
+•	Reviewed Community Engagement Digest 4/27
+•	Watched Kappa Alpha Psi Fraternity, Inc Mental Health Webinar 5/18</t>
+  </si>
+  <si>
+    <t>•	Coordinators continued 2022-2023 cycle event planning
+•	Coordinators supported other BGLC member events</t>
+  </si>
+  <si>
+    <t>Dillard University create a QR Code for Pre and Post All of Us  outreach information.  This has proven to be very successful when Broadband classes are held.</t>
+  </si>
+  <si>
+    <t>Coordinator
+●	Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
+●	Received and reviewed e-mail regarding Jiggy with the Piggy Event
+●	Received and reviewed e-mails regarding May team calls 
+●	Received and reviewed e-mails regarding notes from May team calls
+●	Attended CPGI Network Annual Meeting
+●	Attended weekly BGLC team calls
+●	Attended fellow BGLC member organizations' virtual events
+●	Reviewed grand conclave meeting calendar for availability of in-person event/session during an international meeting 
+●	Ongoing communication with coordinator assistant regarding next steps and planning as we move into the next phase
+Coordinator Assistant
+●	Received and reviewed e-mail from BGLC Program Lead regarding annual CPGI meeting
+●	Received and reviewed e-mails regarding team call 
+●	Received and reviewed e-mails regarding notes from team calls
+●	Received and reviewed email regarding fro next phase of BGLC engagement strategy
+●	Attended weekly BGLC team calls
+●	Attended fellow BGLC member organizations' virtual events
+●	Ongoing communication with the coordinator regarding the next steps and planning as we move into the next phase</t>
+  </si>
+  <si>
+    <t>Collaborative opportunities to meet with different CPGI and Pyxis staff based on the variety of meetings and 
+Spring Engagement Meeting. Focused on minority research student support program models and current capabilities and programming updates across US and NC for broader updates on best models of practice and AoU objectives.
+Meeting with Kim Cantor and CPGI Engagement Counselor, Julia Daverne to better establish GEHAC regional objectives and accomplishments for SoW and future best opportunities to build on current capacity and support NC more strategically with HBCU and minority student initiatives and potential with the Cone Health Congregational Nursing Program too for community level engagement opportunities and contacts. Reviewing outcomes evaluation of 4/25/22 National DNA Day AoU program partnership virtual webinar for the 2nd Annual Cone Health and UNCG Precision Health Institute Conference.
+Collaborative opportunities to meet with different CPGI and Pyxis staff based on the variety of meetings and 
+Spring Engagement Meeting. Focused on minority research student support program models and current capabilities and programming updates across US and NC for broader updates on best models of practice and AoU objectives.
+Meeting with Kim Cantor and CPGI Engagement Counselor, Julia Daverne to better establish GEHAC regional objectives and accomplishments for SoW and future best opportunities to build on current capacity and support NC more strategically with HBCU and minority student initiatives and potential with the Cone Health Congregational Nursing Program too for community level engagement opportunities and contacts. Reviewing outcomes evaluation of 4/25/22 National DNA Day AoU program partnership virtual webinar for the 2nd Annual Cone Health and UNCG Precision Health Institute Conference.</t>
+  </si>
+  <si>
+    <t>Accomplishments experienced by our organization this month included successful tabling at the Denver Colfax Marathon; nearly 400 people visited our THEARI booth and learned about the All of Us Research Program. We had several student ambassadors activities events this month as well. Ciauna tabled with Banner Health at the Mile High Flea Market with 52 visitors to our THEARI table and Deandra presented to the Osteopathic Medical Student Coalition in a hybrid fashion with 10 in attendance. Mikaela presented to the administration/faculty at Stuart Middle School and Miryam hosted an All of Us social with her fellow medical students at Rocky Vista University (RVU). THEARI hosted a virtual booth with Texas Waco AHEC at the Spring Engagement Meeting and due to the number of visitors to our booth, we were a top 5 exhibit.</t>
+  </si>
+  <si>
+    <t>We successfully installed the Kiosk in the lobby of our YMCA location in Arvada. It is a highly trafficked area and has gotten a lot of attention from members. We also solidified plans for our last cooking demonstration slated for June.</t>
+  </si>
+  <si>
+    <t>No challenges but continue to work on new plans for Cycle 4. NAHN submitted and revised their cycle 4 strategy. We involved with researcher engagement. Additionally, we are exploring the feasibility to engage in the new AZ target market area, pending the final funding budget and allocation.</t>
+  </si>
+  <si>
+    <t>The webinars were better attended than initially thought.  Not all that registered could make it, but the webinars were posted on our website for them to view it later.  We also were able to make a connection with the DRC.</t>
+  </si>
+  <si>
+    <t>May was jampacked with programming for NRHA and its sub-awardees when talking about the All of Us Research Program. Regarding information disseminations and CPGI governance activities, NRHA staff member Lea Mann has been able to represent NRHA at the Spring Engagement Meeting, Annual CPGI Meeting, target market meetings, webinars, and sub-awardee meetings. NRHA promoted the All of Us AAPI Heritage Month, Mental Health Awareness Month, National Arab American Heritage Month, and Older Americans Month social media toolkits through our platforms. NRHA also discussed a potential paid co-branded Facebook opportunity with our engagement counselor.  
+Most notably, on Thursday, May 12, 2022, NRHA hosted AoU Chief Engagement Officer Dr. Karriem Watson in-person at our Annual Rural Health Conference in Albuquerque, New Mexico as the Terry Reilly Keynote Speaker. Dr. Watson presented an information session titled, “The All of Us Research Program: Engaging Rural Communities to Achieve Health Equity.” Dr. Watson successfully engaged an audience of around 200 rural health professionals with his personal journey in precision medicine research and with facts and figures on the All of Us Research Program. The audience was curious to know how the Program can and will do more to engage rural populations. Dr. Watson was able to have honest, reflective answers for the audience on how he sees the program can do more to engage rural populations in the Program. After Dr. Watson’s presentations, NRHA and TX AHEC East Waco Region waited outside the lecture hall with signs that directed the audience to engage with us if they had further questions about the Program.  
+As mentioned in previous reports, at NRHA’s Annual Conference, NRHA co-hosted an All of Us Research Program exhibit with TX AHEC East, Waco Region. The Conference boasted a healthy attendance of 843 people. Ashley Bearden and Micah Bolden of TX AHEC East, Waco Region traveled to NM to staff the All of Us booth, along with NRHA staff Laura Hudson and Lea Mann. Our Engagement Counselor Rachelle Ciulla also staffed this exhibit while also assisting Dr. Watson on-site, as needed.  NRHA ordered all the Program promotional materials, as well as general exhibit assets, including a table runner &amp; a vertical banner, needed for the conference. Texas AHEC East- Waco provided the printed materials. Also, Ms. Ciulla met with the state rural health association leaders briefly during their convening within the NRHA conference.  
+In May, NRHA coordinated with our Engagement Counselor Rachelle Ciulla and our “Rural Research Influencer” Dr. Kevin Bennett to have Dr. Bennet participate in a panel on May 4, 2022, during the 2022 Spring Engagement Meeting. The panel was titled, “Building a diverse All of Us Researcher Community: Highlights of impactful engagement activities.” In this panel, Program researchers shared their impactful strategies and activities that can be used to inform future work by additional program partners. Dr. Bennett specifically spoke about the barriers when conducting rural health research on the All of Us research workbench. Dr. Bennett expressed the following barriers to conducting precision medicine research in rural populations: availability of data and equitable data; by this Dr. Bennett expanded to say that the datasets never cover all aspects of rural, as smaller areas get lost in the shuffle in larger counties that are urban. Moreover, participation from rural populations is missing because of lack of transportation or time to go to large care centers, and when they do get to the large health centers, it’s hard to talk to people because they are dealing with a myriad of other health issues. Lastly, it is hard for rural community leaders to navigate the data because they are not part of a larger university or organization that can provide support as they engage in the workbench. From this panel, we have seen positive feedback, as our Engagement Counselor Rachelle Ciulla reached out to Dr. Bennett after his panel to ask him to join a conversation with the Data Research Center (DRC), as DRC had brought up the lack of an option to stratify data for rural areas.  Our Engagement Counselor is currently coordinating with Dr. Bennett to set up a meeting between him and the DRC to discuss this lack of an option among other concerns of rural researchers on the All of Us workbench. 
+This month, NRHA met with its sub-awardee the Louisiana Rural Health Association to discuss their strategy &amp; budget for the remainder of Cycle 3. NRHA’s engagement counselor was able to join the call and have a very productive conversation with LRHA Executive Director Denae Hebert on allocating remaining funds to in-person event assets, such as a vertical banner, tablecloth, table signs, etc. LRHA plans to further connect with our Communications Counselor Rob Bartnichak about LRHA branded asset creation.  LRHA also shared the All of Us social media observances in May; those social media engagements have been entered into Network Ninja.  
+In Arizona, this month, NRHA met with AZ Rural Health Association leadership to discuss their activities as collaborators for the remainder of Cycle 3 and their interest in participating in NRHA’s Cycle 4 programming with All of Us as sub-awardees and participants in the developing Arizona Target Market. From this conversation, AzRHA proposed hosting an All of Us Research Program exhibit at an upcoming rural health conference in June that AZRHA is co-sponsoring (48th Annual Arizona Rural Health Conference). NRHA and our engagement counselor believe that this is the perfect opportunity to introduce the Program to Arizona rural health stakeholders. AZRHA is currently working on a Cycle 3 proposal to include this new activity. NRHA has checked with All of Us partner ASU Banner Health on their exhibitor status but have yet to receive a response; we do not want the All of Us presence to be redundant.  Moreover, the current board president of AZRHA, Elizabeth Hall -Lipsey, JD, had the brilliant idea of working with preceptors in rural areas as a way of increasing the Program’s engagement with providers and trusted health professionals in rural areas. Their involvement would also increase the involvement of the students they are working with. Both groups could then also educate and engage their clientele about the All of Us Research Program. NRHA looks forward to discussing this further in our Cycle 4 Scope of Work.   
+In California, this month, NRHA met with CA State Rural Health Association president Scott Hertzberg to discuss CSRHA’s interest in a small activity as a collaborator before the end of Cycle 3 and CSRHA’s interest in participating in NRHA’s Cycle 4 programming with All of Us as a sub-awardee in the developing California Target Market. The conversation was fruitful, as the leadership was very interested to participate in All of Us programming. NRHA is awaiting a proposed budget from CSRHA for their efforts in the remainder of Cycle 3. We have decided to begin podcast engagement in Cycle 4, so we have time to plan the best fit speakers for the content.  
+Finally, NRHA staff Laura Hudson participate in the quarterly Engagement Incubator. The group focused on developing games focused on the AoU Research Program that could keep partners/participants engaged and would encourage new partners/participants to join or learn more about the Program. The EI meeting allowed Mrs. Hudson to connect again with a representative from CPGI Partner PrideNet to set a time to discuss possible ways our two groups and/or or subawardees could collaborate. The meeting will take place on June 1.</t>
+  </si>
+  <si>
+    <t>We conducted planning for two upcoming meetings:
+All of Us Presentation to NMA/Region VI to be held on June 22, 2022 in Denver, CO-- Hybrid
+Cobb/All of Us Research Portal Instructional Course/NMA Convention on August 1, 2022 in Atlanta, GA -- In-person
+Participation at the All of Us 2022 Spring Engagement Meeting and the CPGI Annual Meeting</t>
+  </si>
+  <si>
+    <t>UnidosUS social media posts about the All of Us Research Program had a combined reach on Facebook and Instagram of over 198,000.</t>
+  </si>
+  <si>
+    <t>During this month, we engaged in weekly meetings with our engagement counselor, Rima Matsumoto, to ensure partnerships and activities are aligned with program goals. We had a meeting with our engagement counselor to discuss strategic planning for the next funding cycle.  On May 20, we developed and published the Cafecito con NHCOA with a focus on the future of the All of Us Research program. This Cafecito con NHCOA was conducted in Spanish and the video was widely disseminated through our social media platforms. Here’s the link to the video for more information: https://fb.watch/dlYPAZIV5k/  . We also worked with the communications team to help us promote the Cafecito con NHCOA videos via our social media platforms.
+Also, we had a planning call with the communications team and engagement counselor to discuss promotional materials for the webinar scheduled on May 26th. As part of our virtual activities, we co-hosted the Perspectives from Health Researchers in Advancing Health Equity in Diverse Communities: Part 1” webinar alongside the Diverse Elders Coalition (DEC).
+We had over 100 attendees who joined the discussion with a panel of experts to learn about persisting health inequities and barriers that have prevented communities of color, LGBTQ+ communities, American Indian/Alaska Native communities, and others from participating in health research and how the All of Us Research Program aims to resolve these inequities, making it easier for diverse communities to participate in health research. Also, we are finalizing logistics for the second part of the Perspectives from Health Researchers in Advancing Health Equity in Diverse Communities webinar that we are co-hosting with the DEC and is scheduled to take place on June 23rd.  We continue to be active on our social media platforms to educate and create awareness about the program and the importance of Hispanic/Latinos participating in health research.</t>
+  </si>
+  <si>
+    <t>The following activities are currently underway or in preparation stages:
+- Communications/social media: Monthly social media posts on AAPA/PA Foundation channels - 5/5, 5/12, 5/25. Incorporated messaging related to Asian American and Pacific Islander Heritage Month, Mental Health Awareness Month, and Older Americans Month; used social media toolkits provided on Engagement Hub. Planning underway for final quarterly News Central article related to All of Us (to be published in June).
+- Nutrition collaboration: Last communication re: collaborative activity with Black Women's Health Imperative: BWHI outlined opportunities scheduled for end of April and summer 2022. No follow-up since last email exchange; future activity TBD.
+- CME sessions (AoU conference session, research session, and Genetics &amp; Genomics CME bundle): Enduring sessions on AAPA Learning Central; continuing to collect/compile participation metrics on a monthly basis.
+- AAPA Conference 2022 digital ads: Digital All of Us banner ad running on conference registration site; will run through May 2022. In-person conference activity - Conference held May 20-25 in Indianapolis; over 3,000 PA/PA student attendees. AoU featured on free-standing double-sided meter board sign and HCP-focused brochure asset (placed with sign). Prominent placement in convention center (high foot traffic area/high visibility).
+ - Student programming at AAPA Conference 2022 (student seminar): Held final planning/run-through call with speakers to go over program flow, content, and logistics (5/10). Event held on 5/21; approximately 65 people (primarily PA students) in attendance. Program included the following content: presentation by JoAnn Smith, MPH, NIH Program Analyst, titled "The All of Us Research Program"; presentation by Nguyen Park, PA-C, titled "The Future of Genetics is You"; panel discussion with Smith, Park, and Wesley Patterson, PA-C on topics including career pathways into genetics, the importance of diversity in research, and more; audience Q&amp;A. 
+- Web/digital placement - Digital banner ad featured in May 5 edition of PA-Central Member (newsletter distributed to AAPA member audience).
+- Website landing pages: Continuing to collect monthly metrics.
+- Other activities (outside SOW): Held live webinar in collaboration with National Alliance for Hispanic Health on 5/5; promoted via PA-Central member placement (5/5).</t>
+  </si>
+  <si>
+    <t>Dr. Lemieux was invited to be a guest panelist on the "Researcher Engagement" session on day two of the Spring Engagement conference on 5/5/22. On 5/27/22 Dr. Lemieux was asked to give a presentation on the All of Us Research Program to the RCMI/NIH's Program Officer who was interested in learning more about the program.</t>
+  </si>
+  <si>
+    <t>The CPGI Meeting was excellent.  It really helped to think through scope of work development and ways to improve outreach and demonstrate impact of work.</t>
+  </si>
+  <si>
+    <t>We were able to engage the Pennington Engagement specialist and invite them to come to our wellness Wednesday on May 25. They came and helped us inform about the program.</t>
+  </si>
+  <si>
+    <t>We are reaching more people by educating them about All of Us.</t>
+  </si>
+  <si>
+    <t>During the month of May LULAC participated in weekly check-in calls with our engagement counselor, Rima Matsumoto and communications associate Samantha Santoro. During this month LULAC was planning for the upcoming in-person cafecito in June regarding mental health. LULAC had originally planned this cafecito for May for Mental Health Awareness Month, however we experienced a few challenges with securing a space and partners in a timely manner. At the suggestion of Rima, LULAC has moved our cafecito to June 25 but will still focus on mental health as it’s an issue that should be amplified in minority communities.  LULAC also participated in the Spring Engagement Meeting and CPGI Meeting this month to better understand what other CPGI partners are doing across various markets. Additionally, LULAC made minor revisions to our CPGI Strategy Plan and submitted it to our engagement counselor through the feedback provided by the evaluation committee. We are currently awaiting next steps for the SOW development and timeline. 
+Finally, Rima and the LULAC team have been discussing the execution plan for the 2022 LULAC National Convention that is taking place in San Juan, PR in late July.  We have discussed outreach and exhibiting and speaking opportunities.</t>
+  </si>
+  <si>
+    <t>This month Southern University Ag Center held its "Ask the Expert" series on Mental Health Awareness with Ashley Willis, LPC and Marlon Boutin, LPC as speakers.  An All of Us Research Program presentation was given at a Spring into Nutrition program that was held.  Plans for a Community Health Fair sponsored by AoU is upcoming where this will be a tabling/booth event.
+The SU Ag Center Team also spoke with collaborating partner to begin joining us at events to possibly enroll participants.</t>
+  </si>
+  <si>
+    <t>This month, NHMA continued active participation in Target Market calls, check-ins with our EC, social media efforts, monthly newsletter promotions, relationship building, completed our Cinco de Mayo event, and planned for a paid Facebook Ad campaign takeover and in-person roundtable event at the NHMA office.</t>
+  </si>
+  <si>
+    <t>We had a productive experience at NRHA and we were able to facilitate significant connections for the program. Several people had relevant question about how they could get involved in the program throughout the conference.</t>
+  </si>
+  <si>
+    <t>This event was put out through social media, could not target Chicago specifically as we can't target one area</t>
   </si>
   <si>
     <t>COVID continues to be the main challenge across all our partners, but with more and more restrictions being lifted, we are starting to plan more in-person events. In the meantime, we continue to host virtual events promoting the All of Us Research Program.</t>
   </si>
   <si>
+    <t>Our only challenge this month was getting our recognition of Pinky Promise- SCIENCE IS FUN.  Because of the school schedule it will be delayed until May but we are totally excited about the recognition of some amazing science teachers.</t>
+  </si>
+  <si>
     <t>Awareness of All of Us is a wonderful opportunity to engage in selfcare on a deeper level. The challenges we face relates to how to develop informative information that highlights the purpose of the All of Us program as well as engage our community in selfcare and personal health advocacy. All of Us program participation is an important tool, that could be used to help our community members understand how to advocate for themselves. This is the primary reason why we have decided to update our table talk series to ensure that we include a researcher, a doctor, and a patient. This is the new format we will use going forward.</t>
   </si>
   <si>
     <t>The challenge for this month was depending on outside entities for information needed for RIR.  The challenge was addressed by continually emailing and calling for the information.  Another challenge is balancing All of Us demands during the workday when you are working and have back-to-back meetings.  The only way to address this challenge is to plead to the program that not all of the  All of Us meetings are during the volunteers' workday.</t>
   </si>
   <si>
-    <t>Our only challenge this month was getting our recognition of Pinky Promise- SCIENCE IS FUN.  Because of the school schedule it will be delayed until May but we are totally excited about the recognition of some amazing science teachers.</t>
-  </si>
-  <si>
-    <t>•	No challenges this month.</t>
-  </si>
-  <si>
-    <t>●	The SGRho Team is continuing their Health Stories series for the internal All of 
-Us awareness campaign.  The series will continue through May when we launch our Mental Health series.
-●	The amount of time it takes to have products reviewed can pose a challenge to event success if not received back in a timely fashion. Therefore, we worked hard to provide early and advanced notice of our May activities so that we could receive approvals in time for scheduled promotional activities.
-●	Our team continues to meet regularly to fine-tune the plans within our Scope of Work and to address any service gaps in programming, while also looking for opportunities to share this information with wider audiences in the community at large.</t>
+    <t>Coordinating efforts of three CPGI partners for AHEC Grantee Collaborative programming for a live webinar with seven presenters in partnership with external partner for National AHEC Organization to have best fit content for target audience balance and equity in representing all participating partners.</t>
   </si>
   <si>
     <t>The identified target population for the face-to-face engagement activity (Houston TX) allowed Assistant Project Lead Jarrod Benjamin an opportunity to introduce attendees to the work done through the All of Us research project and its BGLC components.  The specter of the Tuskegee Project remains in the memories of potential participants.  
@@ -604,12 +1229,21 @@
 o	Outlying schedule for pre-planning to allow time for additional planning meetings as needed. Meeting more frequently than once a month.</t>
   </si>
   <si>
+    <t>The challenges that were presented were getting things done logistically with time and personnel. On Friday, April 22 due to timing and individual responsibilities we were at a shortage of manpower. Made a call to campus fraternity brothers and gained assistance for labor that was needed at the event. Assistance with putting things up along with loading and unloading.</t>
+  </si>
+  <si>
+    <t>●	The SGRho Team is continuing their Health Stories series for the internal All of 
+Us awareness campaign.  The series will continue through May when we launch our Mental Health series.
+●	The amount of time it takes to have products reviewed can pose a challenge to event success if not received back in a timely fashion. Therefore, we worked hard to provide early and advanced notice of our May activities so that we could receive approvals in time for scheduled promotional activities.
+●	Our team continues to meet regularly to fine-tune the plans within our Scope of Work and to address any service gaps in programming, while also looking for opportunities to share this information with wider audiences in the community at large.</t>
+  </si>
+  <si>
     <t>•	Keeping up with various meeting requests from the All of Us Program. (Make sure that we are registered for all mandatory meetings and that they are on our calendars).
 •	Keeping up with the frequent changes and new information/expectations of the All of Us Research Programming (Staying abreast of the new changes and making sure to cover them in our Team meetings) (Making sure that we are submitting our information into the Leadership Team in a timely matter to make sure that we have everything that we need)
 •	COVID-19 and the Pandemic continues to be a challenge due to all of the online and zoom programming.  (We have to make sure that we continue to provide informative and exciting virtual programs)</t>
   </si>
   <si>
-    <t>The challenges that were presented were getting things done logistically with time and personnel. On Friday, April 22 due to timing and individual responsibilities we were at a shortage of manpower. Made a call to campus fraternity brothers and gained assistance for labor that was needed at the event. Assistance with putting things up along with loading and unloading.</t>
+    <t>•	No challenges this month.</t>
   </si>
   <si>
     <t>None</t>
@@ -618,19 +1252,26 @@
     <t>We are planning for our cooking demo in June and want to center the conversation on June-teenth and focus on recipes from the Black community- we are trying to solicit input from our Y members and to encourage participation in this event by our Black community members. We had low response/interest so we are continuing to look for ways to get more voices in the room for this cooking event.</t>
   </si>
   <si>
-    <t>The Public Health Society has transitioned to new leadership, as current leaders are graduating from the University of Michigan Dearborn. With new leadership comes establishing relationships that understand the significance of the All of Us Program and how to navigate common goals. Access hopes that the success and willingness to collaborate with the Public Health Society at the University of Michigan Dearborn will continue to further programmatic recruitment and engage the student community here in Metro Detroit.</t>
+    <t>NHMA faced the challenge of having to elaborate on the engagement strategy document for how we would track researcher engagement and outcomes. We revised our approach and potential outcomes to align with the program's goals and hope to receive more feedback and strategies for enhancing this activity.</t>
+  </si>
+  <si>
+    <t>The approval process for our webpage about the All of Us Research Program took longer than expected. We were unable to deploy our paid social media for the event until four days prior to the event. We plan to make a recording of the webinar available on our website and have been waiting for the video to be closed captioned.</t>
+  </si>
+  <si>
+    <t>The Cycle 4 Strategic plan document was reduntant and we lacked access to the data to make it most meaningful.</t>
+  </si>
+  <si>
+    <t>None, except that all Technology Classes are held on Saturday which presented conflict in competition with festivals in New Orleans.</t>
+  </si>
+  <si>
+    <t>NRHA was hoping to All of Us Research Program promotional giveaways at the CRHC 2022 Forum,   unfortunately there was a technical glitch that caused the order not to be processed. When the CRHC order modification was submitted in the system, it did not alert the appropriate staff person as it was designed to do; therefore that the modified was not processed. NRHA was alerted by our engagement counselor that the items did not get shipped in time because of the glitch. NRHA and Pyxis have decided to ship those giveaways to a future NRHA or subawardee in-person All of Us event. We appreciate our engagement counselor and the system monitor’s help in figuring out the issue and working to correct it in the system.  
+As mentioned in the accomplishments section, NRHA had planned to have developed the rural community health worker training activity further this cycle, but staff transition and the realization that the type of CHW materials we were looking for did not exist, have delayed our progress on this activity. However, a CHW trainer is now developing an outline for a CHW training using the approved AoU Research Program slide deck. We plan to build upon that work in our proposed scope of work for Cycle 4. In consultation with our engagement counselor, funding that had been set aside for the CHW trainer was reallocated to support AoU’s session at NRHA’s Annual Conference.</t>
+  </si>
+  <si>
+    <t>We had minimal challenges this month. This time of the year is most stressful because as we are building out our SOW for the next funding cycle, we have internal routing and approvals that we have to comply with all while balancing the timing of the release of the funds  for the next program cycle.</t>
   </si>
   <si>
     <t>The most glaring challenge that we faced this month was with communication with Greensboro AHEC while we were planning the National AHEC Organization All of Us Webinar. We felt like there was a significant disconnect between what was discussed and the final product that was presented. In order to get to the best result, we made sure that we were overcommunicating through email and also being flexible to slight changes while also standing ground on topics that we thought should not be changed. We also had several meetings and run throughs. Following the event we also addressed this with our engagement counselor so she would know our concerns.</t>
-  </si>
-  <si>
-    <t>The Cycle 4 Strategic plan document was reduntant and we lacked access to the data to make it most meaningful.</t>
-  </si>
-  <si>
-    <t>We did not experience any challenges.</t>
-  </si>
-  <si>
-    <t>NHMA faced the challenge of having to elaborate on the engagement strategy document for how we would track researcher engagement and outcomes. We revised our approach and potential outcomes to align with the program's goals and hope to receive more feedback and strategies for enhancing this activity.</t>
   </si>
   <si>
     <t>Navigating the Network Ninja platform
@@ -638,23 +1279,137 @@
 Collaboration with enrollment partners</t>
   </si>
   <si>
+    <t>The AoU table was not in the best location for the Crawfest event; all tables were on the outer edge of the event.</t>
+  </si>
+  <si>
+    <t>We continue to struggle with competing events and audience fatigue.</t>
+  </si>
+  <si>
+    <t>Technology usage to enroll - the SUNO team gathered email addresses and telephone numbers.</t>
+  </si>
+  <si>
+    <t>The Public Health Society has transitioned to new leadership, as current leaders are graduating from the University of Michigan Dearborn. With new leadership comes establishing relationships that understand the significance of the All of Us Program and how to navigate common goals. Access hopes that the success and willingness to collaborate with the Public Health Society at the University of Michigan Dearborn will continue to further programmatic recruitment and engage the student community here in Metro Detroit.</t>
+  </si>
+  <si>
+    <t>We did not experience any challenges.</t>
+  </si>
+  <si>
+    <t>We decided not to have a 3 part series for the webinar as parts 1 and 2 cover what we thought we would need for the 3rd webinar.  If there are additional questions, we will come up with an alternative for the 3rd webinar.</t>
+  </si>
+  <si>
     <t>Challenges experienced this month relate to enrollment. We have spent the last month or more trying to better understand the enrollment process in the Denver Market and have finally reached a point in which we feel like we know how to approach this topic! We appreciate the support from Julia and Gabi in trying to navigate the appropriate enrollment pathways and what is allowable for internal and external use. Our THEARI All of Us team is much more confident in providing the foundational knowledge about enrollment to interested participants in All of Us and we feel we have the right tools to point people in the right direction.</t>
   </si>
   <si>
-    <t>NRHA was hoping to All of Us Research Program promotional giveaways at the CRHC 2022 Forum,   unfortunately there was a technical glitch that caused the order not to be processed. When the CRHC order modification was submitted in the system, it did not alert the appropriate staff person as it was designed to do; therefore that the modified was not processed. NRHA was alerted by our engagement counselor that the items did not get shipped in time because of the glitch. NRHA and Pyxis have decided to ship those giveaways to a future NRHA or subawardee in-person All of Us event. We appreciate our engagement counselor and the system monitor’s help in figuring out the issue and working to correct it in the system.  
-As mentioned in the accomplishments section, NRHA had planned to have developed the rural community health worker training activity further this cycle, but staff transition and the realization that the type of CHW materials we were looking for did not exist, have delayed our progress on this activity. However, a CHW trainer is now developing an outline for a CHW training using the approved AoU Research Program slide deck. We plan to build upon that work in our proposed scope of work for Cycle 4. In consultation with our engagement counselor, funding that had been set aside for the CHW trainer was reallocated to support AoU’s session at NRHA’s Annual Conference.</t>
-  </si>
-  <si>
-    <t>We had minimal challenges this month. This time of the year is most stressful because as we are building out our SOW for the next funding cycle, we have internal routing and approvals that we have to comply with all while balancing the timing of the release of the funds  for the next program cycle.</t>
-  </si>
-  <si>
     <t>We experienced no challenges in this reporting period. We continue to meet weekly with our CPGI engagement counselor to troubleshoot any issues as they arise.</t>
   </si>
   <si>
+    <t>Some of the challenges LULAC experienced during this month was finalizing a location for our Mental Health Cafecito initially scheduled for May. However, Rima Matsumoto has been helpful in putting us in contact with CASA de Maryland as a potential partner and site location.</t>
+  </si>
+  <si>
+    <t>Challenges for participant engagement continued to remain constant in regards to participants feeling discouraged because of the travel required to participate. Participants have concerns about going to health centers (enrollment centers) they are not familiar with.</t>
+  </si>
+  <si>
+    <t>- NBNA was able to quickly identify new leadership and a new sub awardee following the exit of its long-time executive director.</t>
+  </si>
+  <si>
+    <t>Challenges were dealing with fatigue and sickness after three weeks of consistent travel. These were addressed by pushing through it, but planning to spread out our travel in future cycles.
+Another challenge was our anti-racism event where the leader of the event did not like the white lens the talk was presented in and therefore stopped the talk. This resulted in an extremely fruitful discussion, but did teach us to be more aware of how we are framing our talks and discussions.</t>
+  </si>
+  <si>
     <t>Challenges included pivoting/making adjustments for our in-person student symposium event based on the news that our original speaker could no longer participate. We remained in communication with the Pyxis team, with regular follow-up/check-ins, and they assisted us in identifying a new speaker.</t>
   </si>
   <si>
-    <t>Challenges for participant engagement continued to remain constant in regards to participants feeling discouraged because of the travel required to participate. Participants have concerns about going to health centers they are not familiar with.</t>
+    <t>We have opportunties in our strategic planning process: identifying partners and events to better share information</t>
+  </si>
+  <si>
+    <t>During the Western Forum, Cori Garcia Hansen became ill with an upper respiratory infection.  She was then not allowed to participate in the in-person conference.  However, the AHECWW center sent two staff, so Carlos Morales, was able to cover the event activities.  The AHECWW also had the support of the National Alliance for Hispanic Health.  Overall, the task was delivered successfully.   
+As the AHECWW looks forward to the opportunity to continue participation with the All of Us Program, the center has reflected on its niche and role in the work in the WA Ecosystem.  The education and awareness piece seems complimentary to the work to build support among health professionals working in underserved communities.  Ultimately, this will help with recruitment and retention.  We also continue to provide information about the research work bench to the health professions student and professional audience. The AHEC needs to learn more about how to best evaluate and survey participants in programming to serve the other collaborative efforts in the region and goals of the program.  As the development of the WA Ecosystem group is new, the center is optimistic about the opportunities to collaborate and form a streamlined approach with tangible outcomes in support of regional partners.</t>
+  </si>
+  <si>
+    <t>Remaining COVID restrictions continue to be the main challenge across all our partners, but with more and more restrictions being lifted, we are starting to plan more in-person events. In the meantime, we continue to host virtual events promoting the All of Us Research Program.</t>
+  </si>
+  <si>
+    <t>The collective BGLC organizations have each expressed concerns about the current expected delivery of the All of Us message during events. Several strategies are being reviewed to ensure that we honor the expectations of the program while creating strategies to keep our constituents engaged, with the presentation. Some of our ideas include making the NIH information more engaging so that the All of Us message flows through our activations seamlessly and connects with our participants. For example, we would incorporate the presentation about All of Us in a way that makes for a smoother transition with our content.</t>
+  </si>
+  <si>
+    <t>The identified target population for the face-to-face engagement activities on the college campuses will allow the Phi Beta Sigma Fraternity coordinators and social media specialists an opportunity to introduce attendees to the work done through the All of Us research project and its BGLC components.  Both coordinators have been well-trained to divert those asking questions about the research to the All of Us website to get those questions answered.</t>
+  </si>
+  <si>
+    <t>The challenges that were presented were more on a technology basis with some of our panelists for our web event on Mental Health. We were able to do a run-through as well as get them to log on earlier prior to the event to manage any troubleshooting issues to assure things would run smoothly</t>
+  </si>
+  <si>
+    <t>•	Keeping up with the frequent changes and new information/expectations of the All of Us Research Programming (Staying abreast of the new changes and making sure to cover them in our Team meetings) (Making sure that we are submitting our information to the Leadership Team in a timely matter to make sure that we have everything that we need)
+•	The uncertainty of the extent of COVID-19 and the Pandemic trying to program for the next phase. Making sure we have a Plan A&amp;B for in-person and virtual programming continues to be a challenge due to all of the online and zoom programming.  (We have to make sure that we continue to prepare for and create in-person, virtual, and hybrid type programming.)</t>
+  </si>
+  <si>
+    <t>CPGI partner meeting is during the workday and it is hard for working individuals to participate.  I expressed the challenges to the meeting conveners</t>
+  </si>
+  <si>
+    <t>A challenge for this month was a change in our Coordinator.  This came unexpectedly but our new coordinator set up a meeting with the Program Lead to receive any information they need in this role as well as ask for guidance for the next couple of months as we move into another phase of the program.</t>
+  </si>
+  <si>
+    <t>•	Expanding target market reach
+o	Identifying specific chapters, states, and program partners to collaborate
+•	Scheduling planning meetings for potential collaborations with other BGLC organizations
+•	Brainstorming innovations for the signature Health is Wealth Series</t>
+  </si>
+  <si>
+    <t>Dillard University Community Relations will host All of Us Broadband classes at its Community Resource Center which will allow for residents to attend classes on a regular basic.  The classes will be in June.</t>
+  </si>
+  <si>
+    <t>●	Diving deeper into the information and resources available for engagement (familiarizing ourselves with the various dashboards and being up to date with CPGI)
+●	Navigating new team additions in partnership with fraternity headquarters and (a change in personnel assigned to which project and developing a consistent meeting schedule to evaluate, develop and accomplish goals)
+●	Developing engagement strategies following events
+●	Navigating preparation for entering into the next phase of the project</t>
+  </si>
+  <si>
+    <t>Staffing shortage increase for new turnover loss</t>
+  </si>
+  <si>
+    <t>Just some challenges with the technology on the Kiosk- one of the tablets needed to be replaced. Kattia is still trying to finalize the spanish translation of our Cookbook asset, it has been a challenge to work within the design software our marketing team uses.</t>
+  </si>
+  <si>
+    <t>The third webinar was replaced by other activities.</t>
+  </si>
+  <si>
+    <t>A challenge experienced in May was when NRHA began to create new activities and reports in the new version of Network Ninja. NRHA staff member Lea Mann wanted to create a May Monthly report in Network Ninja to review the questions before drafting but could not seem to choose the correct setting in Network Ninja for the monthly report questions to populate. In order to resolve the frustration, Lea went back to the Network Ninja training provided by Pyxis to go through the motions of creating a monthly report while watching the tutorial video. Lea then took notes on the procedure for next month, hoping this will create more ease in June and the further months coming.</t>
+  </si>
+  <si>
+    <t>Due to unforeseen circumstances the Conversation webinar with Dr. Karriem Watson was postponed. We will plan months ahead for any speaker engagement with national leadership and to ensure that we provide backup support should any subawardees face technology issues or related challenges.</t>
+  </si>
+  <si>
+    <t>While we were unable to schedule a collaboration in the NY Market this cycle, we are excited about the potential for collaboration with our subgrantee, Mexican Coalition, in the next cycle.</t>
+  </si>
+  <si>
+    <t>It has proven challenging to make progress in potential collaborative efforts with other CPGI organizations after initial discussions. This is likely due to busy schedules and competing priorities. We can will focus on the activities that we have more control over and remain open to other collaborations that align with our work/activities.</t>
+  </si>
+  <si>
+    <t>We had a couple of challenges this month. We would like to note that HPO partner Tulane sent an email to meet following our in-person Louisiana Ecosystem meeting in late March. A meeting was planned and scheduled for May 9th by Nicole Blunt. This meeting was initiated by Marie (Engagement coordinator) who invited Blair (Project Manager) &amp; Emily (leaving program soon) to attend from Tulane. Tulane entered the meeting with their cameras off and was clearly unprepared for discussion. Dr. Lemieux begin by asking questions about how we could collaborate and what was Tulane currently doing in the community. We discovered Tulane had no engagement strategy and that the current team is unempathetic and displayed micro-aggressions when asked questions regarding current and past engagement strategies and experiences with the community. It gave us grave concerns around their ability to connect with community and we are very protective of the community we serve. Dr. Lemieux suggested that once they have a community engagement plan we can reconvene for further discussion. 
+The second challenge was around Xavier's upcoming AoU Workbench &amp; R training. After Dr. Watson mention Xavier's training at the Spring Engagement and Dr. Lemieux shared during our Ecosystem meeting our future events, we received a considerable amount of interest from NIH staff, DREFT and others in the All of Us Constrosium. While we welcome the spirit of collaboration, Xavier's funding is limited to community engagement. We are committed to expanding our cohort of UBR researcher in the HBCU commuity per our SOW and welcome the support and resources to serve more in the next round of funding as a sub-awardee of Pyxis Partners.</t>
+  </si>
+  <si>
+    <t>We continue to work on onboarding staff.  We started a new full-time staff person mid-month.</t>
+  </si>
+  <si>
+    <t>No challenges.</t>
+  </si>
+  <si>
+    <t>There were not any challenges.</t>
+  </si>
+  <si>
+    <t>A challenge LULAC experienced during this month was finalizing the Mental Health Cafecito. For the month of May, LULAC had an in-person cafecito planned for the DMV market. However, we experienced challenges in finalizing a site location and participating partners.</t>
+  </si>
+  <si>
+    <t>The challenge our team experienced this month was meeting one of our collaborating partners to host an event together.  The two organizations were extremely busy and got their signals a little crossed this month.  Moving forward the collaborating partners have made contact with each other and will continue collaboration.  Another challenge that was encountered was committing for one of our partners to enroll attendees at an upcoming health event.</t>
+  </si>
+  <si>
+    <t>NHMA did not experience any particular challenges this month.</t>
+  </si>
+  <si>
+    <t>This month was busy as we were focused on onboarding new ambassadors, travelling to NRHA, and preparing for the Expo, which is our biggest All of Us event. It was difficult to manage so many different events during this busy month.</t>
+  </si>
+  <si>
+    <t>Would need to do a survey of providers to find out when is the best time to receive this information and see if an in person event would have more engagement than a virtual event. Azusa Pacific did not fill out the monthly report - will add once filled out.</t>
   </si>
   <si>
     <t>As always, we continue to learn of more engaging ways to work alongside different organizations and communities, to keep participants engaged and aware of the All of Us Research Program. The monthly meetings with other partners brings synergy with a focus on creative outreach and innovative in our methods of targeting new partnerships.</t>
@@ -666,10 +1421,7 @@
     <t>This is not a new lesson learned, but worth mentioning again, Marketing is Key!!!!</t>
   </si>
   <si>
-    <t>Our organization has started to conduct more face-to-face events. We have learned we must continue to utilize many different avenues to publicize events.  We must also ensure that we as an organization must issue a “Call to Action” at our community events to ensure we are getting the message out about All of Us</t>
-  </si>
-  <si>
-    <t>●	Competing demands on the team’s time due to other responsibilities are weighing heavy. Constant communication as well as being able to quickly pivot will ensure the team’s success throughout the duration of the project.</t>
+    <t>Discovered common ground of AHEC grantees to work well together and showcase best practice models for student health research opportunities and student ambassador programs. Great things come out of collaborative partnership program offerings that have much greater depth and dimension relevant to more diverse participants interests.</t>
   </si>
   <si>
     <t>Phi Beta Sigma Fraternity discovered that the better “audience” for the pass-along of All of Us Research Project information is still face-to-face interactions.  It is easier to direct those who are interested in the website and to further the engagement.  Phi Beta Sigma Fraternity will continue to use these projects to market operations that promote events to highlight the All of Us research project</t>
@@ -683,107 +1435,315 @@
     <t>As we look into incorporating hybrid events we need to make sure to develop contingency plans in case of unexpected COVID or other restrictions</t>
   </si>
   <si>
+    <t>Marketing is extremely important with conducting events both virtually and in person. We have to make sure this is done efficiently and effectively. We can’t just leave this piece to Social Media as we have to establish a presence locally in the area to make sure the word is getting out about the events being done. We also have to think outside the box by potentially even transporting those that may not have the means to physically be present to get the word out.</t>
+  </si>
+  <si>
+    <t>●	Competing demands on the team’s time due to other responsibilities are weighing heavy. Constant communication as well as being able to quickly pivot will ensure the team’s success throughout the duration of the project.</t>
+  </si>
+  <si>
     <t>•	We learned that HPO’s are approachable and willing to partner with us on our programs.
 •	We’ve learned, how larger programs like the BGLC Rooted In Resilience Tours are impactful in the communities that we are trying we’ve learned how to access and read the analytics reports in the Asset Portal.</t>
   </si>
   <si>
-    <t>Marketing is extremely important with conducting events both virtually and in person. We have to make sure this is done efficiently and effectively. We can’t just leave this piece to Social Media as we have to establish a presence locally in the area to make sure the word is getting out about the events being done. We also have to think outside the box by potentially even transporting those that may not have the means to physically be present to get the word out.</t>
+    <t>Our organization has started to conduct more face-to-face events. We have learned we must continue to utilize many different avenues to publicize events.  We must also ensure that we as an organization must issue a “Call to Action” at our community events to ensure we are getting the message out about All of Us</t>
   </si>
   <si>
     <t>We have started planning for our upcoming event in June as we will be focusing on Black Men’s Health.  The focus will be on going to the Doctor and having conversations with the coordinators of the different D9 fraternities about their views on Men’s Health</t>
   </si>
   <si>
+    <t>This month, NHMA learned the importance of establishing partnerships for collaborations with HPO's in our target market areas and where we have chapters. We also learned the importance of planning in advance with chapters and interested physicians/researcher to get them involved with our scope of work for the upcoming project period.</t>
+  </si>
+  <si>
+    <t>The importance of individuals learning the connection between science and faith.</t>
+  </si>
+  <si>
+    <t>NRHA has learned that collaboration and maintaining reachable goals can lead to success! On the other side of this lesson is that collaboration and maintaining reachable goals requires patience, flexibility, and open communication. Unfortunately, we were unable to have the promotional giveaways at the Forum, but now have also learned an important lesson to follow up after submission to confirm receipt and that there is always a way to repurpose materials.</t>
+  </si>
+  <si>
+    <t>No lesson to report this month.</t>
+  </si>
+  <si>
+    <t>A lesson learned this month was that best intentions don't always get the job done, but working towards a common goal and knowing when to pick your battles can be the best choice of action for getting to the end result.</t>
+  </si>
+  <si>
+    <t>Themed based webinars connect with the audience.  Individuals gravitate to trusted community partners.  Research is lacking in the New Orleans area academic institutions.  Some universities/colleges need DURAs.  Some institutions need assistance in curriculum and research by opportunities for students.</t>
+  </si>
+  <si>
+    <t>Coronavirus disease 2019 (COVID-19) has underscored longstanding societal differences in the drivers of health and demonstrated the value of applying a health equity lens to engage at-risk communities.
+Communication is essential - communicate with team and communities ongoing.
+Effectively, share data, and partner with them for program implementation, dissemination, and evaluation. 
+Engage across diverse communities and with community organizations.
+SUNO gained the opportunity to apply lessons from COVID-19 for sustained changes in how the SUNO Team and its partners work collectively to promote health, especially in our most vulnerable communities.</t>
+  </si>
+  <si>
     <t>Lessons learned include mindfulness when it comes to transitioning to the end of the pandemic. There is great enthusiasm to meet and engage with our fellow collaborators. Just as we practiced respectful social distancing throughout the entirety of the pandemic, we will continue to meet and host tabling events, community pop-ups, and other outreach plans respectfully. Access remains prepared to lead in-person initiatives, with intentions to only benefit community health.</t>
   </si>
   <si>
-    <t>A lesson learned this month was that best intentions don't always get the job done, but working towards a common goal and knowing when to pick your battles can be the best choice of action for getting to the end result.</t>
-  </si>
-  <si>
     <t>The target audience likes fun and engaging events while learning about the All of Us Research Program.</t>
   </si>
   <si>
-    <t>This month, NHMA learned the importance of establishing partnerships for collaborations with HPO's in our target market areas and where we have chapters. We also learned the importance of planning in advance with chapters and interested physicians/researcher to get them involved with our scope of work for the upcoming project period.</t>
-  </si>
-  <si>
-    <t>Themed based webinars connect with the audience.  Individuals gravitate to trusted community partners.  Research is lacking in the New Orleans area academic institutions.  Some universities/colleges need DURAs.  Some institutions need assistance in curriculum and research by opportunities for students.</t>
+    <t>We learned that it was easier to focus on different activities (ANAC focused on research activities and AAHIVM on regional activities).  However, we were still able to promote each other's events.</t>
+  </si>
+  <si>
+    <t>We met virtually with Pennington's new Engagement Specialists in order to plan future enrollment pop-up events at YMCA events in Baton Rouge.</t>
+  </si>
+  <si>
+    <t>The Partnership with other CPGI and LSU help to have more ideas to new strategies to promote All of Us</t>
   </si>
   <si>
     <t>An important lesson learned this month is that we don't have all the answers as a CPGI partner, nor should we. In an attempt to make clearer the enrollment pathways, we have realized that while we are the first line of communication for many interested individuals in All of Us, we don't need to have all the answers. It has become incredibly clear that we need  definite calls to action in our potential FY23 cycle so we can better meet our internal goals and respect the educational reach we have.</t>
   </si>
   <si>
-    <t>NRHA has learned that collaboration and maintaining reachable goals can lead to success! On the other side of this lesson is that collaboration and maintaining reachable goals requires patience, flexibility, and open communication. Unfortunately, we were unable to have the promotional giveaways at the Forum, but now have also learned an important lesson to follow up after submission to confirm receipt and that there is always a way to repurpose materials.</t>
-  </si>
-  <si>
-    <t>No lesson to report this month.</t>
-  </si>
-  <si>
     <t>It has been great to start planning ahead of time for the upcoming All of Us Research Program deliverables that we need to accomplish for this new funding cycle. Along with our engagement counselor and the communications team, we are keeping track of the timeline related to the activities for this funding cycle. One of the lessons learned during this month was finalizing logistics for the upcoming webinar (on May 26th) and sending it to our engagement counselor and communications team so they can provide us with a flier, promotion, and key talking points to add in the script.</t>
   </si>
   <si>
+    <t>During the month of April, LULAC’s Health Programs Coordinator learned how to complete the CPGI Strategy Plan. When the Health Programs Coordinator was on boarded last year in June the CPGI Strategy Plan had already been completed, approved and ready to begin execution  activities Throughout LULAC’s conversations with Rima and throughout watching the workshops a message that resonated with us is that there needs to be multiple touch points to increasing participant recruitment and participation in the program. LULAC made it a priority to host multiple events within a market to increase visibility and awareness.</t>
+  </si>
+  <si>
+    <t>Mexican Coalition reflected on the decrease in social media interactions this month and identified that social media posts that provide more specific information about the program have higher engagement than posts with general information. There was also higher social media interaction on past months’ posts that were specifically targeting women than this month’s more general posts. Mexican Coalition expressed the need for expansion of social media assets and toolkits with more specific or targeted messages that would be better received by their community.</t>
+  </si>
+  <si>
+    <t>- It would be helpful to incorporate examples of how healthcare workers can engage patients, clients, and/or families in the All of Us Research Program.
+- Now that we know more about COVID-19 and vaccinations are available, we need to meet the community where they are and resume offering in-person health education events in neighborhoods (e.g. community centers, parks, etc.)</t>
+  </si>
+  <si>
+    <t>We learned to be aware of how we market our webinars so the participants know what to expect better.</t>
+  </si>
+  <si>
     <t>We received more tangible evidence that the All of Us program is of interest to the PA audience, based on the audience engagement during our Women in Philanthropy webinar event on precision medicine and women's health. Audience members asked questions after the presentation that indicated interest in learning more and potentially getting involved. We also received outreach from a PA expressing his interest in getting more involved in the program in a direct way.</t>
   </si>
   <si>
-    <t>Mexican Coalition reflected on the decrease in social media interactions this month and identified that social media posts that provide more specific information about the program have higher engagement than posts with general information. There was also higher social media interaction on past months’ posts that were specifically targeting women than this month’s more general posts. Mexican Coalition expressed the need for expansion of social media assets and toolkits with more specific or targeted messages that would be better received by their community.</t>
+    <t>As I had previously stated above, in future STEM-based programs conducted on the Sci-Port premises, we will use a mobile cart presentation method rather than a static location.</t>
+  </si>
+  <si>
+    <t>We've identified that there is strong community curiosity in the potential advantages of participation. We now look to create a campaign that features community figures and leaders to encourage enrollment and highlight benefits.</t>
+  </si>
+  <si>
+    <t>With the ongoing challenges during the pandemic, the experience with event coverage demonstrated the importance of back-up plans and staffing when unforeseen factors like illness impact the work.</t>
+  </si>
+  <si>
+    <t>As always, we continue to learn of more engaging ways to work alongside different organizations and communities. The monthly meetings with other partners brings synergy with a focus on creative outreach and innovative in our methods of targeting new partnerships. Throughout this project year, we are learning to be creative and innovative in our methods of fostering new partnerships. We are also learning to be resourceful and to think outside of the box when it comes to capturing the attention of the community.</t>
+  </si>
+  <si>
+    <t>As a result of participating in the CPGI Spring Engagement reviewing the CPGI Day Resources and Evaluation email, we gained greater insight into the trajectory of the All of Us program since Phase I. The growth and reach of the program are a direct result of all of the partnerships and the creative ideas for activations by the partners on all levels. We recognize that this program is ever-evolving and that our participation requires us to continue to evolve with the needs of the program. BGLC as a collective did a really good job of engaging our communities and enhancing awareness, but our work now will need to have a greater focus on research and retention. It is important to note that in Phase VI and Phase VII that we had begun moving in those directions with the development of the Rooted in Research and the Minority Student Research Symposium.</t>
+  </si>
+  <si>
+    <t>Phi Beta Sigma Fraternity continues to understand that the best engagement for the All of Us research project information is still face-to-face interactions.  It is easier to direct those who are interested in the website and to further the engagement.  Phi Beta Sigma Fraternity will continue to use these projects to market operations that promote events to highlight the All of Us research project</t>
+  </si>
+  <si>
+    <t>Marketing is always key to getting the information out. We also recognized that the information especially on Mental Health is vital. During our event, we had a participant mention several times he was dealing with depression and was having suicidal thoughts. We reached out to him personally and had one of the panelists, who is a mental health professional call him directly. As a result, the young man mentioned he would seek assistance.</t>
+  </si>
+  <si>
+    <t>●	Competing demands on the team’s time due to other responsibilities are weighing heavy. Constant communication as well as being able to quickly pivot will ensure the team’s success through the duration of the project.
+●	Asking clarifying questions to understand the vision of the current phase has most recently arisen. The takeaway is to continue to ask questions surrounding the expectation of those who lead the AofUS programming when tackling your monthly programming. Timing, communication format and transparency with aid in providing the best product.</t>
+  </si>
+  <si>
+    <t>•	We learned that HPOs are approachable and willing to partner with us on our programs.  •	We’ve learned, how larger programs like the BGLC Rooted In Resilience Tours are impactful in the communities that we are trying we’ve learned how to access and read the analytics reports in the Asset Portal.</t>
+  </si>
+  <si>
+    <t>I learned what the program means by engagement.</t>
+  </si>
+  <si>
+    <t>Getting started sooner with planning and finalizing events</t>
+  </si>
+  <si>
+    <t>AKA is continuing to implement more face-to-face events and distributed new guidelines to our membership on how to stay safe.</t>
+  </si>
+  <si>
+    <t>Observing other BGLC member events we witnessed innovative ways to incorporate a call-to-action during virtual events for the pre and post-surveys and AoU presentations.</t>
+  </si>
+  <si>
+    <t>None at this time</t>
+  </si>
+  <si>
+    <t>●	Utilizing data and milestones in preparation for future program developments</t>
+  </si>
+  <si>
+    <t>Competing priorities for program interests and organizational operations and how that blends with SoW and different AoU divisions, e.g., Health care provider (HCP) outreach and recruitment vs. CPGI vs. Minority Research programming impacting interpretation of AHEC role, since we are linked to all areas, but learned there is a separate NC HCP operational group and separate HBCU focused groups working on strategic initiatives, but I am just learning more about this this month, so could not previously effectively complement our work in NC with these areas and working in a silo to support those areas of development for our region. Would recommend a NC collaborative team meetings for any working group of AoU in NC to work together as a consortium or similar capacity.</t>
+  </si>
+  <si>
+    <t>Pyxis Partners has connections with many resources and was able to support THEARI with interns and opportunities. They are interested in continuing to develop partnerships in the future with recommended organizations.</t>
+  </si>
+  <si>
+    <t>We continued to work towards guiding our members and audiences to take an action step. At the kiosk we have set the main screen to guide people to the enrollment page.</t>
+  </si>
+  <si>
+    <t>Our monthly meetings and plans for events have helped us reach our goals. We will use the  same plan for Cycle 4 in addition to social media posts.</t>
+  </si>
+  <si>
+    <t>Pertaining to the troubleshooting issues in the new version of Network Ninja, NRHA has learned that it is important to slow down and revert to primary trainings, even in the routine reporting process, to ensure that proper and accurate reporting is conducted.
+In May, NRHA learned that engaging All of Us Research Program leadership about rural representation in the Program is just as important as engaging rural populations across the country. For example, Dr. Watson presented an alarmingly low statistic on the percentage of rural population enrolled in the Program.  Since engaging with the audience on how and what the Program will do to improve rural enrollment, Dr. Watson has become more enthusiastic about getting the Program more involved with rural instead of just the other way around.</t>
+  </si>
+  <si>
+    <t>We are able to partner with HPOs to directly impact enrollment.</t>
+  </si>
+  <si>
+    <t>It has been great to start planning ahead of time for the upcoming All of Us Research Program deliverables that we need to accomplish for this new funding cycle. Along with our engagement counselor and the communications team, we are keeping track of the timeline related to the activities for this funding cycle. One of the lessons learned during this month was sharing the May 26th webinar’s promotional materials (ex. flyers and RSVP link that the communications team helped us develop) for the Miami, DMV, and NY market to promote the webinar, along with sharing it in the CPGI digest e-newsletter.</t>
+  </si>
+  <si>
+    <t>Precision medicine is an emerging/growing topic of interest for PAs. It will be beneficial to home in on this theme/focal point of the All of Us Research Program in communications campaigns/tactics geared towards healthcare providers.</t>
+  </si>
+  <si>
+    <t>It is great to see growing interest in the program and requests for follow-up meetings, like the presentation provided to the Yakima Community Health Coalition.</t>
+  </si>
+  <si>
+    <t>This month, we learned that while our Facebook social media posts have good reach we need to increase our reach for Twitter.</t>
+  </si>
+  <si>
+    <t>We are making sure each person that attends our events scan the QR Code.</t>
+  </si>
+  <si>
+    <t>There had been some confusion last month when submitting the social media and monthly reports through Network Ninja 2.0.  During the month of May, LULAC’s Health Programs Coordinator learned how to use Network Ninja 2.0. The Programs Coordinator had a quick training session with LULAC’s engagement counselor, Rima Matsumoto on how to use the new platform.</t>
+  </si>
+  <si>
+    <t>Lessons learned this month is to plan ahead and always stay in contact with collaborating partners.  Additionally, to make sure that everyone is on the same page ahead well ahead of upcoming events.</t>
+  </si>
+  <si>
+    <t>In regards to this project, NHMA has learned to be more deliberate when planning to attend either in person conferences or finding spokespeople for the campaign. We learned that the program is looking for more trained spokespeople to get into media this upcoming cycle. NHMA will work with our chapters to identify interested spokespersons to train and work with the program to secure media placements and other local opportunities.</t>
+  </si>
+  <si>
+    <t>A lesson that we learned this month is not to over extend ourselves. This is usually the busiest time of year for us as an organization and we really learned that with everything that we are wanting to accomplish within the organization and with the program we need more hands on deck because we were very much at our organizations capacity this month.</t>
+  </si>
+  <si>
+    <t>Still virtual and unable to change to live conference with hybrid event planned for the Precision Health Symposium on 4/25/22. Two weeks prior we only had #26 registered with only #6 for in-person of hybrid option. 
+We immediately marketed all virtual for free, since did not have venue expenses and AoU grant SoW budget could underwrite and ended up with #90 attending. The hybrid event registration fee was a minimal $25 and being free made a significant difference for healthcare providers taking time to attend.</t>
   </si>
   <si>
     <t>•	Trust in clinical research
 •	History of similar projects</t>
   </si>
   <si>
+    <t>We have not yet heard about barriers from our community members, but we are going to deploy a follow-up survey in May to find out more about experiences with the Research Hub.</t>
+  </si>
+  <si>
+    <t>Twitter will not allow bitly links</t>
+  </si>
+  <si>
+    <t>Outreach to additional churches to take advantage of the technology classes.</t>
+  </si>
+  <si>
+    <t>NRHA continues to discuss the geographic and socioeconomic barriers individuals who live in rural areas face when attempting to participate in research such as the All of Us Research Program. NRHA has appreciated being able to discuss this with the Arizona HPO (Health Care Provider Organization), the Colorado Rural Health Center, and both groups’ engagement counselors. NRHA has discussed with the Comms team and the East Texas AHEC Waco about the best ways to share information with interested individuals specific to their geographic area at the AoU exhibit at NRHA’s Annual Conference and in general.</t>
+  </si>
+  <si>
+    <t>CAB members expressed  possible concerns about community members having access to transportation and limitations with smart devices for enrollment.</t>
+  </si>
+  <si>
+    <t>The greatest barrier to participation this month was for our AoU Student Ambassadors. Our student Ambassadors are currently at the end of the academic year which is a very heavy exam and finals time for students and faculty alike. this has made it more difficult for the Ambassadors to set up meeting times with faculty members to discuss AoU and how to get involved as a researcher. It has also been more difficult for Ambassadors to get into the classroom to talk with students and young researchers due to exams and limited class time.</t>
+  </si>
+  <si>
+    <t>There are no trusted enrollment partners in the targeted communities.</t>
+  </si>
+  <si>
+    <t>none expressed</t>
+  </si>
+  <si>
+    <t>Access to enrollment locations in public places and a general understanding of the enrollment process.</t>
+  </si>
+  <si>
+    <t>- Transportation
+- Technology
+- Financial Needs</t>
+  </si>
+  <si>
     <t>There were very few barriers to participation this month. With steadfast efforts through social media posts and planning following events to come, goals were maintained. April also was the month of Ramadan, a period of fasting for many of the community members here. Members of all 3 collaborators observed Ramadan and strategized to host food-related events after its conclusion. Our community members spent the month focused on Ramadan, thus post-Ramadan is a season of renewed energy and joy. We hope to utilize this morale well in the upcoming month.
  As varying organizations transition and begin to assess a return to in-person events, we are also testing our comfort levels. There is interest and hope to bring our community members together, especially as warmer weather allows ease of gathering outside. We would like to be respectful of community members, and further build community amongst Access and our collaborators within the Metro-Detroit area. As Covid-19 begins to wane, we hope to reach our community members where they are.</t>
   </si>
   <si>
-    <t>The greatest barrier to participation this month was for our AoU Student Ambassadors. Our student Ambassadors are currently at the end of the academic year which is a very heavy exam and finals time for students and faculty alike. this has made it more difficult for the Ambassadors to set up meeting times with faculty members to discuss AoU and how to get involved as a researcher. It has also been more difficult for Ambassadors to get into the classroom to talk with students and young researchers due to exams and limited class time.</t>
-  </si>
-  <si>
-    <t>Twitter will not allow bitly links</t>
-  </si>
-  <si>
     <t>Most attendees are concerned about what will happen to their DNA (specimen) and medical records once the All of Us Research Program is no longer.</t>
   </si>
   <si>
-    <t>There are no trusted enrollment partners in the targeted communities.</t>
+    <t>Need in-person pop-up enrollment activities to provide access to taking DNA specimens.</t>
+  </si>
+  <si>
+    <t>to have the process close to they live</t>
   </si>
   <si>
     <t>We have not identified any barriers to participation, in fact, we have seen an increase in participation. We believe we have been able to increase our promotion and education for the All of Us Research Program through our student ambassadors' activities and also offering hybrid attendance options when possible for activities.</t>
   </si>
   <si>
-    <t>NRHA continues to discuss the geographic and socioeconomic barriers individuals who live in rural areas face when attempting to participate in research such as the All of Us Research Program. NRHA has appreciated being able to discuss this with the Arizona HPO (Health Care Provider Organization), the Colorado Rural Health Center, and both groups’ engagement counselors. NRHA has discussed with the Comms team and the East Texas AHEC Waco about the best ways to share information with interested individuals specific to their geographic area at the AoU exhibit at NRHA’s Annual Conference and in general.</t>
-  </si>
-  <si>
-    <t>CAB members expressed  possible concerns about community members having access to transportation and limitations with smart devices for enrollment.</t>
-  </si>
-  <si>
     <t>Due to the ongoing pandemic, we are conducting most of our events in a virtual setting. When we do conduct in-person events (e.g., bingo game) we make it a contactless experience. Meanwhile, we have been active on social media and doing virtual activities to promote the program and enrollment.</t>
   </si>
   <si>
     <t>Barriers to participation including a distrust in providing personal health information continued to be expressed this month. Additionally, challenges with access to technology and digital literacy continued to be a barrier to participation among older adults, including individuals not having an email address required to sign up.</t>
   </si>
   <si>
+    <t>Institutional trust</t>
+  </si>
+  <si>
+    <t>The availability of the electronic technology including appropriate hardware to the populace in order to communicate with the All of Us webpage.</t>
+  </si>
+  <si>
+    <t>Lack of relatable community figures who have completed enrollment in programs and share their experiences.</t>
+  </si>
+  <si>
+    <t>The main challenge is capacity at this time.  However, the AHEC is actively working to address this issue.</t>
+  </si>
+  <si>
+    <t>Access to network, lack of network knowledge</t>
+  </si>
+  <si>
+    <t>Allocate a one week of planning  enrollment activities each month.  Create marketing plan to for new collaborators to extend outreach.</t>
+  </si>
+  <si>
+    <t>Our current student ambassadors have been asking if THEARI will host student ambassadors again. This is a barrier to participation because THEARI will be unable to serve as the host for future All of Us student ambassadors but believes in the power of student engagement in this program. Finding an organization that would take on our SAP would benefit not only said organization, but the All of Us Research Program and the students as well.
+Additional barriers to participation exist with our newly established partnership with Banner Health. We'd like to find another community partner that is interested in working closely with Banner Health.
+Abigail will take the initiative and connect with organizations that we believe are potential good fits for some of our program components. Guidance on what we are allowed to share with other community partners would be appreciated as we care about our programs and want to re-home them if possible.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>inability to track how many webinar attendees were able to  register to the Workbench.</t>
+  </si>
+  <si>
+    <t>NRHA continues to discuss the geographic and socioeconomic barriers individuals who live in rural areas face when attempting to participate in research such as the All of Us Research Program. NRHA has appreciated being able to discuss this with the Arizona HPO (Health Care Provider Organization), the Colorado Rural Health Center, and both groups’ engagement counselors. NRHA has discussed with the Comms team and the East Texas AHEC Waco about the best ways to share information with interested individuals specific to their geographic area at the AoU exhibit at NRHA’s Annual Conference and in general. 
+NRHA has begun to discuss more with our “Rural Research Influencer” Dr. Kevin Bennett on the barriers to participation and ease of access to data by rural researchers working on the All of Us Research Program workbench.</t>
+  </si>
+  <si>
+    <t>Still need in-person pop-up enrollment activities to provide access to taking DNA specimens. We are working with Pennington Engagement specialist to start popups at next wellness Wednesday.</t>
+  </si>
+  <si>
+    <t>Confidentiality of medical records and DNA specimens.</t>
+  </si>
+  <si>
+    <t>At this time we are not having a huge considerable barrier to participation.  Citizens are gradually coming out to face to face events.</t>
+  </si>
+  <si>
+    <t>Our greatest barrier to participation is wanting to expand certain programming into more of our service region but not having the personnel to do so. We are hoping to address this in the next funding cycle looking to bring on additional staff to expand certain programming.</t>
+  </si>
+  <si>
+    <t>Time of event after work - not in person</t>
+  </si>
+  <si>
+    <t>Our best resonating message has been the importance of precision medicine and the need to have more minority physicians in the field</t>
+  </si>
+  <si>
     <t>We need to continue providing this information to the Black community</t>
   </si>
   <si>
-    <t>Our best resonating message has been the importance of precision medicine and the need to have more minority physicians in the field</t>
-  </si>
-  <si>
-    <t>The All of Us Research Program seeks to have a diverse database so that drugs and medicines can be developed using research compiled from people of all backgrounds.</t>
+    <t>4/25/22 National DNA Day and relevance to precision health. Health career students and minority researcher representation and model programs with AoU MSRS and student ambassador roles. We continue to keep a variety of the AoU program messaging strong in social media and in collaborative discussions as relevant to different target audiences with topics for Women’s Health month and highlighting awareness using the AoU marketing toolkits for the Journey event locally and AoU MSRS &amp; Science Day programs this month in March.</t>
   </si>
   <si>
     <t>•	All of Us is a National Institute of Health-endorsed project that will benefit people of color.  
 •	We encourage all to go to the project website and complete personal research</t>
   </si>
   <si>
+    <t>The All of Us Research Program seeks to have a diverse database so that drugs and medicines can be developed using research compiled from people of all backgrounds.</t>
+  </si>
+  <si>
     <t>Mixing up of message delivery is the most productive as doing this catches the eye of different people so now they begin asking questions (carrot &amp; stick approach)</t>
   </si>
   <si>
-    <t>This was an appreciative month as it was Arab American Heritage Month. The ability to highlight Arab American contributions and key researchers was honorable. We are also using Network Ninja 2.0 more and become familiar with its interface. Being able to use this consortium and identify similar events occurring around the nation helps realize the impact and reach of our combined efforts.</t>
+    <t>Registrations for the webinar spiked following the AAFP news story.</t>
+  </si>
+  <si>
+    <t>Attendees were very interested in the class.</t>
+  </si>
+  <si>
+    <t>Working with trusted community partners like providers, potentially other health professional preceptors, or other groups already located within the community is a wonderful way to encourage engagement and enrollment.</t>
   </si>
   <si>
     <t>The best resonating message this month is that even through difficulty in collaboration, we are all still working in the same direction with the same goal. To provide more equitable research and health care to those that live in the United States and those who have been historically underrepresented in care or mistreated in care and research. So we acknowledge that while there are bumps in the road for us as organizations we will continue to push forward for all voices to be heard.</t>
-  </si>
-  <si>
-    <t>We encourage participation in the All of Us Research program by hosting in-person events and collaborating with partners throughout the city and in-house at Southern University at Shreveport.</t>
   </si>
   <si>
     <t>People wanted to better understand the role of environment on health. 
@@ -793,26 +1753,128 @@
 Collaborations increases impact.</t>
   </si>
   <si>
+    <t>During this month, the concept of DNA awareness continues to generate more understanding and awareness about the program.
+We look forward to continuing this work toward moving our market from awareness to participation.</t>
+  </si>
+  <si>
+    <t>All of Us Research Program has:
+- Strict internal policies and procedures to prevent misuse of data.
+- Good benefits of taking part in the research.
+- Mechanisms to follow all federal, state, and local laws and regulations for keeping information safe.</t>
+  </si>
+  <si>
+    <t>This was an appreciative month as it was Arab American Heritage Month. The ability to highlight Arab American contributions and key researchers was honorable. We are also using Network Ninja 2.0 more and become familiar with its interface. Being able to use this consortium and identify similar events occurring around the nation helps realize the impact and reach of our combined efforts.</t>
+  </si>
+  <si>
+    <t>A large portion of this month was spent planning our society's first in person event since COVID, scheduled for 5/1. The event is currently estimated to be about 750 people in attendance. At a high level the event is an auditorium-based program, several hours in duration, and then followed by a community wide dinner. The event will be at Paint Branch High School.</t>
+  </si>
+  <si>
+    <t>We encourage participation in the All of Us Research program by hosting in-person events and collaborating with partners throughout the city and in-house at Southern University at Shreveport.</t>
+  </si>
+  <si>
+    <t>Food share and Healthy Kids' Day tabling. Messages continue to drive audience to URL by sharing information about precision medicine.</t>
+  </si>
+  <si>
+    <t>the community is very receptive and ready to enroll.</t>
+  </si>
+  <si>
     <t>Best resonating messages came out of Ciauna's activity on April 8th. Her audience had great questions about the All of Us Research Program, including: Is there data available for the Native American population? How rigorous is the genomic testing in All of Us? Who controls the data from fitness devices? Does the participant submit the data to NIH, or does it get sent from the company (e.g. Apple) to NIH? These questions have been addressed by Pyxis Partners and highlight the importance of us as a CPGI partner being able to admit when we do not have the answers but seek them out for interested participants in the program.</t>
   </si>
   <si>
-    <t>Working with trusted community partners like providers, potentially other health professional preceptors, or other groups already located within the community is a wonderful way to encourage engagement and enrollment.</t>
+    <t>Throughout the month, LAMDA reported that their participants are excited about the advancement in medicine for the Hispanic community. They want this program to succeed in achieving personalized medicines and prevention specifically for future generations. One woman shared that she has arthritis and hopes that this program will allow her daughter to know if she is predisposed to her condition. Other resonating messages included learning more about DNA and genetics, disease prevention, and learning risk factors for diseases.</t>
+  </si>
+  <si>
+    <t>- appreciation that the program is making an intentional effort to be inclusive
+- need for more attention in research in Black maternal mortality
+- the importance of initiating health and wellness conversations early in life</t>
+  </si>
+  <si>
+    <t>Return of genetic data</t>
   </si>
   <si>
     <t>An article and series of social media posts highlighting a PA who works in genetic medicine generated high levels of engagement. Genetic medicine is a lesser-know/less common practice area for PAs, and seemed to spark interest among our audience. We tied All of Us messaging into the article to provide an overview of the program and encourage PAs interested in genetics to consider getting involved, including on the research side.</t>
   </si>
   <si>
-    <t>Throughout the month, LAMDA reported that their participants are excited about the advancement in medicine for the Hispanic community. They want this program to succeed in achieving personalized medicines and prevention specifically for future generations. One woman shared that she has arthritis and hopes that this program will allow her daughter to know if she is predisposed to her condition. Other resonating messages included learning more about DNA and genetics, disease prevention, and learning risk factors for diseases.</t>
+    <t>We received results from Pyxis Partners from our All of Us booth at the Free Admission/Health Fair event held at Sci-Port on 3/12/22. This event had strong results from link clicks, pre- and post-survey responses, and even enrollment.</t>
+  </si>
+  <si>
+    <t>Individualized healthcare opportunities</t>
+  </si>
+  <si>
+    <t>Thus far, the AHECWW is finding that participant engagement best-resonating messages are about opportunities to engage in research.  This makes sense, as AHECs primarily work with students and health professionals who are passionate about service to underserved communities and improving healthcare for these populations.</t>
+  </si>
+  <si>
+    <t>•	All of Us is a National Institute of Health-endorsed project that will benefit people of color.</t>
+  </si>
+  <si>
+    <t>It Takes Courage to ask for Help</t>
+  </si>
+  <si>
+    <t>Based on the SGRHO “Saying Yes to Self Care” the overarching sentiment is they 77% have a better understanding of the All of Us Research Program.</t>
+  </si>
+  <si>
+    <t>•	It is important to not only get people interested but to get people engaged enough to go to the website and learn more about the program and how to sign up.</t>
+  </si>
+  <si>
+    <t>AKA continues to promote the “This is Our Shot” as it relates to COVID-19 and vaccinations and boosters in partnership with Walgreens.</t>
+  </si>
+  <si>
+    <t>Continue to offer community outreach activities, in person, at Dillard University and extend to local churches.</t>
+  </si>
+  <si>
+    <t>Topics for AAPI month and highlighting awareness using the AoU marketing.</t>
+  </si>
+  <si>
+    <t>One of the best resonating messages include the kudos provided by Julia during the monthly 1:1 check-in. Lin shared this with the THEARI team, highlighting Abigail's dedication to the All of Us Research Program.
+Additional positive messaging came from THEARI Board of Directors and staff as well as Banner Health staff that tabled at the Denver Colfax Marathon:
+"The event was definitely a success, and we reached out to many people! Dr. Michael Bradfield &amp; Kaylee Hambek from Banner Health were absolutely fantastic and very experienced. Kaylee was in front of the booth, engaging people coming by, and many people trusted in Dr. Bradfield since he was a physician providing insight into personalized medicine."
+"Our table was positioned between several other pretty high profile tables, making it easy to chat with people, and I was impressed by how many people where genuinely interested once they started hearing about the AoU opportunity."</t>
+  </si>
+  <si>
+    <t>share your story on the Kiosk in the YMCA lobby</t>
+  </si>
+  <si>
+    <t>Another excellent year for NAHN and All of Us.</t>
+  </si>
+  <si>
+    <t>Working with trusted community partners like providers, potentially other health professional preceptors, or other groups already located within the community is a wonderful way to encourage engagement and enrollment.
+Dr. Watson’s audience during the Terry Reilly Keynote Lecture especially appreciated the messaging describing opening the communication lines even further between rural communities and providers with the Program through NRHA. Dr. Watson encouraged lecture participants to connect with NRHA to find All of Us partners in their near area.</t>
+  </si>
+  <si>
+    <t>Our subgrantees have completed their activities and did not hold any All of Us Research Program events or social media this month. UnidosUS continued to run both organic posts and paid ads on Facebook and Instagram with the greatest reach and engagement on paid ads in Spanish.</t>
+  </si>
+  <si>
+    <t>A message/topic that resonated with our audience this month was the importance of genetics and precision medicine in PA practice (highlighted through our PA student event). Social media posts highlighting AAPI Heritage Month and Mental Health Awareness Month also generated engagement.</t>
+  </si>
+  <si>
+    <t>This month, with AHECWW tasks delivered - access to the research workbench and ways for provider networks to partner was a theme in our work.</t>
+  </si>
+  <si>
+    <t>Among our participants the best message has been about precision medicine. One African American male participant said that he liked that the program is focusing on all backgrounds.</t>
+  </si>
+  <si>
+    <t>Hopefully in the near future better medications will be available that are specifically for people of color.</t>
+  </si>
+  <si>
+    <t>Best resonating message is, "I didn't know this program existed but I'm glad to know it now," stated by one of the participates.</t>
+  </si>
+  <si>
+    <t>The little guy matters is the best resonating message for Waco AHEC this month. As a small organization we have realized that we have a great reach and want to continue to grow in our service region and with the program. This was also emphasized for us at NRHA where we were able to discuss our role in the program with other smaller scale organizations. We were also able to leverage our AHEC networks at NRHA, and while we might be small that network is mighty and many AHECs present want to see how they can work with Waco AHEC to help our programming with AoU.</t>
   </si>
   <si>
     <t>No concerns expressed</t>
+  </si>
+  <si>
+    <t>Coordinating efforts of three CPGI partners for AHEC Grantee Collaborative programming for a live webinar with seven presenters in partnership with external partner for National AHEC Organization to have best fit content for target audience balance and equity in representing all participating partners.
+Same as barriers and challenges</t>
   </si>
   <si>
     <t>•	Personal information exposed
 •	Remnants of the Tuskegee Project and the dangers thereof</t>
   </si>
   <si>
-    <t>The greatest concern this month included communication with collaborators while planning for the National AHEC Organization All of Us Webinar.</t>
+    <t>The questions from webinar attendees posed during indicated that people see value in the platform and are interested in how it may help them in their research.
+This question was received via email after the webinar from a participant: [Could the All of Us platform] be used to inform people regarding ongoing clinical trials?</t>
   </si>
   <si>
     <t>Subawardess report insufficient assets, engageable content and graphics for engagement of new participants or rentention of LGBTQ participants. 
@@ -827,35 +1889,95 @@
 Have subawardees submit detailed requests of who and what we want to see in new assets, disability communities included, as many details as we can imagine, representation of subcommunities within our communities, the current lack of diversity for some identities in current assets represented borderline tokenism</t>
   </si>
   <si>
+    <t>There are challenges that we hope to explore in Cycle 4: When working with trusted community partners like providers or other groups, what type of information do they need to feel comfortable sharing about the importance of enrollment in the AoU Program? What would make a provider recommend this program to a patient? How can NRHA assist in coordinating these types of discussions between rural providers and the Program? How can NRHA better identify UBR groups within rural (I.e., someone who is a person of color living in rural America or an LGBTQ+ person living in rural America), essentially how do we take into better account the intersectional identities of people that cause them to be further underrepresented in biomedical precision research?</t>
+  </si>
+  <si>
+    <t>During our discussion with the LA-CEAL CAB, board members were receptive to our invitation to have a "live" experience of their own to share with community members who may consider engaging and possibly enrolling in the AoURP as a way to facilitate trust in the enrollment process. The concern expressed was one of being authentic about engaging the community without appearing out of touch with the community.</t>
+  </si>
+  <si>
+    <t>The greatest concern this month included communication with collaborators while planning for the National AHEC Organization All of Us Webinar.</t>
+  </si>
+  <si>
     <t>People asked about security of data.  There are no trusted enrollment partners in the targeted communities.</t>
   </si>
   <si>
-    <t>There are challenges that we hope to explore in Cycle 4: When working with trusted community partners like providers or other groups, what type of information do they need to feel comfortable sharing about the importance of enrollment in the AoU Program? What would make a provider recommend this program to a patient? How can NRHA assist in coordinating these types of discussions between rural providers and the Program? How can NRHA better identify UBR groups within rural (I.e., someone who is a person of color living in rural America or an LGBTQ+ person living in rural America), essentially how do we take into better account the intersectional identities of people that cause them to be further underrepresented in biomedical precision research?</t>
-  </si>
-  <si>
-    <t>During our discussion with the LA-CEAL CAB, board members were receptive to our invitation to have a "live" experience of their own to share with community members who may consider engaging and possibly enrolling in the AoURP as a way to facilitate trust in the enrollment process. The concern expressed was one of being authentic about engaging the community without appearing out of touch with the community.</t>
+    <t>None this month</t>
+  </si>
+  <si>
+    <t>In general, concerns around safety and data security continue to surface.</t>
+  </si>
+  <si>
+    <t>- Confidentiality
+- Privacy
+- Length of time to enroll</t>
+  </si>
+  <si>
+    <t>yes, if they can do it the same day they enroll and give the blood.</t>
   </si>
   <si>
     <t>LAMDA reported that event attendees expressed concern when providing health information that they could receive a false diagnoses of a health condition.</t>
   </si>
   <si>
+    <t>- not having Black researchers already in place that Black families can sign up with to do research</t>
+  </si>
+  <si>
+    <t>Trust of NIH</t>
+  </si>
+  <si>
+    <t>The only common concern that we have come across is the availability of internet and the appropriate hardware in order to access the All of Us website for the later steps for enrollment.</t>
+  </si>
+  <si>
+    <t>Overall community tone shows interest in learning more about available opportunities, but there is hesitation in being unable to directly connect program's benefits with community members they identify with.</t>
+  </si>
+  <si>
+    <t>Center capacity has been a challenge this year.  It was expected that center staff would need to be flexible to delivery of media work on virtual and in-person events.  However, the challenges of staffing and hiring during the pandemic were new with many organizations in the AHEC network impacted by the great resignation.  This had internal implications, but also impacted AHEC external partners and contacts. 
+The AHEC hired two more part-time hourly staff in March and spent time onboarding and training during the month of April.  This was challenging to administer during our planned travel months for the All of Us Program, but also a positive for the center. Lesly Pumay was added to the All of Us program grant work at the center to support social media work. She is graduating this year with a BFA in Design from Cornish College of Arts.  The AHECWW working diligently to launch a social media campaign as a part of our All of Us grant before the close of the fiscal year. 
+The center also interviewed candidates and hired one new full-time position to start in May. These efforts will significantly improve center capacity across grant work. The AHECWW continues to push forward identifying strategies to maintain and deliver grant tasks to the best of staff ability and capacity, while addressing any deficiencies</t>
+  </si>
+  <si>
+    <t>•	Personal information exposed</t>
+  </si>
+  <si>
+    <t>Image and outlook</t>
+  </si>
+  <si>
+    <t>•	Older (Baby Boomers) Black and Brown people are still a little leery about participating in Medical Research.
+•	People are asking if they participate and decide that they want their information back how will they be sure that they’ll get it ALL back</t>
+  </si>
+  <si>
+    <t>just concerns with technology /tablets</t>
+  </si>
+  <si>
+    <t>Getting proposal processed.</t>
+  </si>
+  <si>
+    <t>We held 2 webinars instead of 3 because the webinars were sufficient enough. We weren't sure how to track if anybody on the webinars are actually using it because they could go through their organization too.</t>
+  </si>
+  <si>
+    <t>A NRHA member expressed concern with the context of a AoU social media message NRHA posted on our Facebook page. The particular post is listed here: "LGBTQ+ individuals are 2.5 times more likely to experience depression, anxiety, and substance misuse compared to heterosexual individuals. The @AllofUsResearch Program is looking to uncover answers to disparities like this by increasing representation in research. When you #JoinAllofUs, you can help researchers find out these important answers. Get started at joinallofus.org/together #MHAM" 
+The NRHA member’s comment focused on that there are “real and dangerous social conditions that can influence depression, anxiety, etc.” but that “the premise of All of Us is that genetics are the answer to everything.” 
+NRHA resolved their concern by taking down the post and replying directly to our member about the Programs work on surveying for social determinants of health and included language such as, "All of Us Research Program does not just look at genetic material for their datasets and precision medicine initiative.  They have social determinants of health surveys and other types of qualitative research to address/better understand non-genetic factors to an individual’s health." and "As always, NRHA aims to work with partners such as All of Us to better understand the connection between mental and physical health and increase the representation of underserved populations in health research. That was our goal with this post, though we would be happy to discuss any additional concerns via messenger. Thanks for your feedback and for being such a valuable rural health advocate!" 
+NRHA staff will talk with our engagement counselor and comms lead during our Thursday meeting more about this comment. This is a good reminder that NRHA has more opportunity to get the full message of the full scope of the Program out to our researchers and members. 
+The NRHA member expressed in their comment on the post that they understood the Program to strictly define disparities through genetics. Because of this understanding, they believed that NRHA and All of Us were ignoring the social determinants of health that may contribute to the increased levels of anxiety, depression, and substance misuse in LGBTQ+ populations, as compared to heterosexual populations. 
+NRHA resolved their concern by taking down the post and replying directly to our member about the Programs work on surveying for social determinants of health and included language such as, "All of Us Research Program does not just look at genetic material for their datasets and precision medicine initiative.  They have social determinants of health surveys and other types of qualitative research to address/better understand non-genetic factors to an individual’s health." and "As always, NRHA aims to work with partners such as All of Us to better understand the connection between mental and physical health and increase the representation of underserved populations in health research. That was our goal with this post, though we would be happy to discuss any additional concerns via messenger. Thanks for your feedback and for being such a valuable rural health advocate!"</t>
+  </si>
+  <si>
+    <t>Most do not want their DNA to become experimentation like the Tuskegee Project which will result in negativity for Blacks/African Americans.</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>Governance activities this month included the completion of the current strategy and upcoming engagement strategy document needed for the next funding cycle.  As a team, we participated in the DNA day twitter feed with other CPGI partners in our regional market.  We have been reviewing our plans as a basis to begin discussions about upcoming cycle and potential programs to continue the success we have had with the engagement of students. We continue to meet with our engagement counselor on a regular basis and seek partnerships with other CPGI members to expand our presence.</t>
+  </si>
+  <si>
     <t>This month we participated in all BGLC Meetings. We participated in our weekly planning meetings for NPHC. We participated in and supported events hosted by other BGLC organizations. We reviewed the CPGI New Cycle Planning packet, where we noted with interest that Chicago is on the list of market cities. Finally, we engaged with an HPO in a discussion about the participant experience specifically as it relates to the Social Determinants of Health Survey. This conversation was held by a team member is a participant with the HPO where they are signed up.</t>
   </si>
   <si>
     <t>This month we worked on the strategy document and met with each of the 10 groups to get their feedback on what moving forward would look like for them..  We were also in the midst of completing the planning for RIR in Atlanta as well as the implementation of the tour.  I met with a number of potential partners for the next phase about what partnership will look like moving forward.</t>
   </si>
   <si>
-    <t>Governance activities this month included the completion of the current strategy and upcoming engagement strategy document needed for the next funding cycle.  As a team, we participated in the DNA day twitter feed with other CPGI partners in our regional market.  We have been reviewing our plans as a basis to begin discussions about upcoming cycle and potential programs to continue the success we have had with the engagement of students. We continue to meet with our engagement counselor on a regular basis and seek partnerships with other CPGI members to expand our presence.</t>
-  </si>
-  <si>
-    <t>AKA is continuing to work on Pop Up Health Events at our (9) 2022 Regional Conferences. We have also started to work on our All of Us programming for our Boule in Orlando, FL.  All of Us information will be distributed for engagement, and we will partner with an enrollment organization to join the event. 
-The AKA team has continued to support our All of Us partner events. In the month of April, we attended the BGLC meetings, completed and submitted our AKA Strategy document, received, and read any Partner and BGLC e-mails. We have ensured we have acted on any action items requested. 
-AKA participated and volunteered for the RIR Atlanta weekend of events.</t>
-  </si>
-  <si>
-    <t>●	Sigma Gamma Rho’s social media campaign has provided a consistent presence of promotion of the program on all of our social media channels.  As we continue to collect “health stories” from members of the organization, and also publicize All of Us on social media, we are anticipating an increase in followers and thereby reaching more people with our messages. We also began promoting our May Self Care Mental Health - All of Us webinar that will be coming up in May.
-●	Our Atlanta team assisted with the Rooted in Resilience Tour this month, which helped to gain greater visibility in that market, as well as to strengthen community partnerships which we hope will lead to future events. Each tour stop includes three components: education with an HBCU, community, and faith partners. Details about the three events are available at www.rootedinresilience.com. The flyer for this month’s event is also attached.
-●	We continue to brainstorm how to leverage the partnerships and resources we are learning about to the benefit of getting the word out about All of us, and we continue to fine-tune the plans within the Scope of Work to ensure ease and readiness of execution at the appropriate time.</t>
+    <t>National AHEC webinar with AHEC grantee partners was a success on 4/20/22 with more than a half dozen presenters and inclusive panel discussion from each group and DRC representation/updates with strong NAO membership and partner turnout of #26 states represented. GAHEC led this initiative for the program group. The 2nd Annual Precision Health Institute was a full day conference of multidiscipline across all of NC with physicians, pharmacists, genetic counselors, nurses, and many other healthcare providers. Leading edge genomics and genetics practice advancements were presented by 15 speaker faculty offered for free through the GAHEC grant.</t>
   </si>
   <si>
     <t>Phi Beta Sigma Fraternity continued to use best practice platforms and material resources to engage our members and other segments of the target audience to create awareness of all health-related issues facing the community, specifically the All of Us research project.</t>
@@ -870,10 +1992,20 @@
     <t>The coordinator and co-coordinator attended all weekly BGLC calls and met to discuss the program’s five-year plan and where we see us fitting in if invited back for phase 8. The social media lead ensured all posts were scheduled and attended the social media team's weekly calls. The Coordinator worked the BGLC’s Rooted in Resilience DMV Tour on March 25th. The Co-coordinator attended the monthly target call for New York and Boston. Coordinators met to complete engagement strategy documents and met with BGLC Team Lead to review engagement strategy documents. Coordinators began 2022-2023 cycle event planning.</t>
   </si>
   <si>
+    <t>We attended all weekly meetings as well as the Local Atlanta NIH Meeting. We held briefing sessions to discuss our upcoming events as well as worked with our Social Media team to circulate All of Us information. We met with potential sponsors for the upcoming tour along with discussing potential ideas that may help with the Rooted in Resilience tour itself. Sent out various communication to our internal membership as well as our monthly newsletter on Health-related issues focusing as well on the program and the importance of clinical studies. Also encouraged our individual members to start to consider more people facing events by following the CDC guideline locally. Assisted with the Rooted and Resilience core planning by doing a site visit in Atlanta and walking the location. Ordered necessary needed items like the tent, tables, and chairs from one of the local vendors. Received assets from previous locations to store for the event along with assisting with the transport of the items to the events. Worked the Rooted in Resilience events on Friday and Saturday as well as met with individual vendors for the on-site community event. Assisted with the on-site logistics along with the setup and breakdown process. Communicated with the vendors for transport of items like staging, tents, port potties, etc as well as pick up of those items after the event ended.</t>
+  </si>
+  <si>
+    <t>●	Sigma Gamma Rho’s social media campaign has provided a consistent presence of promotion of the program on all of our social media channels.  As we continue to collect “health stories” from members of the organization, and also publicize All of Us on social media, we are anticipating an increase in followers and thereby reaching more people with our messages. We also began promoting our May Self Care Mental Health - All of Us webinar that will be coming up in May.
+●	Our Atlanta team assisted with the Rooted in Resilience Tour this month, which helped to gain greater visibility in that market, as well as to strengthen community partnerships which we hope will lead to future events. Each tour stop includes three components: education with an HBCU, community, and faith partners. Details about the three events are available at www.rootedinresilience.com. The flyer for this month’s event is also attached.
+●	We continue to brainstorm how to leverage the partnerships and resources we are learning about to the benefit of getting the word out about All of us, and we continue to fine-tune the plans within the Scope of Work to ensure ease and readiness of execution at the appropriate time.</t>
+  </si>
+  <si>
     <t>Our team has been very busy this month in supporting the other BGLC programs, attending the CPGI Trainings and Webinars and preparing for the Atlanta Rooted In Resilience Tour.  Also, we have been very busy working on our strategy and planning for the next phase of the All of Us Research Program and Black Greek Letter Consortium.</t>
   </si>
   <si>
-    <t>We attended all weekly meetings as well as the Local Atlanta NIH Meeting. We held briefing sessions to discuss our upcoming events as well as worked with our Social Media team to circulate All of Us information. We met with potential sponsors for the upcoming tour along with discussing potential ideas that may help with the Rooted in Resilience tour itself. Sent out various communication to our internal membership as well as our monthly newsletter on Health-related issues focusing as well on the program and the importance of clinical studies. Also encouraged our individual members to start to consider more people facing events by following the CDC guideline locally. Assisted with the Rooted and Resilience core planning by doing a site visit in Atlanta and walking the location. Ordered necessary needed items like the tent, tables, and chairs from one of the local vendors. Received assets from previous locations to store for the event along with assisting with the transport of the items to the events. Worked the Rooted in Resilience events on Friday and Saturday as well as met with individual vendors for the on-site community event. Assisted with the on-site logistics along with the setup and breakdown process. Communicated with the vendors for transport of items like staging, tents, port potties, etc as well as pick up of those items after the event ended.</t>
+    <t>AKA is continuing to work on Pop Up Health Events at our (9) 2022 Regional Conferences. We have also started to work on our All of Us programming for our Boule in Orlando, FL.  All of Us information will be distributed for engagement, and we will partner with an enrollment organization to join the event. 
+The AKA team has continued to support our All of Us partner events. In the month of April, we attended the BGLC meetings, completed and submitted our AKA Strategy document, received, and read any Partner and BGLC e-mails. We have ensured we have acted on any action items requested. 
+AKA participated and volunteered for the RIR Atlanta weekend of events.</t>
   </si>
   <si>
     <t>For this month of April, the brothers of Iota Phi Theta Fraternity, Inc. have set in motion plans to create a program for the month of June focusing on Men &amp; Their Health.  We also met with the BGLC leadership about our next proposed phase of activities.  The focus we have in mind, after reading the 5-year mission of the program, is on Gerontology and our Elder population.  The reasoning behind this is that we have a lot of older brothers in our fraternity (one more living Founder) and it’s time we begin to talk about being there for them during this time of need.  Thinking of this makes it even more important that we educate the public about the importance of Precision Medicine and taking care of our loved ones in their Golden Years.  As of right now, the cities we are targeting for in-person launches are Houston, Denver, and Detroit.</t>
@@ -882,11 +2014,52 @@
     <t>Kattia and I attended all EC check in calls, we had internal meetings with our Nutrition team to plan for the June cooking event, we continue to coordinate with Mercedita's team and our leaders at the Arvada YMCA to plan for install and training for the Kiosk. Kattia and I have weekly check in calls to discuss All of Us work.</t>
   </si>
   <si>
-    <t>Network Ninja 2.0 Training
-Weekly meetings with Henry Ford Health
-Weekly meetings with Henry Ford Health &amp; Public Health Society (PHS)
-Introductory Meeting with new PHS Leadership 
-Social media campaign</t>
+    <t>On April 6, 2022, NHMA's core project team, including President &amp; CEO, Dr. Elena Rios, met with our EC to discuss the engagement strategy document. During the call, we discussed best practices for submissions, collaborations with local HPO's in the DMV, and tracking researcher and participant engagement using coded target market links.
+On April 12 and April 19, 2022, NHMA was present for the New York Target Market Call and the DMV Target Market Call. NHMA shared our recent conference and our upcoming Cinco de Mayo event on the DMV Call. NHMA and Mary's Center connected via email after the call for potential partnerships. The organizations will be meeting during the week of May 2nd. NHMA invited our EC to the call.
+On April 20, 2022, NHMA staff met with our EC and Jakara Eason to discuss the possibility of hosting an event in our new office space in June. Planning has  begun and NHMA is meeting internally to decide on a date for the provider roundtable. NHMA plans to have Dr. Elena Rios participate as a speaker and also plans to help promote the event to our networks and local chapter. On April 27, 2022, NHMA participated in the Louisiana Engagement Network Meeting.</t>
+  </si>
+  <si>
+    <t>In early April, we were in frequent email communication with Rob about NIH website review. We also met with Rob and Jakara on 4/21 to discuss and plan for the deep dive discussion. Our team has met internally 3 times this month.</t>
+  </si>
+  <si>
+    <t>Monthly Ninja reporting meeting, Friday, April 29, 2022, 4-5pm ET
+Meet with Evan, Friday, April 29, 2022, 1pm ET
+Ninja for April Reporting with Dianne Beltran, Thursday, April 28, 2022, 425-440pm ET
+AOU Monthly Report with MKE/Deidra, Monday, April 25, 2022, 5-530pm ET
+Monthly Sub-Awardee Check In, Wednesday, April 20, 2022, 3-4pm ET
+Monthly call with Yuri, Tuesday, April 19, 2022, 3-4pm ET
+Meet with Steve, Monday, April 18, 2022, 2-230pm ET
+Meet with Jere K, Thursday, April 14, 2022, 5-530pm ET
+Meet with PRIDEnet, Monday, April 11, 2022, 4-5p ET 
+Meet with Ana, Monday, April 11, 2022, 330-4pm ET
+Cycle 4 Strategic Planning w Ana, Friday, April 8, 2022, 230-3pm ET
+Cycle 4 Strategic Planning w Ana, Thursday, April 7, 2022, 445-630pm ET
+Meet with Kim, Thursday, April 7, 2022, 4-445pm ET
+Meet with Yuri and Monica, Wednesday, April 6, 2022, 345-415pm ET
+Meet with Yuri, Wednesday, April 6, 2022, 1030-11am ET
+Meet with Jason, Tuesday, April 5, 2022, 430-5pm ET 
+Meet with Deidra, Monday, April 4, 2022, 3-345pm 
+Meet with Evan, Monday, April 4, 2022, 230-3pm ET 
+Meet with Jere K, Monday, April 4, 2022, 2-230pm ET 
+Meet with Ana, MKE, Friday, April 1, 2022, 1130am-12pm ET
+All of Us Research Program Researchers Convention, Friday, April 1, 2022</t>
+  </si>
+  <si>
+    <t>Nick Harris participated in several meetings to address faith and science which concluded with a webinar sponsored by Pyrxis.</t>
+  </si>
+  <si>
+    <t>Between March, 31, 2022, and April 30, 2022, NRHA has communicated with our engagement counselor, Rachelle Ciulla, weekly. NRHA has worked with sub-awardees on activities and had internal discussions about sub-awardee priorities related to the project including considering additional target markets for the next cycle proposal. Internal meetings have also been discussed regarding upcoming communication activities.  NRHA staff were able to attend all Target Market meetings, the All of Us Researchers Convention, all Cycle 4 planning meetings and all other virtual events held by the Program.</t>
+  </si>
+  <si>
+    <t>4/1/22 Dr. Lemieux &amp; Nicole weekly AoU meeting to discuss building out current programming.
+4/1/22 Dr. Lemieux, Dr. Williams, Nicole and Tynisha met to discuss the possibility of collaborating with the Center for Minority Health &amp; Health Disparities CAB.
+4/8/22 Dr. Lemieux presented the AoURP in the RMCI/LCRC seminar series to faculty.
+4/12/22 Dr. Lemieux &amp; Nicole met with LA-CEAL CAB to introduce the AoURP.
+4/13/220 Dr. Karriem Watson made a surprise impromptu visit to Xavier while he was in town for another conference. 
+4/ 22/22 Dr. Lemieux &amp; Nicole met to discuss building out the current SOW.
+4/25/22 Dr. Lemieux &amp; Nicole met to discuss budget and programming for next SOW.
+4/26/22 Dr. Lemieux &amp; Nicole met with faculty from multiple disciplines to introduce them to the AoURP and to discuss researcher opportunities for release-time to participate in initiatives for the 2022-2023 program year.  
+4/27/22 Dr. Lemieux &amp; Nicole attended the LA Engagement Ecosystem meeting.</t>
   </si>
   <si>
     <t>Meetings this month include: 
@@ -924,58 +2097,85 @@
 - This includes prepping Ambassadors for events and working closely with them as needed. Does  not include standing touchpoints.</t>
   </si>
   <si>
-    <t>Monthly Ninja reporting meeting, Friday, April 29, 2022, 4-5pm ET
-Meet with Evan, Friday, April 29, 2022, 1pm ET
-Ninja for April Reporting with Dianne Beltran, Thursday, April 28, 2022, 425-440pm ET
-AOU Monthly Report with MKE/Deidra, Monday, April 25, 2022, 5-530pm ET
-Monthly Sub-Awardee Check In, Wednesday, April 20, 2022, 3-4pm ET
-Monthly call with Yuri, Tuesday, April 19, 2022, 3-4pm ET
-Meet with Steve, Monday, April 18, 2022, 2-230pm ET
-Meet with Jere K, Thursday, April 14, 2022, 5-530pm ET
-Meet with PRIDEnet, Monday, April 11, 2022, 4-5p ET 
-Meet with Ana, Monday, April 11, 2022, 330-4pm ET
-Cycle 4 Strategic Planning w Ana, Friday, April 8, 2022, 230-3pm ET
-Cycle 4 Strategic Planning w Ana, Thursday, April 7, 2022, 445-630pm ET
-Meet with Kim, Thursday, April 7, 2022, 4-445pm ET
-Meet with Yuri and Monica, Wednesday, April 6, 2022, 345-415pm ET
-Meet with Yuri, Wednesday, April 6, 2022, 1030-11am ET
-Meet with Jason, Tuesday, April 5, 2022, 430-5pm ET 
-Meet with Deidra, Monday, April 4, 2022, 3-345pm 
-Meet with Evan, Monday, April 4, 2022, 230-3pm ET 
-Meet with Jere K, Monday, April 4, 2022, 2-230pm ET 
-Meet with Ana, MKE, Friday, April 1, 2022, 1130am-12pm ET
-All of Us Research Program Researchers Convention, Friday, April 1, 2022</t>
-  </si>
-  <si>
-    <t>On April 6, 2022, NHMA's core project team, including President &amp; CEO, Dr. Elena Rios, met with our EC to discuss the engagement strategy document. During the call, we discussed best practices for submissions, collaborations with local HPO's in the DMV, and tracking researcher and participant engagement using coded target market links.
-On April 12 and April 19, 2022, NHMA was present for the New York Target Market Call and the DMV Target Market Call. NHMA shared our recent conference and our upcoming Cinco de Mayo event on the DMV Call. NHMA and Mary's Center connected via email after the call for potential partnerships. The organizations will be meeting during the week of May 2nd. NHMA invited our EC to the call.
-On April 20, 2022, NHMA staff met with our EC and Jakara Eason to discuss the possibility of hosting an event in our new office space in June. Planning has  begun and NHMA is meeting internally to decide on a date for the provider roundtable. NHMA plans to have Dr. Elena Rios participate as a speaker and also plans to help promote the event to our networks and local chapter. On April 27, 2022, NHMA participated in the Louisiana Engagement Network Meeting.</t>
-  </si>
-  <si>
     <t>Seven Star Academy participated in bi-weekly meeting with our Pyxis Partner Engagement Team.  Weekly Seven Star Academy tech meetings were held to discuss AoU social media displays.  Collaboration with the New Orleans Council on Aging, MCI, SUNO, SUAG, Dillard, Delgado, LACHON, Community Health Care and DePaul Community Health Center.  Seven Star Academy participated in the LA Engagement Network Meeting.</t>
   </si>
   <si>
-    <t>Webinar on research hub by Monica Rodriguez, social media (Facebook, Twitter, Instagram and newsletters), preparation for next webinar and outreach for chapter meeting in Ft. Lauderdale.</t>
+    <t>This month's check ins. Check in with Engagement Counselor, Krista Forbes. Had zoom meeting with Engagement Counselor Krista, to discuss monthly GPGI meeting and go over Strategic plan for next cycle grant. Went over items that needed attention from Strategic plan.</t>
+  </si>
+  <si>
+    <t>We've participated in sub-awardee management, monthly market meetings, training for proposal submission, and national CPGI leadership calls.</t>
+  </si>
+  <si>
+    <t>SUNO Team engaged in program meetings, AoU Research program meetings, EC meetings, supervision, internal training opportunities, and meeting with outside agencies. PI engaged with AoU Research program staff and engaged university leaders. The SUNO Team was involved with the assignment of responsibility for program strategy and policies and their preparation and implementation direction.</t>
+  </si>
+  <si>
+    <t>Network Ninja 2.0 Training
+Weekly meetings with Henry Ford Health
+Weekly meetings with Henry Ford Health &amp; Public Health Society (PHS)
+Introductory Meeting with new PHS Leadership 
+Social media campaign</t>
+  </si>
+  <si>
+    <t>During the month of April 2022, the project team met twice to discuss the social media and newspaper ad placements. The project team met with Krista and Emma to go over the designs for the ad. Our team sent Emma the brand guidelines to finalized our personalized mailers and newspaper ads. Our project team also attended the All of Us teams across Mississippi. During the month of May, the newspaper and social media ads will be placed and the mailers will be distributed.</t>
+  </si>
+  <si>
+    <t>In addition one of the JSMW Team (Pavan Zaveri) attended the DMV Market Call on 4/19 and discussed the above event.</t>
+  </si>
+  <si>
+    <t>Webinar on research hub by Monica Rodriguez, social media (Facebook, Twitter, Instagram and newsletters), preparation for next webinar and outreach for chapter meeting in Ft. Lauderdale.  We also had several check in meetings and planning meetings.  We worked with our EC on the cycle 4 strategy as well as met internally about this.  We also met with the webinar speakers (Monica Rodriguez for webinar 1 and DRC for webinar 2).</t>
+  </si>
+  <si>
+    <t>Two check-ins with our Engagement Counselor. Attended the April Louisiana Engagement Meeting. We discussed our new engagement strategy and spent time planning and entering details by the deadline. We had a few collaboration meetings to discuss collaborating before the end of this funding period (Southern University Ag Center &amp; Pennington Biomedical).</t>
+  </si>
+  <si>
+    <t>April 6 Gardere Initiative Monthly Meeting
+April 6  CPGI planning workshop
+April 8 Louisiana Community Health Outreach Network/ LACHON 
+April 8 CPGI Engagement Strategy prepaed/ sent
+April 9 Virtual conference on Community Research
+April 16 AOU- Check-in with Golden Change
+April 21 Metro Centers for Community Advocacy monthly Meeting
+Apri 21  ABWA ( American Bus. Women Association)
+April 21 the Greater New Orleans Healthy Communities Coalition ( GNOHCC)
+April 22  Xavier LA CaTS NOLA CAB meeting
+ April 22 LACaTS NOLA CAB Meeting
+Apri 29 Cultural day at Phoebe Hearst Elementary School</t>
   </si>
   <si>
     <t>This month's activities included two student ambassador activities, Spring Engagement Meeting preparations with Texas Waco AHEC, check-ins with student ambassadors, Journey Bus meeting with Montage, AHEC Community Meeting, internal THEARI team meeting, Denver Market meeting, meeting with Banner Health, Enrollment Information Session with Banner Health for student ambassadors and THEARI All of Us staff, NAO Student Panel, meeting with YMCA of Metro Denver, two, 1:1 check-ins with Julia, and ongoing marketing with a monthly newsletter and social media posts (reports provided separately).</t>
   </si>
   <si>
-    <t>Between March, 31, 2022, and April 30, 2022, NRHA has communicated with our engagement counselor, Rachelle Ciulla, weekly. NRHA has worked with sub-awardees on activities and had internal discussions about sub-awardee priorities related to the project including considering additional target markets for the next cycle proposal. Internal meetings have also been discussed regarding upcoming communication activities.  NRHA staff were able to attend all Target Market meetings, the All of Us Researchers Convention, all Cycle 4 planning meetings and all other virtual events held by the Program.</t>
-  </si>
-  <si>
-    <t>4/1/22 Dr. Lemieux &amp; Nicole weekly AoU meeting to discuss building out current programming.
-4/1/22 Dr. Lemieux, Dr. Williams, Nicole and Tynisha met to discuss the possibility of collaborating with the Center for Minority Health &amp; Health Disparities CAB.
-4/8/22 Dr. Lemieux presented the AoURP in the RMCI/LCRC seminar series to faculty.
-4/12/22 Dr. Lemieux &amp; Nicole met with LA-CEAL CAB to introduce the AoURP.
-4/13/220 Dr. Karriem Watson made a surprise impromptu visit to Xavier while he was in town for another conference. 
-4/ 22/22 Dr. Lemieux &amp; Nicole met to discuss building out the current SOW.
-4/25/22 Dr. Lemieux &amp; Nicole met to discuss budget and programming for next SOW.
-4/26/22 Dr. Lemieux &amp; Nicole met with faculty from multiple disciplines to introduce them to the AoURP and to discuss researcher opportunities for release-time to participate in initiatives for the 2022-2023 program year.  
-4/27/22 Dr. Lemieux &amp; Nicole attended the LA Engagement Ecosystem meeting.</t>
-  </si>
-  <si>
     <t>This month, we participated in weekly meetings with our engagement counselor to continue working on our activities for this new funding cycle. Also, we joined the CPGI monthly call, and the DMV market call. NHCOA also has its own weekly internal meetings to manage All of Us activities.</t>
+  </si>
+  <si>
+    <t>In addition to internal organizational management, weekly meetings continued with our Engagement Officer, Dr. Shanta Whitaker.</t>
+  </si>
+  <si>
+    <t>The HACU team conducted several internal meetings to discuss the strategy for the next All of Us cycle.  The team collectively worked on the strategy proposal and submitted it. We also met to discuss the additional opportunity to convene  HSI community colleges and are beginning to identify institutions to invite for this event. We also informed our counselors of staff changes at HACU and connect the interim comms person to our comms counselor to ensure access to asset portal and other platforms.</t>
+  </si>
+  <si>
+    <t>We participated in the following:
+-Participated in standing Project Seek Team Meeting
+-4/5/22 - Day Session with local pastors held at New Star Church 11 am
+-4/7/22 – Checked in with Krista and received support for (CPGI) 2022-2023 ENGAGEMENT STRATEGY
+-4/19/22 - Evening Session 7 pm
+Attended the monthly Ecosystem meeting on 4/27
+Submitted the strategy plan 4/8 waiting for feedback</t>
+  </si>
+  <si>
+    <t>LULAC had meetings with the All of Us team throughout the month of April to discuss the upcoming cafecito in May, social media communication updates and requests, and the CPGI Strategy Plan. Earlier this month LULAC met with Rima to discuss the CPGI Strategy Plan and get feedback on the plan. We also participated in the Chicago, NY and DMV market calls. LULAC received great feedback regarding the plan for the next cycle and began drafting responses to the questions raised by the review committee. Additionally, during our weekly check-in call Samantha Santoro shared communication updates regarding new toolkits uploaded to the asset portal. LULAC has incorporated social media posts regarding the researcher workbench into our communications plan. Additionally, we requested support from Samantha in drafting talking points and creating social media graphics for the Mental Health Awareness Month Cafecito that will take place in June, 2022 in the DMV. There will be two sessions for this cafecito event– one will be in Spanish and the other in English. LULAC shared this opportunity with other CPGI partners in the DMV market call and there has been expressed interest in collaborating on this event.</t>
+  </si>
+  <si>
+    <t>NMQF participated in routine engagement counselor check-ins and DMV target market calls.</t>
+  </si>
+  <si>
+    <t>We participated in our monthly call with UnidosUS team leads with our engagement and communications counselors, held internal meetings, and held one-on-one calls with both of our subgrantees, and communicated with subgrantees on subsequent calls about scheduling and reporting processes. We also held calls with the Chicago HPO and New York HPO to explore collaboration opportunities, one which already resulted in the successful in person event in Chicago.</t>
+  </si>
+  <si>
+    <t>Throughout April 2022, EC communicated with NBNA Chapter Presidents and Champions via email to gauge progress and provide feedback on event planning and reporting, and sub awardees attended or later viewed their respective area market calls.  On April 3, NBNA President, PM and GYNCBNA Chapter President assessed the program to determine strategy for the next cycle and establish a plan to successfully complete the current cycle obligations.  April 6, NBNA met with ECs to confirm the new sub awardee and discuss both the leadership transition and the 2022-2023 project plan.  April 8, an NBNA AoU proposal was submitted for consideration.  April 12, NBNA President and PM met with NBNA leadership to overview the project status and plan, including the request for modular exhibit panels for this year’s annual conference.  April 12, NBNA held its bi-monthly sub awardee meeting.  GNYCBNA confirmed RTI participation. April 19, ECs hosted an initial meeting with NBNA and CC for new sub awardee BNAGH to discuss the planned events and material needs.  A second meeting between the PM and BNAGH Chapter President convened to discuss submission protocols and answer any outlying questions.  PM coordinated efforts for Engagement Hub access and provided pre-and-post assessment survey links and QC codes along with the pre-and-post information forms.  Pre-and-post event info reminders were sent to Chapter Presidents and Chapter Champions for scheduled NBNA All of Us events.</t>
+  </si>
+  <si>
+    <t>This month we presented at the Midwest Nursing Research Society Conference, National Student Nursing Association Annual Conference, Presentations with Northern Illinois University, Pace University, Morgan State University, Azusa Pacific University, and North Carolina Central University.</t>
   </si>
   <si>
     <t>Governance activities this month included our monthly internal check-in meeting and other planning conversations and coordination regarding program assets for upcoming events.
@@ -985,13 +2185,149 @@
 Participation in AoU Researchers Convention - 3/31-4/1.</t>
   </si>
   <si>
-    <t>In addition to internal organizational management, weekly meetings continued with our Engagement Officer, Dr. Shanta Whitaker.</t>
-  </si>
-  <si>
-    <t>We participated in our monthly call with UnidosUS team leads with our engagement and communications counselors, held internal meetings, and held one-on-one calls with both of our subgrantees, and communicated with subgrantees on subsequent calls about scheduling and reporting processes.</t>
+    <t>4/5/2022-Bi-Weekly Meeting with Engagement Counselor
+4/19/2022 Bi-Weekly Meeting with Engagement Counselor
+4/27/2022-Louisiana Engagement Network Meeting
+Twice a week at Various Times-Meetings  with Dr. Kleiner regarding upcoming All of Us Deliverables
+Registration for the May 4-5 Spring Engagement Meeting</t>
+  </si>
+  <si>
+    <t>The AHECWW participated in the CPGI Engagement Counseling meeting and the National AHEC Organization All of Us Program presentation. These meetings were very helpful in event prep and with  completing the AHECWW  New Cycle Planning Packet.  The AHECWW did not attend the AHEC/THEARI meeting, as this was during the Western Forum. This meeting time was used for the other AHECs to practice for their collaborative presentation on the student ambassador program, which the AHECWW currently does not provide.</t>
+  </si>
+  <si>
+    <t>This month we participated in all BGLC Meetings. We participated in our weekly planning meetings for NPHC. We participated in and supported events hosted by other BGLC organizations. We worked on our strategy document for phase VIII. We registered for and participated in the CPGI Spring Engagement. Although we could not stay for the entire meeting due to scheduling conflicts, we did review the CPGI Day Resources and Evaluation email, which gave us time to do a deeper dive into the statement of work document and the CPGI presentation.</t>
+  </si>
+  <si>
+    <t>Phi Beta Sigma Fraternity continues to use best practices to plan for the engagement of our identified segments of the target audience to create awareness of all health-related issues facing the community, specifically the All of Us research project.</t>
+  </si>
+  <si>
+    <t>We attended all weekly meetings as well as the Local Atlanta NIH Meeting. We held briefing sessions to discuss our upcoming events as well as worked with our Social Media team to circulate All of Us information. We met with our panel for our Mental Health event to highlight Mental Health Awareness month. We conducted an overview of the All of Us Research Program along with offering the Pre and Post Test survey for our viewers to complete. We attempted to engage the Minneapolis HPO to participate in a Heart Health Event that was held in Minneapolis, MN but was not successful. We are always brainstorming different innovative ideas to push the envelope with the All of Us Research Program. Shared not only via Social Media but our internal membership database information regarding the All of Us Research Program and how to get involved. Met with the team along with partner organization to discuss future events and how to include the clinical research aspect.</t>
+  </si>
+  <si>
+    <t>●	Sigma Gamma Rho’s social media campaign has provided a consistent presence of promotion of the program on all of our social media channels.  As we continue to collect “health stories” from members of the organization, and also publicize All of Us on social media, we are anticipating an increase in followers and thereby reaching more people with our messages. We also began promoting our May Self Care Mental Health - All of Us webinar that will be coming up in May.
+●	Sigma Gamma Rho conducted and participated in our candid conversation about self-care, best mental health practices, and the significance of medical research in minority communities. The conversation was with qualified mental health professionals right within the membership Sigma Gamma Rho Sorority, Inc. and open to the public. With over 400 webinar participants and many relevant questions and conversations, it is well believed that SGRHO successfully shared the message and awareness about “ precision medicine” and the All of Us Research program. 
+●	Follow up Social Media campaign 5/15 and 5/20 ( see attached fliers) FLIERS
+●	We continue to brainstorm how to leverage the partnerships and resources we are learning about to the benefit of getting the word out about All of us, and we continue to fine-tune the plans within the Scope of Work to ensure ease and readiness of execution at the appropriate time.
+●	SGRHO liaisons continued to share the message in our local chapters, communities, and sister chapters within the DFW, Houston, and great Atlanta.</t>
+  </si>
+  <si>
+    <t>Our team has been very busy this month in supporting the other BGLC programs, attending the CPGI Trainings and Webinars, and preparing for the Atlanta Rooted In Resilience Tour.  Also, we have been very busy working on our strategy and planning for the next phase of the All of Us Research Program and Black Greek Letter Consortium while attending the Spring Engagement Meeting.</t>
+  </si>
+  <si>
+    <t>This month has been working on the strategy for the next phase and identifying potential partners and brainstorming ideas for the SOW.  We have been reaching out to partners and working with each of the organizations on what they can do this coming year.</t>
+  </si>
+  <si>
+    <t>The month of May has been planning for our June activity as well as filling out the SOW worksheet provided by the Program Lead.  We have been making connections with a possible partners for our upcoming phase.</t>
+  </si>
+  <si>
+    <t>AKA completed a successful regional conference cycle and Pop-Up Health events promoting vaccinations and the All of Us Research program with our membership.   We have also started to work on our All of Us programming for our Boule in Orlando, FL.  All of Us information will be distributed for engagement, and we will partner with an enrollment organization to join the event. 
+The AKA team has continued to support our All of Us partner events by attending if available. During the month of May, we have attended the BGLC meetings, and received, and read any Partner and BGLC e-mails. We have ensured we have acted on any action items requested. AKA participated in the AoU Spring Meeting and the CPGI meeting</t>
+  </si>
+  <si>
+    <t>Coordinators attended all weekly BGLC calls and met again to further discuss Cycle 22-23 activations. The social media lead ensured all posts were scheduled and attended the social media team's weekly calls. The Coordinator supported Sigma Gamma Rho’s “Self Care is Best Care” virtual webinar. The Co-coordinator attended the monthly target call for New York and Boston.</t>
+  </si>
+  <si>
+    <t>DU Community Relations participated in several All of Us zoom meetings which were very informative.</t>
+  </si>
+  <si>
+    <t>This month, Omega Psi Phi Fraternity, Inc. has attended weekly BGLC meetings and supported fellow BGLC member organization programs. We have continued internal development of our strategies to reach our target demographics and engagement strategies.</t>
+  </si>
+  <si>
+    <t>5/4 &amp; 5/22-AoU Spring Engagement Annual Meeting/SH (7.0 hr)
+5/9/22 - AHEC Collaborative CPGI monthly mtg/SH (1.0 hr) 
+5/11/22-AoU mtg. w/NC Research &amp; CPGI Counselor-Updates on HBCU &amp; Minority Research Student Initiatives/ SH, JD, KC (1.0 Hr)
+5/25/22- CPGI Check-in monthly meeting w/JD/SH (1.0 hr)</t>
+  </si>
+  <si>
+    <t>This month's activities included attendance at the Spring Engagement Meeting, student ambassador check-ins, attendance at the AHEC/THEARI group meeting, attendance at the Denver Market meeting, hosted an internal All of Us THEARI team meeting, THEARI staff and student ambassadors along with Banner Health staff tabled at the Denver Colfax Marathon, Deandra presented to the Osteopathic Medical Student Coalition at RVU in a hybrid format, Ciauna tabled with Banner Health staff at the Mile High Flea Market, Mikaela hosted a presentation with the administration/faculty at Stuart Middle School, Miryam hosted a presentation with RVU medical students, attendance at CPGI day, and 1:1 check-in with Julia. Due to so many student ambassadors events this month, a significant amount of time was dedicated to supporting our students and ensuring they had exactly what they needed to be successful.</t>
+  </si>
+  <si>
+    <t>Kattia and Jess attended network meeting - CPGI Day (5/20), also Denver individual and group (Capital Y) check-ins with Yuri and Samantha. We attended the spring engagement meeting. We had two internal planning meetings with our nutrition team for the June cooking event. Kattia and I meet weekly to discuss our All of Us planning/activities. We met onsite for the installation of the kiosk with Rima from Montage Marketing.</t>
+  </si>
+  <si>
+    <t>•	Sub-awardee management: we meet monthly on the firt Monday of each month. Reports are submitted to NAHN board of directors. 
+•	NY, Illinois, Detroit, and Dallas Target Marketing meetings.
+•	Detroit and NY part of the pilot for marketing. 
+•	After feedback, our All of Us proposal was approved and continues to be processed.</t>
+  </si>
+  <si>
+    <t>Bimonthly meetings with EC plus internal meetings, social media (6 Facebook, 8 Twitter, 3 Instagram), part 2 of the research webinar, which was then posted on our website.  3 emails went out about the webinar, including a post webinar email about both of the webinars and providing the link to view it on our website.  The webinars are on our website for those that missed it and want to watch it.  We attended the Spring meeting and Carole Treston presented at the Spring meeting about retention.  AAHIVM confirmed a speaker for Ft. Lauderdale meeting.</t>
+  </si>
+  <si>
+    <t>Between April 30, 2022, and May 31, 2022, NRHA has communicated with our engagement counselor, Rachelle Ciulla, weekly. NRHA has worked with sub-awardees on activities and had internal discussions about sub-awardee priorities related to the project including considering additional target markets for the next cycle proposal. Internal meetings have also been discussed regarding upcoming communication activities.  NRHA staff were able to attend all Target Market meetings, the All of Us Spring Engagement Meeting, and the Annual CPGI Network Meeting.</t>
+  </si>
+  <si>
+    <t>Regular meetings continued with our Engagement Officer as well as internally. We also participated in the Spring Engagement Meeting and the CPGI Annual Meeting.</t>
+  </si>
+  <si>
+    <t>We participated in our monthly call with UnidosUS team leads with our engagement and communications counselors, held internal meetings, and held one-on-one calls with both of our subgrantees, and communicated with subgrantees on subsequent calls about scheduling and reporting processes for their final reports. We also continued planning for a potential collaboration in the NY Market next cycle with our subgrantee, Mexican Coalition.</t>
+  </si>
+  <si>
+    <t>This month, we participated in weekly meetings with our engagement counselor to continue working on our activities for this new funding cycle. Also, we joined the CPGI monthly call and the Miami and DMV market calls. NHCOA also has its own weekly internal meetings to manage All of Us activities.</t>
+  </si>
+  <si>
+    <t>Governance activities this month included our monthly internal check-in meeting and other planning conversations and coordination regarding program assets for upcoming events.
+Meetings included: 
+Participation in AoU Spring Engagement Meeting - 5/4-5;
+Internal check-in meeting - 5/10; 
+Planning/run-through call for student symposium - 5/10.</t>
+  </si>
+  <si>
+    <t>5/4/22 Dr. Lemieux &amp; Nicole attended day one of the Spring Engagement conference. 
+5/5/22 Dr. Lemieux &amp; Nicole attended day two of the Spring Engagement conference.
+5/6/22 Dr. Lemieux &amp; Nicole met with Dr. Lakeisha Williams, Director of the Center for Minority Health &amp; Health Disparities to discuss future collaboration effort between the Center and AoURP at Xavier.
+5/9/22 Dr. Lemieux &amp; Nicole met with Marie, Emily &amp; Blair from Tulane to discuss possible collaboration opportunities. 
+5/13/22 Dr. Lemieux &amp; Nicole met with our Engagement Counselor Krista for your bi-weekly checkin.
+5/16/22 Dr. Lemieux &amp; Nicole met to recap and debrief. 
+5/20/22 Dr. Lemieux &amp; Nicole attended the 2022 CPGI Day.
+5/23/22 Dr. Lemieux &amp; Nicole met with Colin Cernik for run of show for AoU Workbench &amp; R training on Saturday, June 4th. 
+5/25/22 Dr. Lemieux &amp; Nicole attended the LA Ecosystem meeting.
+5/27/22 Dr. Lemieux &amp; Krista met for bi-weekly engagement meeting.
+5/27/22 Dr. Lemieux gave a presentation to NIH/ RCMI's Program Officer during bi-monthly meeting. 
+5/31/22 Dr. Lemieux &amp; Nicole met to discuss SOW and budget for new funding cycle.</t>
+  </si>
+  <si>
+    <t>The AHECWW staff participated in a virtual exhibit training meeting for the NWR Primary Care Association Spring Summit to prepare for exhibition, the monthly check-in, WA Ecosystem meeting, and Spring CPGI Meeting.</t>
+  </si>
+  <si>
+    <t>We had check-ins with our Engagement Counselor. Attended the May CPGI Network Meeting. We discussed our new engagement strategy , the upcoming scope of work and the end of cycle report.  We will be collaborating with our engagement counselor about the scope of work.</t>
+  </si>
+  <si>
+    <t>LULAC had meetings with the All of Us team throughout the month of May to discuss how to pivot the Mental Health Cafecito. Additionally, we requested support from Samantha in drafting talking points and creating social media graphics for the Mental Health Awareness Month Cafecito that will take place on June 25, 2022 in the DMV. There will be two sessions for this cafecito event– one will be in Spanish and the other in English. LULAC shared this opportunity with other CPGI partners in the DMV market call and there has been expressed interest in collaborating on this event. LULAC attended the DMV market call on May 17th and shared information about the cafecito event to other CPGI partners for an opportunity to collaborate. LULAC will also be attending the Chicago market call on May 31st. In addition to those meetings, earlier this month LULAC attended the Spring Engagement Meeting. The workshops were very informative and interesting. LULAC also attended the CPGI Meeting. It was interesting to learn more about what strategies and models worked for other CPGI partners. It was also interesting to learn about how the data is collected and given back to the CPGI partners to have a better understanding of their impact.</t>
+  </si>
+  <si>
+    <t>This month SU Ag Center AoU Team attended weekly scheduled meetings with EC. Discussed at weekly meetings were possible upcoming events for the team to host in different communities as well as upcoming events with collaborating partners. We have also completed and submitted our AoU engagement strategies for this upcoming fiscal year.  Team members also attended the CPGI Network Annual Meeting.</t>
+  </si>
+  <si>
+    <t>This month, NHMA participated in a partner collaboration call with Mary's Center on May 6th, NY Target Market Call on Tuesday, May 10, AoU DMV Market Call on Tuesday, May 17, a check-in call with our EC, Jakara Eason, and Rob Bartnichak on May 18, and the CPGI Network Annual Meeting on Friday, May 20.</t>
+  </si>
+  <si>
+    <t>1) Strategy Statement follow-up Meeting 1 hour: May 2, 2022, (2) All of Us Spring Engagement Meeting 10 hours: May 4-5, 2022 - Attended the event and exhibited at the event and had one of the most visited booths, (3) Healthy Families Expo Meeting 1 hour: May 5, 2022, (4) National Rural Health Association Annual Conference Full Week: May 10-13, 2022, (5) Pyxis X AHEC/THEARI Group Check-In 1 hour: May 9, 2022, (6) Healthy Families Expo Meeting 1 hour: May 12, 2022, (7) Healthy Families Expo Meeting 1 hour: May 19, 2022, (8) CPGI Network Annual Meeting 4 hours: May 20, 2022, (9) Ambassador Meeting 1 hour: May 23, 2022, (10) Ambassador Meeting 1 hour: May 24, 2022, (11) Napier Expo Planning Committee Meeting 1.5 hours: May 24, 2022, (12) Pyxis X Waco AHEC Bi Weekly Meeting 45 Minutes: May 26, 2022, (13) Healthy Families Expo Meeting 1 hour: May 26, 2022, (14) Strategy Statement Edits 10 hours: Month of May, (15) Healthy Families Expo Planning 50 hours: Month of May, (16) Budgeting Ongoing: Month of May (17) Scope of Work Management Ongoing; Month of May</t>
+  </si>
+  <si>
+    <t>continue to make progress in a promotional mailer to our database.  Working with Pyxis communications team
+Informed EC that the decision was made by the institution not to renew for Cycle 4.</t>
+  </si>
+  <si>
+    <t>Social media post updates will be included in a different report.</t>
   </si>
   <si>
     <t>LAMDA recognized that participation throughout this month included members of the general public agent 18-64. Participation was approximately 70% women and 30% men. Participants were from Chicago, California, Venezuela, Mexico and Central America.</t>
+  </si>
+  <si>
+    <t>We continually appreciate the support of the All of Us organization and the support of our Engagement Counselor.</t>
+  </si>
+  <si>
+    <t>Four check-ins in the Community Meetings, and one check-in at the in-person New Orleans Engagement Ecosystem Meeting</t>
+  </si>
+  <si>
+    <t>We had no activation programs this month</t>
+  </si>
+  <si>
+    <t>•	AKA did not have an activation program this month</t>
+  </si>
+  <si>
+    <t>The only activities this month were UnidosUS social media posts on Facebook and Instagram. The subgrantees have completed their activities.</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +2679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,28 +2752,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1448,37 +2784,43 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>19776</v>
+        <v>19779</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>116</v>
+        <v>201</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O3" t="s">
+        <v>402</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1489,40 +2831,37 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>19775</v>
+        <v>19776</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1533,43 +2872,40 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>19779</v>
+        <v>19775</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" t="s">
-        <v>101</v>
+        <v>203</v>
+      </c>
+      <c r="L5" t="s">
+        <v>265</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1580,37 +2916,46 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>19794</v>
+        <v>19969</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>266</v>
+      </c>
+      <c r="M6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N6" t="s">
+        <v>360</v>
+      </c>
+      <c r="O6" t="s">
+        <v>403</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1621,40 +2966,46 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>19790</v>
+        <v>19808</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>267</v>
+      </c>
+      <c r="M7" t="s">
+        <v>325</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>361</v>
+      </c>
+      <c r="O7" t="s">
+        <v>404</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1665,46 +3016,37 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>19808</v>
+        <v>19791</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N8" t="s">
-        <v>151</v>
-      </c>
-      <c r="O8" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1715,37 +3057,37 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>19791</v>
+        <v>19792</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1756,37 +3098,37 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>19792</v>
+        <v>19788</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1797,37 +3139,40 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>19795</v>
+        <v>19790</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>271</v>
+      </c>
+      <c r="N11" t="s">
+        <v>362</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1838,37 +3183,37 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>19788</v>
+        <v>19795</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1879,125 +3224,119 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>19789</v>
+        <v>19794</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14">
-        <v>19825</v>
+        <v>19789</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>212</v>
+      </c>
+      <c r="L14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" t="s">
+        <v>363</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15">
-        <v>19714</v>
+        <v>19825</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2008,46 +3347,37 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>19901</v>
+        <v>19853</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" t="s">
-        <v>154</v>
-      </c>
-      <c r="O16" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2058,40 +3388,43 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>19905</v>
+        <v>19824</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>326</v>
+      </c>
+      <c r="N17" t="s">
+        <v>364</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2102,49 +3435,40 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>19784</v>
+        <v>19905</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
-      </c>
-      <c r="N18" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>406</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>101</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2155,37 +3479,46 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>19853</v>
+        <v>19888</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>129</v>
+        <v>276</v>
+      </c>
+      <c r="M19" t="s">
+        <v>328</v>
+      </c>
+      <c r="N19" t="s">
+        <v>365</v>
+      </c>
+      <c r="O19" t="s">
+        <v>212</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2196,46 +3529,46 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>19890</v>
+        <v>19893</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="M20" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="O20" t="s">
-        <v>165</v>
+        <v>407</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2246,31 +3579,43 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>19900</v>
+        <v>19858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>278</v>
+      </c>
+      <c r="M21" t="s">
+        <v>330</v>
+      </c>
+      <c r="O21" t="s">
+        <v>408</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2281,43 +3626,46 @@
         <v>37</v>
       </c>
       <c r="C22">
-        <v>19774</v>
+        <v>19901</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>367</v>
+      </c>
+      <c r="O22" t="s">
+        <v>409</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2328,46 +3676,46 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>19893</v>
+        <v>19890</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="M23" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="N23" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2378,216 +3726,2440 @@
         <v>39</v>
       </c>
       <c r="C24">
-        <v>19858</v>
+        <v>19891</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="O24" t="s">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25">
-        <v>19910</v>
+        <v>19985</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>334</v>
+      </c>
+      <c r="N25" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" t="s">
+        <v>412</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26">
-        <v>19622</v>
+        <v>19820</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>281</v>
+      </c>
+      <c r="M26" t="s">
+        <v>335</v>
       </c>
       <c r="N26" t="s">
-        <v>159</v>
+        <v>370</v>
+      </c>
+      <c r="O26" t="s">
+        <v>413</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27">
-        <v>19923</v>
+        <v>19714</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>282</v>
+      </c>
+      <c r="M27" t="s">
+        <v>336</v>
+      </c>
+      <c r="N27" t="s">
+        <v>371</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28">
+        <v>19977</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>19715</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" t="s">
+        <v>372</v>
+      </c>
+      <c r="P29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>19784</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="s">
+        <v>337</v>
+      </c>
+      <c r="N30" t="s">
+        <v>373</v>
+      </c>
+      <c r="O30" t="s">
+        <v>337</v>
+      </c>
+      <c r="P30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>19900</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="P31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>19961</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="s">
+        <v>154</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="s">
+        <v>338</v>
+      </c>
+      <c r="N32" t="s">
+        <v>374</v>
+      </c>
+      <c r="P32" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>19963</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" t="s">
+        <v>286</v>
+      </c>
+      <c r="M33" t="s">
+        <v>339</v>
+      </c>
+      <c r="N33" t="s">
+        <v>375</v>
+      </c>
+      <c r="O33" t="s">
+        <v>414</v>
+      </c>
+      <c r="P33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>19774</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s">
+        <v>340</v>
+      </c>
+      <c r="N34" t="s">
+        <v>376</v>
+      </c>
+      <c r="P34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>19910</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="s">
+        <v>341</v>
+      </c>
+      <c r="P35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>19923</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>19913</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>19968</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>19903</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" t="s">
+        <v>230</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="P39" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>19954</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
         <v>19809</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" t="s">
+        <v>342</v>
+      </c>
+      <c r="N41" t="s">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s">
+        <v>415</v>
+      </c>
+      <c r="P41" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>19922</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" t="s">
+        <v>232</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
+      <c r="N42" t="s">
+        <v>378</v>
+      </c>
+      <c r="O42" t="s">
+        <v>416</v>
+      </c>
+      <c r="P42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="J28" t="s">
+      <c r="C43">
+        <v>19938</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" t="s">
+        <v>233</v>
+      </c>
+      <c r="L43" t="s">
+        <v>292</v>
+      </c>
+      <c r="M43" t="s">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>417</v>
+      </c>
+      <c r="P43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>19622</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K44" t="s">
+        <v>234</v>
+      </c>
+      <c r="L44" t="s">
+        <v>293</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="P44" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>19962</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
+        <v>166</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="s">
+        <v>344</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>418</v>
+      </c>
+      <c r="P45" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>19978</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" t="s">
+        <v>295</v>
+      </c>
+      <c r="M46" t="s">
+        <v>345</v>
+      </c>
+      <c r="N46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>20030</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" t="s">
+        <v>296</v>
+      </c>
+      <c r="M47" t="s">
+        <v>346</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>420</v>
+      </c>
+      <c r="P47" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>20152</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" t="s">
+        <v>237</v>
+      </c>
+      <c r="L48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>20170</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K49" t="s">
+        <v>238</v>
+      </c>
+      <c r="L49" t="s">
+        <v>298</v>
+      </c>
+      <c r="P49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>20176</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" t="s">
+        <v>239</v>
+      </c>
+      <c r="L50" t="s">
+        <v>299</v>
+      </c>
+      <c r="M50" t="s">
+        <v>325</v>
+      </c>
+      <c r="N50" t="s">
+        <v>384</v>
+      </c>
+      <c r="O50" t="s">
+        <v>421</v>
+      </c>
+      <c r="P50" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>20172</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" t="s">
+        <v>240</v>
+      </c>
+      <c r="L51" t="s">
+        <v>300</v>
+      </c>
+      <c r="M51" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>422</v>
+      </c>
+      <c r="P51" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>20173</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" t="s">
+        <v>209</v>
+      </c>
+      <c r="L52" t="s">
+        <v>301</v>
+      </c>
+      <c r="N52" t="s">
+        <v>386</v>
+      </c>
+      <c r="P52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>20178</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" t="s">
+        <v>174</v>
+      </c>
+      <c r="K53" t="s">
+        <v>241</v>
+      </c>
+      <c r="L53" t="s">
+        <v>302</v>
+      </c>
+      <c r="N53" t="s">
+        <v>387</v>
+      </c>
+      <c r="O53" t="s">
+        <v>423</v>
+      </c>
+      <c r="P53" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>20169</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" t="s">
+        <v>242</v>
+      </c>
+      <c r="L54" t="s">
+        <v>303</v>
+      </c>
+      <c r="P54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>20171</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" t="s">
+        <v>176</v>
+      </c>
+      <c r="K55" t="s">
+        <v>243</v>
+      </c>
+      <c r="L55" t="s">
+        <v>304</v>
+      </c>
+      <c r="P55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>20177</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>113</v>
+      </c>
+      <c r="I56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" t="s">
+        <v>211</v>
+      </c>
+      <c r="L56" t="s">
+        <v>305</v>
+      </c>
+      <c r="N56" t="s">
+        <v>388</v>
+      </c>
+      <c r="P56" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <v>20175</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>178</v>
+      </c>
+      <c r="K57" t="s">
+        <v>244</v>
+      </c>
+      <c r="L57" t="s">
+        <v>306</v>
+      </c>
+      <c r="P57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>20189</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K58" t="s">
+        <v>245</v>
+      </c>
+      <c r="L58" t="s">
+        <v>307</v>
+      </c>
+      <c r="M58" t="s">
+        <v>348</v>
+      </c>
+      <c r="N58" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" t="s">
+        <v>307</v>
+      </c>
+      <c r="P58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>20174</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" t="s">
+        <v>180</v>
+      </c>
+      <c r="K59" t="s">
+        <v>246</v>
+      </c>
+      <c r="L59" t="s">
+        <v>308</v>
+      </c>
+      <c r="P59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>20262</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" t="s">
+        <v>114</v>
+      </c>
+      <c r="J60" t="s">
+        <v>181</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" t="s">
+        <v>309</v>
+      </c>
+      <c r="M60" t="s">
+        <v>247</v>
+      </c>
+      <c r="N60" t="s">
+        <v>390</v>
+      </c>
+      <c r="O60" t="s">
+        <v>247</v>
+      </c>
+      <c r="P60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>20204</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J61" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61" t="s">
+        <v>310</v>
+      </c>
+      <c r="M61" t="s">
+        <v>349</v>
+      </c>
+      <c r="N61" t="s">
+        <v>391</v>
+      </c>
+      <c r="P61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>20235</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J62" t="s">
+        <v>183</v>
+      </c>
+      <c r="K62" t="s">
+        <v>248</v>
+      </c>
+      <c r="L62" t="s">
+        <v>311</v>
+      </c>
+      <c r="N62" t="s">
+        <v>392</v>
+      </c>
+      <c r="O62" t="s">
+        <v>424</v>
+      </c>
+      <c r="P62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>20246</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>117</v>
+      </c>
+      <c r="J63" t="s">
+        <v>184</v>
+      </c>
+      <c r="L63" t="s">
+        <v>312</v>
+      </c>
+      <c r="M63" t="s">
+        <v>350</v>
+      </c>
+      <c r="N63" t="s">
+        <v>393</v>
+      </c>
+      <c r="O63" t="s">
+        <v>425</v>
+      </c>
+      <c r="P63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64">
+        <v>20234</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64" t="s">
+        <v>185</v>
+      </c>
+      <c r="K64" t="s">
+        <v>249</v>
+      </c>
+      <c r="M64" t="s">
+        <v>351</v>
+      </c>
+      <c r="O64" t="s">
+        <v>426</v>
+      </c>
+      <c r="P64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>20233</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J65" t="s">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s">
+        <v>250</v>
+      </c>
+      <c r="L65" t="s">
+        <v>313</v>
+      </c>
+      <c r="M65" t="s">
+        <v>352</v>
+      </c>
+      <c r="N65" t="s">
+        <v>394</v>
+      </c>
+      <c r="O65" t="s">
+        <v>427</v>
+      </c>
+      <c r="P65" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <v>20254</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K66" t="s">
+        <v>251</v>
+      </c>
+      <c r="L66" t="s">
+        <v>314</v>
+      </c>
+      <c r="P66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>20255</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" t="s">
+        <v>117</v>
+      </c>
+      <c r="J67" t="s">
+        <v>188</v>
+      </c>
+      <c r="K67" t="s">
+        <v>252</v>
+      </c>
+      <c r="N67" t="s">
+        <v>395</v>
+      </c>
+      <c r="P67" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68">
+        <v>20197</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" t="s">
+        <v>117</v>
+      </c>
+      <c r="J68" t="s">
+        <v>189</v>
+      </c>
+      <c r="K68" t="s">
+        <v>229</v>
+      </c>
+      <c r="L68" t="s">
+        <v>315</v>
+      </c>
+      <c r="M68" t="s">
+        <v>341</v>
+      </c>
+      <c r="P68" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>19812</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>117</v>
+      </c>
+      <c r="J69" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" t="s">
+        <v>253</v>
+      </c>
+      <c r="L69" t="s">
+        <v>316</v>
+      </c>
+      <c r="N69" t="s">
+        <v>396</v>
+      </c>
+      <c r="P69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70">
+        <v>20276</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J70" t="s">
+        <v>191</v>
+      </c>
+      <c r="K70" t="s">
+        <v>254</v>
+      </c>
+      <c r="P70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71">
+        <v>20300</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" t="s">
+        <v>192</v>
+      </c>
+      <c r="K71" t="s">
+        <v>255</v>
+      </c>
+      <c r="L71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N71" t="s">
+        <v>397</v>
+      </c>
+      <c r="P71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>20167</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" t="s">
+        <v>123</v>
+      </c>
+      <c r="J72" t="s">
+        <v>193</v>
+      </c>
+      <c r="K72" t="s">
+        <v>256</v>
+      </c>
+      <c r="L72" t="s">
+        <v>318</v>
+      </c>
+      <c r="M72" t="s">
+        <v>353</v>
+      </c>
+      <c r="N72" t="s">
+        <v>398</v>
+      </c>
+      <c r="O72" t="s">
+        <v>212</v>
+      </c>
+      <c r="P72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>20157</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" t="s">
+        <v>194</v>
+      </c>
+      <c r="K73" t="s">
+        <v>257</v>
+      </c>
+      <c r="L73" t="s">
+        <v>319</v>
+      </c>
+      <c r="M73" t="s">
+        <v>354</v>
+      </c>
+      <c r="N73" t="s">
+        <v>399</v>
+      </c>
+      <c r="O73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B74" t="s">
         <v>89</v>
       </c>
-      <c r="K28" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" t="s">
-        <v>136</v>
-      </c>
-      <c r="M28" t="s">
-        <v>147</v>
-      </c>
-      <c r="N28" t="s">
-        <v>160</v>
-      </c>
-      <c r="O28" t="s">
-        <v>168</v>
-      </c>
-      <c r="P28" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>194</v>
+      <c r="C74">
+        <v>20190</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J74" t="s">
+        <v>195</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>320</v>
+      </c>
+      <c r="P74" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>19822</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" t="s">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>123</v>
+      </c>
+      <c r="J75" t="s">
+        <v>196</v>
+      </c>
+      <c r="K75" t="s">
+        <v>259</v>
+      </c>
+      <c r="L75" t="s">
+        <v>321</v>
+      </c>
+      <c r="M75" t="s">
+        <v>355</v>
+      </c>
+      <c r="N75" t="s">
+        <v>400</v>
+      </c>
+      <c r="P75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>20261</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>117</v>
+      </c>
+      <c r="J76" t="s">
+        <v>197</v>
+      </c>
+      <c r="K76" t="s">
+        <v>260</v>
+      </c>
+      <c r="L76" t="s">
+        <v>322</v>
+      </c>
+      <c r="P76" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>20283</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+      <c r="J77" t="s">
+        <v>198</v>
+      </c>
+      <c r="K77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L77" t="s">
+        <v>323</v>
+      </c>
+      <c r="M77" t="s">
+        <v>356</v>
+      </c>
+      <c r="N77" t="s">
+        <v>401</v>
+      </c>
+      <c r="O77" t="s">
+        <v>429</v>
+      </c>
+      <c r="P77" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78">
+        <v>20006</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" t="s">
+        <v>108</v>
+      </c>
+      <c r="I78" t="s">
+        <v>124</v>
+      </c>
+      <c r="J78" t="s">
+        <v>199</v>
+      </c>
+      <c r="K78" t="s">
+        <v>262</v>
+      </c>
+      <c r="M78" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
